--- a/public/template2.xlsx
+++ b/public/template2.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="135">
   <si>
     <t xml:space="preserve">        </t>
   </si>
@@ -387,9 +387,6 @@
     <t>PSYC-R</t>
   </si>
   <si>
-    <t>Disfunzioni Comportamentali (2)</t>
-  </si>
-  <si>
     <t>Funzionamento Interpersonale</t>
   </si>
   <si>
@@ -429,27 +426,12 @@
     <t>Risposte Bias Scale</t>
   </si>
   <si>
-    <t xml:space="preserve">   F-r</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Fp-r</t>
   </si>
   <si>
-    <t xml:space="preserve">    FS</t>
-  </si>
-  <si>
     <t xml:space="preserve"> FBS-r</t>
   </si>
   <si>
-    <t xml:space="preserve">   RBS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   L-r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   K-r</t>
-  </si>
-  <si>
     <t>Profilo di Validità</t>
   </si>
   <si>
@@ -460,6 +442,9 @@
   </si>
   <si>
     <t>Introversione/Bassa Emozionalità Positiva Rivista</t>
+  </si>
+  <si>
+    <t>Disfunzioni Comportamentali</t>
   </si>
 </sst>
 </file>
@@ -877,19 +862,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -925,6 +901,15 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -932,6 +917,9 @@
     <xf numFmtId="14" fontId="24" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -945,9 +933,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
@@ -957,8 +942,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -967,25 +961,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1065,9 +1050,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1"/>
+          <c:x val="4.4306610011344491E-2"/>
           <c:y val="1.56733546382016E-2"/>
-          <c:w val="0.89946340040828221"/>
+          <c:w val="0.93374843676591213"/>
           <c:h val="0.94649007786160599"/>
         </c:manualLayout>
       </c:layout>
@@ -1181,11 +1166,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1425103456"/>
-        <c:axId val="1425112704"/>
+        <c:axId val="699040848"/>
+        <c:axId val="699027248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1425103456"/>
+        <c:axId val="699040848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1214,7 +1199,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1425112704"/>
+        <c:crossAx val="699027248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1222,7 +1207,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1425112704"/>
+        <c:axId val="699027248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
@@ -1241,7 +1226,7 @@
           </a:ln>
           <a:effectLst/>
         </c:spPr>
-        <c:crossAx val="1425112704"/>
+        <c:crossAx val="699027248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -1294,9 +1279,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.910643145824601E-2"/>
+          <c:x val="4.314791227750428E-2"/>
           <c:y val="1.1194029850746299E-2"/>
-          <c:w val="0.90775300075543508"/>
+          <c:w val="0.93442229295806112"/>
           <c:h val="0.95084586907979796"/>
         </c:manualLayout>
       </c:layout>
@@ -1392,11 +1377,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="992364368"/>
-        <c:axId val="992367632"/>
+        <c:axId val="699033776"/>
+        <c:axId val="699038128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="992364368"/>
+        <c:axId val="699033776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1425,7 +1410,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="992367632"/>
+        <c:crossAx val="699038128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1433,7 +1418,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="992367632"/>
+        <c:axId val="699038128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
@@ -1452,7 +1437,7 @@
           </a:ln>
           <a:effectLst/>
         </c:spPr>
-        <c:crossAx val="992367632"/>
+        <c:crossAx val="699038128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -1505,9 +1490,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.4504437030585905E-2"/>
+          <c:x val="3.9552252490112835E-2"/>
           <c:y val="1.1194029850746299E-2"/>
-          <c:w val="0.90362856204810793"/>
+          <c:w val="0.93788519286443794"/>
           <c:h val="0.95084586907979796"/>
         </c:manualLayout>
       </c:layout>
@@ -1609,11 +1594,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1421804304"/>
-        <c:axId val="1421762688"/>
+        <c:axId val="699026704"/>
+        <c:axId val="699033232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1421804304"/>
+        <c:axId val="699026704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1642,7 +1627,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1421762688"/>
+        <c:crossAx val="699033232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1650,7 +1635,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1421762688"/>
+        <c:axId val="699033232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
@@ -1669,7 +1654,7 @@
           </a:ln>
           <a:effectLst/>
         </c:spPr>
-        <c:crossAx val="1421762688"/>
+        <c:crossAx val="699033232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -1722,9 +1707,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.4173894813418063E-2"/>
+          <c:x val="3.871259109371105E-2"/>
           <c:y val="1.293310510099281E-2"/>
-          <c:w val="0.90334291225682195"/>
+          <c:w val="0.9404143893777982"/>
           <c:h val="0.95084586907979796"/>
         </c:manualLayout>
       </c:layout>
@@ -1832,11 +1817,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1427490912"/>
-        <c:axId val="1427486560"/>
+        <c:axId val="699027792"/>
+        <c:axId val="701448000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1427490912"/>
+        <c:axId val="699027792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1865,7 +1850,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1427486560"/>
+        <c:crossAx val="701448000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1873,7 +1858,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1427486560"/>
+        <c:axId val="701448000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
@@ -1892,7 +1877,7 @@
           </a:ln>
           <a:effectLst/>
         </c:spPr>
-        <c:crossAx val="1427486560"/>
+        <c:crossAx val="701448000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -1945,9 +1930,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1"/>
+          <c:x val="5.0214165653188127E-2"/>
           <c:y val="1.56733546382016E-2"/>
-          <c:w val="0.89613524989695303"/>
+          <c:w val="0.9267575660988403"/>
           <c:h val="0.94649007786160599"/>
         </c:manualLayout>
       </c:layout>
@@ -2031,11 +2016,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1427499072"/>
-        <c:axId val="1427497440"/>
+        <c:axId val="502352544"/>
+        <c:axId val="502351456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1427499072"/>
+        <c:axId val="502352544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2064,7 +2049,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1427497440"/>
+        <c:crossAx val="502351456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2072,7 +2057,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1427497440"/>
+        <c:axId val="502351456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
@@ -2091,7 +2076,7 @@
           </a:ln>
           <a:effectLst/>
         </c:spPr>
-        <c:crossAx val="1427497440"/>
+        <c:crossAx val="502351456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -2144,9 +2129,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1"/>
+          <c:x val="4.4649180852182148E-2"/>
           <c:y val="1.56733546382016E-2"/>
-          <c:w val="0.89656358787731849"/>
+          <c:w val="0.92544643765112455"/>
           <c:h val="0.94649007786160599"/>
         </c:manualLayout>
       </c:layout>
@@ -2260,11 +2245,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1427489824"/>
-        <c:axId val="1427492000"/>
+        <c:axId val="504113600"/>
+        <c:axId val="700963584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1427489824"/>
+        <c:axId val="504113600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2293,7 +2278,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1427492000"/>
+        <c:crossAx val="700963584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2301,7 +2286,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1427492000"/>
+        <c:axId val="700963584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
@@ -2320,7 +2305,7 @@
           </a:ln>
           <a:effectLst/>
         </c:spPr>
-        <c:crossAx val="1427492000"/>
+        <c:crossAx val="700963584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -2373,9 +2358,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.0439524751709202E-2"/>
+          <c:x val="4.3582110918202258E-2"/>
           <c:y val="1.1194029850746299E-2"/>
-          <c:w val="0.90620615228541967"/>
+          <c:w val="0.93087619366728092"/>
           <c:h val="0.95084586907979796"/>
         </c:manualLayout>
       </c:layout>
@@ -2471,11 +2456,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1427494176"/>
-        <c:axId val="1427484928"/>
+        <c:axId val="1165921040"/>
+        <c:axId val="416568576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1427494176"/>
+        <c:axId val="1165921040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2504,7 +2489,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1427484928"/>
+        <c:crossAx val="416568576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2512,7 +2497,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1427484928"/>
+        <c:axId val="416568576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
@@ -2531,7 +2516,7 @@
           </a:ln>
           <a:effectLst/>
         </c:spPr>
-        <c:crossAx val="1427484928"/>
+        <c:crossAx val="416568576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -2584,9 +2569,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1"/>
+          <c:x val="4.5114276422479713E-2"/>
           <c:y val="1.56733546382016E-2"/>
-          <c:w val="0.89826390279638246"/>
+          <c:w val="0.92666516094038176"/>
           <c:h val="0.94649007786160599"/>
         </c:manualLayout>
       </c:layout>
@@ -2658,11 +2643,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1427487648"/>
-        <c:axId val="1427496896"/>
+        <c:axId val="1248997712"/>
+        <c:axId val="1248978672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1427487648"/>
+        <c:axId val="1248997712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2691,7 +2676,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1427496896"/>
+        <c:crossAx val="1248978672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2699,7 +2684,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1427496896"/>
+        <c:axId val="1248978672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
@@ -2718,7 +2703,7 @@
           </a:ln>
           <a:effectLst/>
         </c:spPr>
-        <c:crossAx val="1427496896"/>
+        <c:crossAx val="1248978672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -2827,13 +2812,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
@@ -2863,11 +2848,11 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.09788</cdr:x>
+      <cdr:x>0.04878</cdr:x>
       <cdr:y>0.75137</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>1</cdr:x>
+      <cdr:x>0.97601</cdr:x>
       <cdr:y>0.75137</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
@@ -2877,8 +2862,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="727169" y="5503576"/>
-          <a:ext cx="6702331" cy="0"/>
+          <a:off x="309911" y="5432011"/>
+          <a:ext cx="5890864" cy="0"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -2910,11 +2895,11 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.09964</cdr:x>
+      <cdr:x>0.0503</cdr:x>
       <cdr:y>0.59331</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>1</cdr:x>
+      <cdr:x>0.97751</cdr:x>
       <cdr:y>0.59331</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
@@ -2924,8 +2909,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="740275" y="4345830"/>
-          <a:ext cx="6689225" cy="0"/>
+          <a:off x="319596" y="4289320"/>
+          <a:ext cx="5890704" cy="0"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -2963,13 +2948,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>504824</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>47626</xdr:colOff>
+      <xdr:colOff>200024</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -2999,11 +2984,11 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.09788</cdr:x>
+      <cdr:x>0.04539</cdr:x>
       <cdr:y>0.75137</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>1</cdr:x>
+      <cdr:x>0.97271</cdr:x>
       <cdr:y>0.75137</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
@@ -3013,8 +2998,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="727169" y="5503576"/>
-          <a:ext cx="6702331" cy="0"/>
+          <a:off x="323851" y="5503579"/>
+          <a:ext cx="6615715" cy="0"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -3046,11 +3031,11 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.09964</cdr:x>
+      <cdr:x>0.04272</cdr:x>
       <cdr:y>0.59331</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>1</cdr:x>
+      <cdr:x>0.97196</cdr:x>
       <cdr:y>0.59331</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
@@ -3060,8 +3045,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="740275" y="4345830"/>
-          <a:ext cx="6689225" cy="0"/>
+          <a:off x="304801" y="4345833"/>
+          <a:ext cx="6629400" cy="0"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -3098,14 +3083,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>352427</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
@@ -3135,11 +3120,11 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.09201</cdr:x>
+      <cdr:x>0.04156</cdr:x>
       <cdr:y>0.75084</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.99619</cdr:x>
+      <cdr:x>0.97532</cdr:x>
       <cdr:y>0.75084</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
@@ -3149,8 +3134,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="723899" y="5413876"/>
-          <a:ext cx="7113798" cy="0"/>
+          <a:off x="304800" y="5413876"/>
+          <a:ext cx="6848475" cy="0"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -3182,11 +3167,11 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.0908</cdr:x>
+      <cdr:x>0.03896</cdr:x>
       <cdr:y>0.59221</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.99623</cdr:x>
+      <cdr:x>0.97659</cdr:x>
       <cdr:y>0.59221</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
@@ -3196,8 +3181,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="687563" y="4270093"/>
-          <a:ext cx="6856235" cy="0"/>
+          <a:off x="285750" y="4270086"/>
+          <a:ext cx="6876822" cy="0"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -3235,13 +3220,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>304799</xdr:colOff>
+      <xdr:colOff>695324</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -3271,11 +3256,11 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.09788</cdr:x>
+      <cdr:x>0.04402</cdr:x>
       <cdr:y>0.75137</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>1</cdr:x>
+      <cdr:x>0.97387</cdr:x>
       <cdr:y>0.75137</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
@@ -3285,8 +3270,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="727169" y="5503576"/>
-          <a:ext cx="6702331" cy="0"/>
+          <a:off x="304801" y="5532206"/>
+          <a:ext cx="6438900" cy="0"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -3318,11 +3303,11 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.09964</cdr:x>
+      <cdr:x>0.04402</cdr:x>
       <cdr:y>0.59331</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>1</cdr:x>
+      <cdr:x>0.97524</cdr:x>
       <cdr:y>0.59331</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
@@ -3332,8 +3317,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="740275" y="4345830"/>
-          <a:ext cx="6689225" cy="0"/>
+          <a:off x="304801" y="4368438"/>
+          <a:ext cx="6448425" cy="0"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -3371,13 +3356,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>447677</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>200026</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -3407,11 +3392,11 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.09788</cdr:x>
+      <cdr:x>0.03915</cdr:x>
       <cdr:y>0.75137</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>1</cdr:x>
+      <cdr:x>0.97874</cdr:x>
       <cdr:y>0.75137</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
@@ -3421,8 +3406,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="727169" y="5503576"/>
-          <a:ext cx="6702331" cy="0"/>
+          <a:off x="283416" y="5432011"/>
+          <a:ext cx="6801658" cy="0"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -3454,11 +3439,11 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.09964</cdr:x>
+      <cdr:x>0.04184</cdr:x>
       <cdr:y>0.59331</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>1</cdr:x>
+      <cdr:x>0.98007</cdr:x>
       <cdr:y>0.59331</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
@@ -3468,8 +3453,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="740275" y="4345830"/>
-          <a:ext cx="6689225" cy="0"/>
+          <a:off x="302903" y="4289320"/>
+          <a:ext cx="6791823" cy="0"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -3506,14 +3491,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>361951</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
@@ -3543,11 +3528,11 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.05714</cdr:x>
+      <cdr:x>0.04433</cdr:x>
       <cdr:y>0.74952</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.98442</cdr:x>
+      <cdr:x>0.97941</cdr:x>
       <cdr:y>0.74952</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
@@ -3557,8 +3542,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="419100" y="5390047"/>
-          <a:ext cx="6800850" cy="0"/>
+          <a:off x="328072" y="5390079"/>
+          <a:ext cx="6920453" cy="0"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -3590,11 +3575,11 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.05541</cdr:x>
+      <cdr:x>0.04172</cdr:x>
       <cdr:y>0.59221</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.98312</cdr:x>
+      <cdr:x>0.98005</cdr:x>
       <cdr:y>0.59221</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
@@ -3604,8 +3589,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="406383" y="4258837"/>
-          <a:ext cx="6804042" cy="0"/>
+          <a:off x="298838" y="4258804"/>
+          <a:ext cx="6721086" cy="0"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -3642,14 +3627,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>542924</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
@@ -3679,11 +3664,11 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.09218</cdr:x>
+      <cdr:x>0.04067</cdr:x>
       <cdr:y>0.75084</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.99779</cdr:x>
+      <cdr:x>0.9789</cdr:x>
       <cdr:y>0.75084</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
@@ -3693,8 +3678,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="819150" y="5363813"/>
-          <a:ext cx="8048014" cy="0"/>
+          <a:off x="330436" y="5363813"/>
+          <a:ext cx="7622940" cy="0"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -3726,11 +3711,11 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.09432</cdr:x>
+      <cdr:x>0.03718</cdr:x>
       <cdr:y>0.59222</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.99779</cdr:x>
+      <cdr:x>0.97856</cdr:x>
       <cdr:y>0.59222</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
@@ -3740,8 +3725,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="838200" y="4230695"/>
-          <a:ext cx="8028964" cy="0"/>
+          <a:off x="302054" y="4230672"/>
+          <a:ext cx="7648610" cy="0"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -3779,13 +3764,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:colOff>581025</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>155575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
@@ -3815,11 +3800,11 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.09385</cdr:x>
+      <cdr:x>0.04128</cdr:x>
       <cdr:y>0.75214</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>1</cdr:x>
+      <cdr:x>0.98131</cdr:x>
       <cdr:y>0.75214</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
@@ -3829,8 +3814,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="800100" y="5492502"/>
-          <a:ext cx="7724775" cy="0"/>
+          <a:off x="336572" y="5492502"/>
+          <a:ext cx="7664428" cy="0"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -3862,11 +3847,11 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.09274</cdr:x>
+      <cdr:x>0.04017</cdr:x>
       <cdr:y>0.5935</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.99893</cdr:x>
+      <cdr:x>0.98014</cdr:x>
       <cdr:y>0.5935</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
@@ -3876,8 +3861,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="790575" y="4334034"/>
-          <a:ext cx="7725212" cy="0"/>
+          <a:off x="327521" y="4334034"/>
+          <a:ext cx="7663954" cy="0"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -4234,29 +4219,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:52" s="89" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+    <row r="1" spans="1:52" s="86" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="88" t="s">
+      <c r="C1" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="88" t="s">
+      <c r="D1" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="88" t="s">
-        <v>124</v>
-      </c>
-      <c r="F1" s="88" t="s">
+      <c r="E1" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="G1" s="88" t="s">
+      <c r="F1" s="85" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="88" t="s">
+      <c r="H1" s="85" t="s">
         <v>16</v>
       </c>
       <c r="I1" s="3" t="s">
@@ -4326,7 +4311,7 @@
         <v>93</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AF1" s="3" t="s">
         <v>24</v>
@@ -4338,7 +4323,7 @@
         <v>33</v>
       </c>
       <c r="AI1" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AJ1" s="3" t="s">
         <v>25</v>
@@ -4392,26 +4377,26 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:52" s="89" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="90">
+    <row r="2" spans="1:52" s="86" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="87">
         <v>66</v>
       </c>
-      <c r="C2" s="90">
+      <c r="C2" s="87">
         <v>68</v>
       </c>
-      <c r="D2" s="90">
+      <c r="D2" s="87">
         <v>70</v>
       </c>
-      <c r="E2" s="90">
+      <c r="E2" s="87">
         <v>72</v>
       </c>
-      <c r="F2" s="90">
+      <c r="F2" s="87">
         <v>74</v>
       </c>
-      <c r="G2" s="90">
+      <c r="G2" s="87">
         <v>76</v>
       </c>
-      <c r="H2" s="90">
+      <c r="H2" s="87">
         <v>78</v>
       </c>
       <c r="I2" s="1">
@@ -4547,26 +4532,26 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:52" s="89" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="90">
+    <row r="3" spans="1:52" s="86" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="87">
         <v>70</v>
       </c>
-      <c r="C3" s="90">
+      <c r="C3" s="87">
         <v>65</v>
       </c>
-      <c r="D3" s="90">
+      <c r="D3" s="87">
         <v>70</v>
       </c>
-      <c r="E3" s="90">
+      <c r="E3" s="87">
         <v>89</v>
       </c>
-      <c r="F3" s="90">
+      <c r="F3" s="87">
         <v>64</v>
       </c>
-      <c r="G3" s="90">
+      <c r="G3" s="87">
         <v>101</v>
       </c>
-      <c r="H3" s="90">
+      <c r="H3" s="87">
         <v>89</v>
       </c>
       <c r="I3" s="1">
@@ -4702,110 +4687,110 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:52" s="89" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="90">
-        <v>100</v>
-      </c>
-      <c r="C4" s="90">
-        <v>100</v>
-      </c>
-      <c r="D4" s="90">
-        <v>100</v>
-      </c>
-      <c r="E4" s="90">
-        <v>100</v>
-      </c>
-      <c r="F4" s="90">
-        <v>100</v>
-      </c>
-      <c r="G4" s="90">
-        <v>100</v>
-      </c>
-      <c r="H4" s="90">
-        <v>100</v>
-      </c>
-      <c r="I4" s="90">
-        <v>100</v>
-      </c>
-      <c r="J4" s="90">
-        <v>100</v>
-      </c>
-      <c r="K4" s="90">
-        <v>100</v>
-      </c>
-      <c r="L4" s="90">
-        <v>100</v>
-      </c>
-      <c r="M4" s="90">
-        <v>100</v>
-      </c>
-      <c r="N4" s="90">
-        <v>100</v>
-      </c>
-      <c r="O4" s="90">
-        <v>100</v>
-      </c>
-      <c r="P4" s="90">
-        <v>100</v>
-      </c>
-      <c r="Q4" s="90">
-        <v>100</v>
-      </c>
-      <c r="R4" s="90">
-        <v>100</v>
-      </c>
-      <c r="S4" s="90">
-        <v>100</v>
-      </c>
-      <c r="T4" s="90">
-        <v>100</v>
-      </c>
-      <c r="U4" s="90">
-        <v>100</v>
-      </c>
-      <c r="V4" s="90">
-        <v>100</v>
-      </c>
-      <c r="W4" s="90">
-        <v>100</v>
-      </c>
-      <c r="X4" s="90">
-        <v>100</v>
-      </c>
-      <c r="Y4" s="90">
-        <v>100</v>
-      </c>
-      <c r="Z4" s="90">
-        <v>100</v>
-      </c>
-      <c r="AA4" s="90">
-        <v>100</v>
-      </c>
-      <c r="AB4" s="90">
-        <v>100</v>
-      </c>
-      <c r="AC4" s="90">
-        <v>100</v>
-      </c>
-      <c r="AD4" s="90">
-        <v>100</v>
-      </c>
-      <c r="AE4" s="90">
-        <v>100</v>
-      </c>
-      <c r="AF4" s="90">
-        <v>100</v>
-      </c>
-      <c r="AG4" s="90">
-        <v>100</v>
-      </c>
-      <c r="AH4" s="90">
-        <v>100</v>
-      </c>
-      <c r="AI4" s="90">
-        <v>100</v>
-      </c>
-      <c r="AJ4" s="90">
+    <row r="4" spans="1:52" s="86" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="87">
+        <v>100</v>
+      </c>
+      <c r="C4" s="87">
+        <v>100</v>
+      </c>
+      <c r="D4" s="87">
+        <v>100</v>
+      </c>
+      <c r="E4" s="87">
+        <v>100</v>
+      </c>
+      <c r="F4" s="87">
+        <v>100</v>
+      </c>
+      <c r="G4" s="87">
+        <v>100</v>
+      </c>
+      <c r="H4" s="87">
+        <v>100</v>
+      </c>
+      <c r="I4" s="87">
+        <v>100</v>
+      </c>
+      <c r="J4" s="87">
+        <v>100</v>
+      </c>
+      <c r="K4" s="87">
+        <v>100</v>
+      </c>
+      <c r="L4" s="87">
+        <v>100</v>
+      </c>
+      <c r="M4" s="87">
+        <v>100</v>
+      </c>
+      <c r="N4" s="87">
+        <v>100</v>
+      </c>
+      <c r="O4" s="87">
+        <v>100</v>
+      </c>
+      <c r="P4" s="87">
+        <v>100</v>
+      </c>
+      <c r="Q4" s="87">
+        <v>100</v>
+      </c>
+      <c r="R4" s="87">
+        <v>100</v>
+      </c>
+      <c r="S4" s="87">
+        <v>100</v>
+      </c>
+      <c r="T4" s="87">
+        <v>100</v>
+      </c>
+      <c r="U4" s="87">
+        <v>100</v>
+      </c>
+      <c r="V4" s="87">
+        <v>100</v>
+      </c>
+      <c r="W4" s="87">
+        <v>100</v>
+      </c>
+      <c r="X4" s="87">
+        <v>100</v>
+      </c>
+      <c r="Y4" s="87">
+        <v>100</v>
+      </c>
+      <c r="Z4" s="87">
+        <v>100</v>
+      </c>
+      <c r="AA4" s="87">
+        <v>100</v>
+      </c>
+      <c r="AB4" s="87">
+        <v>100</v>
+      </c>
+      <c r="AC4" s="87">
+        <v>100</v>
+      </c>
+      <c r="AD4" s="87">
+        <v>100</v>
+      </c>
+      <c r="AE4" s="87">
+        <v>100</v>
+      </c>
+      <c r="AF4" s="87">
+        <v>100</v>
+      </c>
+      <c r="AG4" s="87">
+        <v>100</v>
+      </c>
+      <c r="AH4" s="87">
+        <v>100</v>
+      </c>
+      <c r="AI4" s="87">
+        <v>100</v>
+      </c>
+      <c r="AJ4" s="87">
         <v>100</v>
       </c>
       <c r="AK4" s="1">
@@ -4881,9 +4866,7 @@
   </sheetPr>
   <dimension ref="A2:Q60"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46:J46"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4892,42 +4875,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="105" t="s">
-        <v>116</v>
-      </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
+      <c r="A2" s="106" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="106"/>
     </row>
     <row r="3" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="105"/>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
+      <c r="A3" s="106"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="106"/>
+      <c r="O3" s="106"/>
+      <c r="P3" s="106"/>
     </row>
     <row r="43" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="64" t="s">
@@ -4968,106 +4951,106 @@
       <c r="A44" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="106">
+      <c r="C44" s="110">
         <f>Dati!AS2</f>
         <v>67</v>
       </c>
-      <c r="D44" s="106"/>
-      <c r="E44" s="106">
+      <c r="D44" s="110"/>
+      <c r="E44" s="110">
         <f>Dati!AT2</f>
         <v>68</v>
       </c>
-      <c r="F44" s="106"/>
-      <c r="G44" s="106">
+      <c r="F44" s="110"/>
+      <c r="G44" s="110">
         <f>Dati!AU2</f>
         <v>69</v>
       </c>
-      <c r="H44" s="106"/>
-      <c r="I44" s="106">
+      <c r="H44" s="110"/>
+      <c r="I44" s="110">
         <f>Dati!AV2</f>
         <v>70</v>
       </c>
-      <c r="J44" s="106"/>
-      <c r="K44" s="106">
+      <c r="J44" s="110"/>
+      <c r="K44" s="110">
         <f>Dati!AW2</f>
         <v>71</v>
       </c>
-      <c r="L44" s="106"/>
-      <c r="M44" s="106">
+      <c r="L44" s="110"/>
+      <c r="M44" s="110">
         <f>Dati!AX2</f>
         <v>72</v>
       </c>
-      <c r="N44" s="106"/>
+      <c r="N44" s="110"/>
     </row>
     <row r="45" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="C45" s="106">
+      <c r="C45" s="110">
         <f>Dati!AS3</f>
         <v>65</v>
       </c>
-      <c r="D45" s="106"/>
-      <c r="E45" s="106">
+      <c r="D45" s="110"/>
+      <c r="E45" s="110">
         <f>Dati!AT3</f>
         <v>75</v>
       </c>
-      <c r="F45" s="106"/>
-      <c r="G45" s="106">
+      <c r="F45" s="110"/>
+      <c r="G45" s="110">
         <f>Dati!AU3</f>
         <v>54</v>
       </c>
-      <c r="H45" s="106"/>
-      <c r="I45" s="106">
+      <c r="H45" s="110"/>
+      <c r="I45" s="110">
         <f>Dati!AV3</f>
         <v>88</v>
       </c>
-      <c r="J45" s="106"/>
-      <c r="K45" s="106">
+      <c r="J45" s="110"/>
+      <c r="K45" s="110">
         <f>Dati!AW3</f>
         <v>94</v>
       </c>
-      <c r="L45" s="106"/>
-      <c r="M45" s="106">
+      <c r="L45" s="110"/>
+      <c r="M45" s="110">
         <f>Dati!AX3</f>
         <v>44</v>
       </c>
-      <c r="N45" s="106"/>
+      <c r="N45" s="110"/>
     </row>
     <row r="46" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="106">
+      <c r="C46" s="110">
         <f>Dati!AS4</f>
         <v>100</v>
       </c>
-      <c r="D46" s="106"/>
-      <c r="E46" s="106">
+      <c r="D46" s="110"/>
+      <c r="E46" s="110">
         <f>Dati!AT4</f>
         <v>100</v>
       </c>
-      <c r="F46" s="106"/>
-      <c r="G46" s="106">
+      <c r="F46" s="110"/>
+      <c r="G46" s="110">
         <f>Dati!AU4</f>
         <v>100</v>
       </c>
-      <c r="H46" s="106"/>
-      <c r="I46" s="106">
+      <c r="H46" s="110"/>
+      <c r="I46" s="110">
         <f>Dati!AV4</f>
         <v>100</v>
       </c>
-      <c r="J46" s="106"/>
-      <c r="K46" s="106">
+      <c r="J46" s="110"/>
+      <c r="K46" s="110">
         <f>Dati!AW4</f>
         <v>100</v>
       </c>
-      <c r="L46" s="106"/>
-      <c r="M46" s="106">
+      <c r="L46" s="110"/>
+      <c r="M46" s="110">
         <f>Dati!AX4</f>
         <v>100</v>
       </c>
-      <c r="N46" s="106"/>
+      <c r="N46" s="110"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B47" s="5"/>
@@ -5255,21 +5238,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="31">
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="B58:F58"/>
-    <mergeCell ref="H58:L58"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="B54:F54"/>
-    <mergeCell ref="H56:L56"/>
-    <mergeCell ref="H54:L54"/>
-    <mergeCell ref="B56:F56"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="I46:J46"/>
     <mergeCell ref="A2:P3"/>
     <mergeCell ref="G44:H44"/>
     <mergeCell ref="G45:H45"/>
@@ -5286,6 +5254,21 @@
     <mergeCell ref="I45:J45"/>
     <mergeCell ref="M44:N44"/>
     <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="B58:F58"/>
+    <mergeCell ref="H58:L58"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="H56:L56"/>
+    <mergeCell ref="H54:L54"/>
+    <mergeCell ref="B56:F56"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="I46:J46"/>
   </mergeCells>
   <pageMargins left="0.30000000000000004" right="0.2" top="0.65249999999999997" bottom="0.53187499999999999" header="0" footer="0.30000000000000004"/>
   <pageSetup paperSize="9" scale="71" orientation="portrait" r:id="rId1"/>
@@ -5300,9 +5283,7 @@
   </sheetPr>
   <dimension ref="A3:M61"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A22" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5312,36 +5293,36 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="105" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
+      <c r="A3" s="106" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="106"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="105"/>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="105"/>
-      <c r="M4" s="105"/>
+      <c r="A4" s="106"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="106"/>
     </row>
     <row r="42" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5388,63 +5369,63 @@
       <c r="A45" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="106">
+      <c r="B45" s="110">
         <f>Dati!AY2</f>
         <v>49</v>
       </c>
-      <c r="C45" s="106"/>
-      <c r="D45" s="106"/>
-      <c r="E45" s="106"/>
-      <c r="F45" s="106"/>
-      <c r="G45" s="106">
+      <c r="C45" s="110"/>
+      <c r="D45" s="110"/>
+      <c r="E45" s="110"/>
+      <c r="F45" s="110"/>
+      <c r="G45" s="110">
         <f>Dati!AZ2</f>
         <v>59</v>
       </c>
-      <c r="H45" s="106"/>
-      <c r="I45" s="106"/>
-      <c r="J45" s="106"/>
+      <c r="H45" s="110"/>
+      <c r="I45" s="110"/>
+      <c r="J45" s="110"/>
       <c r="K45" s="66"/>
     </row>
     <row r="46" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="106">
+      <c r="B46" s="110">
         <f>Dati!AY3</f>
         <v>65</v>
       </c>
-      <c r="C46" s="106"/>
-      <c r="D46" s="106"/>
-      <c r="E46" s="106"/>
-      <c r="F46" s="106"/>
-      <c r="G46" s="106">
+      <c r="C46" s="110"/>
+      <c r="D46" s="110"/>
+      <c r="E46" s="110"/>
+      <c r="F46" s="110"/>
+      <c r="G46" s="110">
         <f>Dati!AZ3</f>
         <v>78</v>
       </c>
-      <c r="H46" s="106"/>
-      <c r="I46" s="106"/>
-      <c r="J46" s="106"/>
+      <c r="H46" s="110"/>
+      <c r="I46" s="110"/>
+      <c r="J46" s="110"/>
       <c r="K46" s="66"/>
     </row>
     <row r="47" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="106">
+      <c r="B47" s="110">
         <f>Dati!AY4</f>
         <v>100</v>
       </c>
-      <c r="C47" s="106"/>
-      <c r="D47" s="106"/>
-      <c r="E47" s="106"/>
-      <c r="F47" s="106"/>
-      <c r="G47" s="106">
+      <c r="C47" s="110"/>
+      <c r="D47" s="110"/>
+      <c r="E47" s="110"/>
+      <c r="F47" s="110"/>
+      <c r="G47" s="110">
         <f>Dati!AZ4</f>
         <v>100</v>
       </c>
-      <c r="H47" s="106"/>
-      <c r="I47" s="106"/>
-      <c r="J47" s="106"/>
+      <c r="H47" s="110"/>
+      <c r="I47" s="110"/>
+      <c r="J47" s="110"/>
       <c r="K47" s="66"/>
     </row>
     <row r="48" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5603,21 +5584,21 @@
       <c r="A58" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B58" s="102" t="s">
+      <c r="B58" s="103" t="s">
         <v>81</v>
       </c>
-      <c r="C58" s="102"/>
-      <c r="D58" s="102"/>
-      <c r="E58" s="102"/>
+      <c r="C58" s="103"/>
+      <c r="D58" s="103"/>
+      <c r="E58" s="103"/>
       <c r="F58" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G58" s="102" t="s">
+      <c r="G58" s="103" t="s">
         <v>82</v>
       </c>
-      <c r="H58" s="102"/>
-      <c r="I58" s="102"/>
-      <c r="J58" s="102"/>
+      <c r="H58" s="103"/>
+      <c r="I58" s="103"/>
+      <c r="J58" s="103"/>
       <c r="K58" s="66"/>
     </row>
     <row r="59" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5646,15 +5627,15 @@
     </row>
     <row r="61" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3"/>
-      <c r="B61" s="102"/>
-      <c r="C61" s="103"/>
-      <c r="D61" s="103"/>
-      <c r="E61" s="103"/>
+      <c r="B61" s="103"/>
+      <c r="C61" s="104"/>
+      <c r="D61" s="104"/>
+      <c r="E61" s="104"/>
       <c r="F61" s="3"/>
-      <c r="G61" s="102"/>
-      <c r="H61" s="103"/>
-      <c r="I61" s="103"/>
-      <c r="J61" s="103"/>
+      <c r="G61" s="103"/>
+      <c r="H61" s="104"/>
+      <c r="I61" s="104"/>
+      <c r="J61" s="104"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -5683,7 +5664,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Y41"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageLayout" workbookViewId="0">
+      <selection activeCell="Y58" sqref="Y58"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5691,87 +5674,87 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="114" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
-      <c r="R2" s="111"/>
-      <c r="S2" s="111"/>
-      <c r="T2" s="111"/>
-      <c r="U2" s="111"/>
-      <c r="V2" s="111"/>
-      <c r="W2" s="111"/>
-      <c r="X2" s="111"/>
-      <c r="Y2" s="111"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="114"/>
+      <c r="P2" s="114"/>
+      <c r="Q2" s="114"/>
+      <c r="R2" s="114"/>
+      <c r="S2" s="114"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="114"/>
+      <c r="V2" s="114"/>
+      <c r="W2" s="114"/>
+      <c r="X2" s="114"/>
+      <c r="Y2" s="114"/>
     </row>
     <row r="3" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="111"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="111"/>
-      <c r="P3" s="111"/>
-      <c r="Q3" s="111"/>
-      <c r="R3" s="111"/>
-      <c r="S3" s="111"/>
-      <c r="T3" s="111"/>
-      <c r="U3" s="111"/>
-      <c r="V3" s="111"/>
-      <c r="W3" s="111"/>
-      <c r="X3" s="111"/>
-      <c r="Y3" s="111"/>
+      <c r="A3" s="114"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="114"/>
+      <c r="T3" s="114"/>
+      <c r="U3" s="114"/>
+      <c r="V3" s="114"/>
+      <c r="W3" s="114"/>
+      <c r="X3" s="114"/>
+      <c r="Y3" s="114"/>
     </row>
     <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="111"/>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="111"/>
-      <c r="L4" s="111"/>
-      <c r="M4" s="111"/>
-      <c r="N4" s="111"/>
-      <c r="O4" s="111"/>
-      <c r="P4" s="111"/>
-      <c r="Q4" s="111"/>
-      <c r="R4" s="111"/>
-      <c r="S4" s="111"/>
-      <c r="T4" s="111"/>
-      <c r="U4" s="111"/>
-      <c r="V4" s="111"/>
-      <c r="W4" s="111"/>
-      <c r="X4" s="111"/>
-      <c r="Y4" s="111"/>
+      <c r="A4" s="114"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="114"/>
+      <c r="M4" s="114"/>
+      <c r="N4" s="114"/>
+      <c r="O4" s="114"/>
+      <c r="P4" s="114"/>
+      <c r="Q4" s="114"/>
+      <c r="R4" s="114"/>
+      <c r="S4" s="114"/>
+      <c r="T4" s="114"/>
+      <c r="U4" s="114"/>
+      <c r="V4" s="114"/>
+      <c r="W4" s="114"/>
+      <c r="X4" s="114"/>
+      <c r="Y4" s="114"/>
     </row>
     <row r="5" spans="1:25" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="76"/>
@@ -6311,8 +6294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:J10"/>
+    <sheetView showGridLines="0" view="pageLayout" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6354,59 +6337,59 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="111" t="s">
+      <c r="A4" s="114" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="111"/>
-      <c r="L4" s="111"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="114"/>
     </row>
     <row r="5" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="111"/>
-      <c r="B5" s="111"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-      <c r="I5" s="111"/>
-      <c r="J5" s="111"/>
-      <c r="K5" s="111"/>
-      <c r="L5" s="111"/>
+      <c r="A5" s="114"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="114"/>
+      <c r="L5" s="114"/>
     </row>
     <row r="6" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="111"/>
-      <c r="B6" s="111"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111"/>
-      <c r="L6" s="111"/>
+      <c r="A6" s="114"/>
+      <c r="B6" s="114"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114"/>
+      <c r="L6" s="114"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
-      <c r="B8" s="112"/>
-      <c r="C8" s="112"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="112"/>
-      <c r="I8" s="112"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
       <c r="J8" s="75"/>
       <c r="K8" s="24"/>
     </row>
@@ -6416,734 +6399,761 @@
     </row>
     <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="26"/>
-      <c r="B10" s="115" t="s">
-        <v>127</v>
-      </c>
-      <c r="C10" s="112"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="112"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="112"/>
+      <c r="B10" s="117" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="115"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="115"/>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="26"/>
-      <c r="B11" s="112"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="112"/>
-      <c r="I11" s="112"/>
-      <c r="J11" s="112"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="115"/>
+      <c r="G11" s="115"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="115"/>
+      <c r="J11" s="115"/>
       <c r="K11" s="24"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="26"/>
-      <c r="B12" s="112"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="112"/>
-      <c r="H12" s="112"/>
-      <c r="I12" s="112"/>
-      <c r="J12" s="112"/>
+      <c r="B12" s="115"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="115"/>
       <c r="K12" s="24"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
-      <c r="B13" s="112"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="112"/>
+      <c r="B13" s="115"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="115"/>
       <c r="K13" s="24"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
-      <c r="B14" s="112"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="112"/>
-      <c r="I14" s="112"/>
-      <c r="J14" s="112"/>
+      <c r="B14" s="115"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="115"/>
       <c r="K14" s="24"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="26"/>
-      <c r="B15" s="112"/>
-      <c r="C15" s="112"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="112"/>
-      <c r="G15" s="112"/>
-      <c r="H15" s="112"/>
-      <c r="I15" s="112"/>
-      <c r="J15" s="112"/>
+      <c r="B15" s="115"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="115"/>
+      <c r="J15" s="115"/>
       <c r="K15" s="24"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="26"/>
-      <c r="B16" s="112"/>
-      <c r="C16" s="112"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="112"/>
-      <c r="F16" s="112"/>
-      <c r="G16" s="112"/>
-      <c r="H16" s="112"/>
-      <c r="I16" s="112"/>
-      <c r="J16" s="112"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="115"/>
       <c r="K16" s="24"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
-      <c r="B17" s="112"/>
-      <c r="C17" s="112"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="112"/>
-      <c r="H17" s="112"/>
-      <c r="I17" s="112"/>
-      <c r="J17" s="112"/>
+      <c r="B17" s="115"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="115"/>
+      <c r="J17" s="115"/>
       <c r="K17" s="24"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
-      <c r="B18" s="112"/>
-      <c r="C18" s="112"/>
-      <c r="D18" s="112"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="112"/>
-      <c r="H18" s="112"/>
-      <c r="I18" s="112"/>
-      <c r="J18" s="112"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="115"/>
+      <c r="I18" s="115"/>
+      <c r="J18" s="115"/>
       <c r="K18" s="25"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="27"/>
-      <c r="B19" s="112"/>
-      <c r="C19" s="112"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="112"/>
-      <c r="G19" s="112"/>
-      <c r="H19" s="112"/>
-      <c r="I19" s="112"/>
-      <c r="J19" s="112"/>
+      <c r="B19" s="115"/>
+      <c r="C19" s="115"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="115"/>
+      <c r="J19" s="115"/>
       <c r="K19" s="25"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
-      <c r="B20" s="112"/>
-      <c r="C20" s="112"/>
-      <c r="D20" s="112"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="112"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="115"/>
+      <c r="D20" s="115"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="115"/>
+      <c r="I20" s="115"/>
+      <c r="J20" s="115"/>
       <c r="K20" s="25"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="26"/>
-      <c r="B21" s="112"/>
-      <c r="C21" s="112"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="112"/>
+      <c r="B21" s="115"/>
+      <c r="C21" s="115"/>
+      <c r="D21" s="115"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="115"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="115"/>
+      <c r="I21" s="115"/>
+      <c r="J21" s="115"/>
       <c r="K21" s="24"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
-      <c r="B22" s="112"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="112"/>
-      <c r="H22" s="112"/>
-      <c r="I22" s="112"/>
-      <c r="J22" s="112"/>
+      <c r="B22" s="115"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="115"/>
+      <c r="J22" s="115"/>
       <c r="K22" s="24"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="26"/>
-      <c r="B23" s="112"/>
-      <c r="C23" s="112"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="112"/>
-      <c r="H23" s="112"/>
-      <c r="I23" s="112"/>
-      <c r="J23" s="112"/>
+      <c r="B23" s="115"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="115"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="115"/>
+      <c r="I23" s="115"/>
+      <c r="J23" s="115"/>
       <c r="K23" s="24"/>
     </row>
     <row r="24" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
-      <c r="B24" s="112"/>
-      <c r="C24" s="112"/>
-      <c r="D24" s="112"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="112"/>
-      <c r="G24" s="112"/>
-      <c r="H24" s="112"/>
-      <c r="I24" s="112"/>
-      <c r="J24" s="112"/>
+      <c r="B24" s="115"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="115"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="115"/>
+      <c r="G24" s="115"/>
+      <c r="H24" s="115"/>
+      <c r="I24" s="115"/>
+      <c r="J24" s="115"/>
       <c r="K24" s="24"/>
     </row>
     <row r="25" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="26"/>
-      <c r="B25" s="112"/>
-      <c r="C25" s="112"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="112"/>
-      <c r="G25" s="112"/>
-      <c r="H25" s="112"/>
-      <c r="I25" s="112"/>
-      <c r="J25" s="112"/>
+      <c r="B25" s="115"/>
+      <c r="C25" s="115"/>
+      <c r="D25" s="115"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="115"/>
+      <c r="G25" s="115"/>
+      <c r="H25" s="115"/>
+      <c r="I25" s="115"/>
+      <c r="J25" s="115"/>
       <c r="K25" s="24"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="26"/>
-      <c r="B26" s="112"/>
-      <c r="C26" s="112"/>
-      <c r="D26" s="112"/>
-      <c r="E26" s="112"/>
-      <c r="F26" s="112"/>
-      <c r="G26" s="112"/>
-      <c r="H26" s="112"/>
-      <c r="I26" s="112"/>
-      <c r="J26" s="112"/>
+      <c r="B26" s="115"/>
+      <c r="C26" s="115"/>
+      <c r="D26" s="115"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="115"/>
+      <c r="G26" s="115"/>
+      <c r="H26" s="115"/>
+      <c r="I26" s="115"/>
+      <c r="J26" s="115"/>
       <c r="K26" s="24"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="26"/>
-      <c r="B27" s="112"/>
-      <c r="C27" s="112"/>
-      <c r="D27" s="112"/>
-      <c r="E27" s="112"/>
-      <c r="F27" s="112"/>
-      <c r="G27" s="112"/>
-      <c r="H27" s="112"/>
-      <c r="I27" s="112"/>
-      <c r="J27" s="112"/>
+      <c r="B27" s="115"/>
+      <c r="C27" s="115"/>
+      <c r="D27" s="115"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="115"/>
+      <c r="G27" s="115"/>
+      <c r="H27" s="115"/>
+      <c r="I27" s="115"/>
+      <c r="J27" s="115"/>
       <c r="K27" s="24"/>
     </row>
     <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="26"/>
-      <c r="B28" s="112"/>
-      <c r="C28" s="112"/>
-      <c r="D28" s="112"/>
-      <c r="E28" s="112"/>
-      <c r="F28" s="112"/>
-      <c r="G28" s="112"/>
-      <c r="H28" s="112"/>
-      <c r="I28" s="112"/>
-      <c r="J28" s="112"/>
+      <c r="B28" s="115"/>
+      <c r="C28" s="115"/>
+      <c r="D28" s="115"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="115"/>
+      <c r="G28" s="115"/>
+      <c r="H28" s="115"/>
+      <c r="I28" s="115"/>
+      <c r="J28" s="115"/>
       <c r="K28" s="24"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
-      <c r="B29" s="112"/>
-      <c r="C29" s="112"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="112"/>
-      <c r="G29" s="112"/>
-      <c r="H29" s="112"/>
-      <c r="I29" s="112"/>
-      <c r="J29" s="112"/>
+      <c r="B29" s="115"/>
+      <c r="C29" s="115"/>
+      <c r="D29" s="115"/>
+      <c r="E29" s="115"/>
+      <c r="F29" s="115"/>
+      <c r="G29" s="115"/>
+      <c r="H29" s="115"/>
+      <c r="I29" s="115"/>
+      <c r="J29" s="115"/>
       <c r="K29" s="24"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="26"/>
-      <c r="B30" s="112"/>
-      <c r="C30" s="112"/>
-      <c r="D30" s="112"/>
-      <c r="E30" s="112"/>
-      <c r="F30" s="112"/>
-      <c r="G30" s="112"/>
-      <c r="H30" s="112"/>
-      <c r="I30" s="112"/>
-      <c r="J30" s="112"/>
+      <c r="B30" s="115"/>
+      <c r="C30" s="115"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="115"/>
+      <c r="G30" s="115"/>
+      <c r="H30" s="115"/>
+      <c r="I30" s="115"/>
+      <c r="J30" s="115"/>
       <c r="K30" s="24"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="26"/>
-      <c r="B31" s="112"/>
-      <c r="C31" s="112"/>
-      <c r="D31" s="112"/>
-      <c r="E31" s="112"/>
-      <c r="F31" s="112"/>
-      <c r="G31" s="112"/>
-      <c r="H31" s="112"/>
-      <c r="I31" s="112"/>
-      <c r="J31" s="112"/>
+      <c r="B31" s="115"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="115"/>
+      <c r="E31" s="115"/>
+      <c r="F31" s="115"/>
+      <c r="G31" s="115"/>
+      <c r="H31" s="115"/>
+      <c r="I31" s="115"/>
+      <c r="J31" s="115"/>
       <c r="K31" s="24"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="26"/>
-      <c r="B32" s="112"/>
-      <c r="C32" s="112"/>
-      <c r="D32" s="112"/>
-      <c r="E32" s="112"/>
-      <c r="F32" s="112"/>
-      <c r="G32" s="112"/>
-      <c r="H32" s="112"/>
-      <c r="I32" s="112"/>
-      <c r="J32" s="112"/>
+      <c r="B32" s="115"/>
+      <c r="C32" s="115"/>
+      <c r="D32" s="115"/>
+      <c r="E32" s="115"/>
+      <c r="F32" s="115"/>
+      <c r="G32" s="115"/>
+      <c r="H32" s="115"/>
+      <c r="I32" s="115"/>
+      <c r="J32" s="115"/>
       <c r="K32" s="24"/>
     </row>
     <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="26"/>
-      <c r="B33" s="112"/>
-      <c r="C33" s="112"/>
-      <c r="D33" s="112"/>
-      <c r="E33" s="112"/>
-      <c r="F33" s="112"/>
-      <c r="G33" s="112"/>
-      <c r="H33" s="112"/>
-      <c r="I33" s="112"/>
-      <c r="J33" s="112"/>
+      <c r="B33" s="115"/>
+      <c r="C33" s="115"/>
+      <c r="D33" s="115"/>
+      <c r="E33" s="115"/>
+      <c r="F33" s="115"/>
+      <c r="G33" s="115"/>
+      <c r="H33" s="115"/>
+      <c r="I33" s="115"/>
+      <c r="J33" s="115"/>
       <c r="K33" s="24"/>
     </row>
     <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="26"/>
-      <c r="B34" s="112"/>
-      <c r="C34" s="112"/>
-      <c r="D34" s="112"/>
-      <c r="E34" s="112"/>
-      <c r="F34" s="112"/>
-      <c r="G34" s="112"/>
-      <c r="H34" s="112"/>
-      <c r="I34" s="112"/>
-      <c r="J34" s="112"/>
+      <c r="B34" s="115"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="115"/>
+      <c r="E34" s="115"/>
+      <c r="F34" s="115"/>
+      <c r="G34" s="115"/>
+      <c r="H34" s="115"/>
+      <c r="I34" s="115"/>
+      <c r="J34" s="115"/>
       <c r="K34" s="24"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="26"/>
-      <c r="B35" s="112"/>
-      <c r="C35" s="112"/>
-      <c r="D35" s="112"/>
-      <c r="E35" s="112"/>
-      <c r="F35" s="112"/>
-      <c r="G35" s="112"/>
-      <c r="H35" s="112"/>
-      <c r="I35" s="112"/>
-      <c r="J35" s="112"/>
+      <c r="B35" s="115"/>
+      <c r="C35" s="115"/>
+      <c r="D35" s="115"/>
+      <c r="E35" s="115"/>
+      <c r="F35" s="115"/>
+      <c r="G35" s="115"/>
+      <c r="H35" s="115"/>
+      <c r="I35" s="115"/>
+      <c r="J35" s="115"/>
       <c r="K35" s="24"/>
     </row>
     <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="26"/>
-      <c r="B36" s="112"/>
-      <c r="C36" s="112"/>
-      <c r="D36" s="112"/>
-      <c r="E36" s="112"/>
-      <c r="F36" s="112"/>
-      <c r="G36" s="112"/>
-      <c r="H36" s="112"/>
-      <c r="I36" s="112"/>
-      <c r="J36" s="112"/>
+      <c r="B36" s="115"/>
+      <c r="C36" s="115"/>
+      <c r="D36" s="115"/>
+      <c r="E36" s="115"/>
+      <c r="F36" s="115"/>
+      <c r="G36" s="115"/>
+      <c r="H36" s="115"/>
+      <c r="I36" s="115"/>
+      <c r="J36" s="115"/>
       <c r="K36" s="24"/>
     </row>
     <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="26"/>
-      <c r="B37" s="112"/>
-      <c r="C37" s="112"/>
-      <c r="D37" s="112"/>
-      <c r="E37" s="112"/>
-      <c r="F37" s="112"/>
-      <c r="G37" s="112"/>
-      <c r="H37" s="112"/>
-      <c r="I37" s="112"/>
-      <c r="J37" s="112"/>
+      <c r="B37" s="115"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="115"/>
+      <c r="E37" s="115"/>
+      <c r="F37" s="115"/>
+      <c r="G37" s="115"/>
+      <c r="H37" s="115"/>
+      <c r="I37" s="115"/>
+      <c r="J37" s="115"/>
       <c r="K37" s="24"/>
     </row>
     <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="26"/>
-      <c r="B38" s="112"/>
-      <c r="C38" s="112"/>
-      <c r="D38" s="112"/>
-      <c r="E38" s="112"/>
-      <c r="F38" s="112"/>
-      <c r="G38" s="112"/>
-      <c r="H38" s="112"/>
-      <c r="I38" s="112"/>
-      <c r="J38" s="112"/>
+      <c r="B38" s="115"/>
+      <c r="C38" s="115"/>
+      <c r="D38" s="115"/>
+      <c r="E38" s="115"/>
+      <c r="F38" s="115"/>
+      <c r="G38" s="115"/>
+      <c r="H38" s="115"/>
+      <c r="I38" s="115"/>
+      <c r="J38" s="115"/>
       <c r="K38" s="24"/>
     </row>
     <row r="39" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="26"/>
-      <c r="B39" s="112"/>
-      <c r="C39" s="112"/>
-      <c r="D39" s="112"/>
-      <c r="E39" s="112"/>
-      <c r="F39" s="112"/>
-      <c r="G39" s="112"/>
-      <c r="H39" s="112"/>
-      <c r="I39" s="112"/>
-      <c r="J39" s="112"/>
+      <c r="B39" s="115"/>
+      <c r="C39" s="115"/>
+      <c r="D39" s="115"/>
+      <c r="E39" s="115"/>
+      <c r="F39" s="115"/>
+      <c r="G39" s="115"/>
+      <c r="H39" s="115"/>
+      <c r="I39" s="115"/>
+      <c r="J39" s="115"/>
       <c r="K39" s="24"/>
     </row>
     <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="26"/>
-      <c r="B40" s="112"/>
-      <c r="C40" s="112"/>
-      <c r="D40" s="112"/>
-      <c r="E40" s="112"/>
-      <c r="F40" s="112"/>
-      <c r="G40" s="112"/>
-      <c r="H40" s="112"/>
-      <c r="I40" s="112"/>
-      <c r="J40" s="112"/>
+      <c r="B40" s="115"/>
+      <c r="C40" s="115"/>
+      <c r="D40" s="115"/>
+      <c r="E40" s="115"/>
+      <c r="F40" s="115"/>
+      <c r="G40" s="115"/>
+      <c r="H40" s="115"/>
+      <c r="I40" s="115"/>
+      <c r="J40" s="115"/>
       <c r="K40" s="24"/>
     </row>
     <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="26"/>
-      <c r="B41" s="112"/>
-      <c r="C41" s="112"/>
-      <c r="D41" s="112"/>
-      <c r="E41" s="112"/>
-      <c r="F41" s="112"/>
-      <c r="G41" s="112"/>
-      <c r="H41" s="112"/>
-      <c r="I41" s="112"/>
-      <c r="J41" s="112"/>
+      <c r="B41" s="115"/>
+      <c r="C41" s="115"/>
+      <c r="D41" s="115"/>
+      <c r="E41" s="115"/>
+      <c r="F41" s="115"/>
+      <c r="G41" s="115"/>
+      <c r="H41" s="115"/>
+      <c r="I41" s="115"/>
+      <c r="J41" s="115"/>
       <c r="K41" s="24"/>
     </row>
     <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="26"/>
-      <c r="B42" s="112"/>
-      <c r="C42" s="112"/>
-      <c r="D42" s="112"/>
-      <c r="E42" s="112"/>
-      <c r="F42" s="112"/>
-      <c r="G42" s="112"/>
-      <c r="H42" s="112"/>
-      <c r="I42" s="112"/>
-      <c r="J42" s="112"/>
+      <c r="B42" s="115"/>
+      <c r="C42" s="115"/>
+      <c r="D42" s="115"/>
+      <c r="E42" s="115"/>
+      <c r="F42" s="115"/>
+      <c r="G42" s="115"/>
+      <c r="H42" s="115"/>
+      <c r="I42" s="115"/>
+      <c r="J42" s="115"/>
       <c r="K42" s="24"/>
     </row>
     <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="26"/>
-      <c r="B43" s="112"/>
-      <c r="C43" s="112"/>
-      <c r="D43" s="112"/>
-      <c r="E43" s="112"/>
-      <c r="F43" s="112"/>
-      <c r="G43" s="112"/>
-      <c r="H43" s="112"/>
-      <c r="I43" s="112"/>
-      <c r="J43" s="112"/>
+      <c r="B43" s="115"/>
+      <c r="C43" s="115"/>
+      <c r="D43" s="115"/>
+      <c r="E43" s="115"/>
+      <c r="F43" s="115"/>
+      <c r="G43" s="115"/>
+      <c r="H43" s="115"/>
+      <c r="I43" s="115"/>
+      <c r="J43" s="115"/>
       <c r="K43" s="24"/>
     </row>
     <row r="44" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="26"/>
-      <c r="B44" s="112"/>
-      <c r="C44" s="112"/>
-      <c r="D44" s="112"/>
-      <c r="E44" s="112"/>
-      <c r="F44" s="112"/>
-      <c r="G44" s="112"/>
-      <c r="H44" s="112"/>
-      <c r="I44" s="112"/>
-      <c r="J44" s="112"/>
+      <c r="B44" s="115"/>
+      <c r="C44" s="115"/>
+      <c r="D44" s="115"/>
+      <c r="E44" s="115"/>
+      <c r="F44" s="115"/>
+      <c r="G44" s="115"/>
+      <c r="H44" s="115"/>
+      <c r="I44" s="115"/>
+      <c r="J44" s="115"/>
       <c r="K44" s="24"/>
     </row>
     <row r="45" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="26"/>
-      <c r="B45" s="112"/>
-      <c r="C45" s="112"/>
-      <c r="D45" s="112"/>
-      <c r="E45" s="112"/>
-      <c r="F45" s="112"/>
-      <c r="G45" s="112"/>
-      <c r="H45" s="112"/>
-      <c r="I45" s="112"/>
-      <c r="J45" s="112"/>
+      <c r="B45" s="115"/>
+      <c r="C45" s="115"/>
+      <c r="D45" s="115"/>
+      <c r="E45" s="115"/>
+      <c r="F45" s="115"/>
+      <c r="G45" s="115"/>
+      <c r="H45" s="115"/>
+      <c r="I45" s="115"/>
+      <c r="J45" s="115"/>
       <c r="K45" s="24"/>
     </row>
     <row r="46" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="26"/>
-      <c r="B46" s="112"/>
-      <c r="C46" s="112"/>
-      <c r="D46" s="112"/>
-      <c r="E46" s="112"/>
-      <c r="F46" s="112"/>
-      <c r="G46" s="112"/>
-      <c r="H46" s="112"/>
-      <c r="I46" s="112"/>
-      <c r="J46" s="112"/>
+      <c r="B46" s="115"/>
+      <c r="C46" s="115"/>
+      <c r="D46" s="115"/>
+      <c r="E46" s="115"/>
+      <c r="F46" s="115"/>
+      <c r="G46" s="115"/>
+      <c r="H46" s="115"/>
+      <c r="I46" s="115"/>
+      <c r="J46" s="115"/>
       <c r="K46" s="24"/>
     </row>
     <row r="47" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="26"/>
-      <c r="B47" s="112"/>
-      <c r="C47" s="112"/>
-      <c r="D47" s="112"/>
-      <c r="E47" s="112"/>
-      <c r="F47" s="112"/>
-      <c r="G47" s="112"/>
-      <c r="H47" s="112"/>
-      <c r="I47" s="112"/>
-      <c r="J47" s="112"/>
+      <c r="B47" s="115"/>
+      <c r="C47" s="115"/>
+      <c r="D47" s="115"/>
+      <c r="E47" s="115"/>
+      <c r="F47" s="115"/>
+      <c r="G47" s="115"/>
+      <c r="H47" s="115"/>
+      <c r="I47" s="115"/>
+      <c r="J47" s="115"/>
       <c r="K47" s="24"/>
     </row>
     <row r="48" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="26"/>
-      <c r="B48" s="112"/>
-      <c r="C48" s="112"/>
-      <c r="D48" s="112"/>
-      <c r="E48" s="112"/>
-      <c r="F48" s="112"/>
-      <c r="G48" s="112"/>
-      <c r="H48" s="112"/>
-      <c r="I48" s="112"/>
-      <c r="J48" s="112"/>
+      <c r="B48" s="115"/>
+      <c r="C48" s="115"/>
+      <c r="D48" s="115"/>
+      <c r="E48" s="115"/>
+      <c r="F48" s="115"/>
+      <c r="G48" s="115"/>
+      <c r="H48" s="115"/>
+      <c r="I48" s="115"/>
+      <c r="J48" s="115"/>
       <c r="K48" s="24"/>
     </row>
     <row r="49" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="26"/>
-      <c r="B49" s="112"/>
-      <c r="C49" s="112"/>
-      <c r="D49" s="112"/>
-      <c r="E49" s="112"/>
-      <c r="F49" s="112"/>
-      <c r="G49" s="112"/>
-      <c r="H49" s="112"/>
-      <c r="I49" s="112"/>
-      <c r="J49" s="112"/>
+      <c r="B49" s="115"/>
+      <c r="C49" s="115"/>
+      <c r="D49" s="115"/>
+      <c r="E49" s="115"/>
+      <c r="F49" s="115"/>
+      <c r="G49" s="115"/>
+      <c r="H49" s="115"/>
+      <c r="I49" s="115"/>
+      <c r="J49" s="115"/>
       <c r="K49" s="24"/>
     </row>
     <row r="50" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="26"/>
-      <c r="B50" s="112"/>
-      <c r="C50" s="112"/>
-      <c r="D50" s="112"/>
-      <c r="E50" s="112"/>
-      <c r="F50" s="112"/>
-      <c r="G50" s="112"/>
-      <c r="H50" s="112"/>
-      <c r="I50" s="112"/>
-      <c r="J50" s="112"/>
+      <c r="B50" s="115"/>
+      <c r="C50" s="115"/>
+      <c r="D50" s="115"/>
+      <c r="E50" s="115"/>
+      <c r="F50" s="115"/>
+      <c r="G50" s="115"/>
+      <c r="H50" s="115"/>
+      <c r="I50" s="115"/>
+      <c r="J50" s="115"/>
       <c r="K50" s="24"/>
     </row>
     <row r="51" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="26"/>
-      <c r="B51" s="112"/>
-      <c r="C51" s="112"/>
-      <c r="D51" s="112"/>
-      <c r="E51" s="112"/>
-      <c r="F51" s="112"/>
-      <c r="G51" s="112"/>
-      <c r="H51" s="112"/>
-      <c r="I51" s="112"/>
-      <c r="J51" s="112"/>
+      <c r="B51" s="115"/>
+      <c r="C51" s="115"/>
+      <c r="D51" s="115"/>
+      <c r="E51" s="115"/>
+      <c r="F51" s="115"/>
+      <c r="G51" s="115"/>
+      <c r="H51" s="115"/>
+      <c r="I51" s="115"/>
+      <c r="J51" s="115"/>
       <c r="K51" s="24"/>
     </row>
     <row r="52" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="26"/>
-      <c r="B52" s="112"/>
-      <c r="C52" s="112"/>
-      <c r="D52" s="112"/>
-      <c r="E52" s="112"/>
-      <c r="F52" s="112"/>
-      <c r="G52" s="112"/>
-      <c r="H52" s="112"/>
-      <c r="I52" s="112"/>
-      <c r="J52" s="112"/>
+      <c r="B52" s="115"/>
+      <c r="C52" s="115"/>
+      <c r="D52" s="115"/>
+      <c r="E52" s="115"/>
+      <c r="F52" s="115"/>
+      <c r="G52" s="115"/>
+      <c r="H52" s="115"/>
+      <c r="I52" s="115"/>
+      <c r="J52" s="115"/>
       <c r="K52" s="24"/>
     </row>
     <row r="53" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="26"/>
-      <c r="B53" s="112"/>
-      <c r="C53" s="112"/>
-      <c r="D53" s="112"/>
-      <c r="E53" s="112"/>
-      <c r="F53" s="112"/>
-      <c r="G53" s="112"/>
-      <c r="H53" s="112"/>
-      <c r="I53" s="112"/>
-      <c r="J53" s="112"/>
+      <c r="B53" s="115"/>
+      <c r="C53" s="115"/>
+      <c r="D53" s="115"/>
+      <c r="E53" s="115"/>
+      <c r="F53" s="115"/>
+      <c r="G53" s="115"/>
+      <c r="H53" s="115"/>
+      <c r="I53" s="115"/>
+      <c r="J53" s="115"/>
       <c r="K53" s="24"/>
     </row>
     <row r="54" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="26"/>
-      <c r="B54" s="112"/>
-      <c r="C54" s="112"/>
-      <c r="D54" s="112"/>
-      <c r="E54" s="112"/>
-      <c r="F54" s="112"/>
-      <c r="G54" s="112"/>
-      <c r="H54" s="112"/>
-      <c r="I54" s="112"/>
-      <c r="J54" s="112"/>
+      <c r="B54" s="115"/>
+      <c r="C54" s="115"/>
+      <c r="D54" s="115"/>
+      <c r="E54" s="115"/>
+      <c r="F54" s="115"/>
+      <c r="G54" s="115"/>
+      <c r="H54" s="115"/>
+      <c r="I54" s="115"/>
+      <c r="J54" s="115"/>
       <c r="K54" s="24"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B55" s="113"/>
-      <c r="C55" s="113"/>
-      <c r="D55" s="113"/>
-      <c r="E55" s="113"/>
-      <c r="F55" s="113"/>
-      <c r="G55" s="113"/>
-      <c r="H55" s="113"/>
-      <c r="I55" s="113"/>
-      <c r="J55" s="113"/>
+      <c r="B55" s="118"/>
+      <c r="C55" s="118"/>
+      <c r="D55" s="118"/>
+      <c r="E55" s="118"/>
+      <c r="F55" s="118"/>
+      <c r="G55" s="118"/>
+      <c r="H55" s="118"/>
+      <c r="I55" s="118"/>
+      <c r="J55" s="118"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B56" s="114"/>
-      <c r="C56" s="114"/>
-      <c r="D56" s="114"/>
-      <c r="E56" s="114"/>
-      <c r="F56" s="114"/>
-      <c r="G56" s="114"/>
-      <c r="H56" s="114"/>
-      <c r="I56" s="114"/>
-      <c r="J56" s="114"/>
+      <c r="B56" s="116"/>
+      <c r="C56" s="116"/>
+      <c r="D56" s="116"/>
+      <c r="E56" s="116"/>
+      <c r="F56" s="116"/>
+      <c r="G56" s="116"/>
+      <c r="H56" s="116"/>
+      <c r="I56" s="116"/>
+      <c r="J56" s="116"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B57" s="114"/>
-      <c r="C57" s="103"/>
-      <c r="D57" s="103"/>
-      <c r="E57" s="103"/>
-      <c r="F57" s="103"/>
-      <c r="G57" s="103"/>
-      <c r="H57" s="103"/>
-      <c r="I57" s="103"/>
-      <c r="J57" s="103"/>
+      <c r="B57" s="116"/>
+      <c r="C57" s="104"/>
+      <c r="D57" s="104"/>
+      <c r="E57" s="104"/>
+      <c r="F57" s="104"/>
+      <c r="G57" s="104"/>
+      <c r="H57" s="104"/>
+      <c r="I57" s="104"/>
+      <c r="J57" s="104"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B58" s="114"/>
-      <c r="C58" s="103"/>
-      <c r="D58" s="103"/>
-      <c r="E58" s="103"/>
-      <c r="F58" s="103"/>
-      <c r="G58" s="103"/>
-      <c r="H58" s="103"/>
-      <c r="I58" s="103"/>
-      <c r="J58" s="103"/>
+      <c r="B58" s="116"/>
+      <c r="C58" s="104"/>
+      <c r="D58" s="104"/>
+      <c r="E58" s="104"/>
+      <c r="F58" s="104"/>
+      <c r="G58" s="104"/>
+      <c r="H58" s="104"/>
+      <c r="I58" s="104"/>
+      <c r="J58" s="104"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B59" s="114"/>
-      <c r="C59" s="103"/>
-      <c r="D59" s="103"/>
-      <c r="E59" s="103"/>
-      <c r="F59" s="103"/>
-      <c r="G59" s="103"/>
-      <c r="H59" s="103"/>
-      <c r="I59" s="103"/>
-      <c r="J59" s="103"/>
+      <c r="B59" s="116"/>
+      <c r="C59" s="104"/>
+      <c r="D59" s="104"/>
+      <c r="E59" s="104"/>
+      <c r="F59" s="104"/>
+      <c r="G59" s="104"/>
+      <c r="H59" s="104"/>
+      <c r="I59" s="104"/>
+      <c r="J59" s="104"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B60" s="114"/>
-      <c r="C60" s="103"/>
-      <c r="D60" s="103"/>
-      <c r="E60" s="103"/>
-      <c r="F60" s="103"/>
-      <c r="G60" s="103"/>
-      <c r="H60" s="103"/>
-      <c r="I60" s="103"/>
-      <c r="J60" s="103"/>
+      <c r="B60" s="116"/>
+      <c r="C60" s="104"/>
+      <c r="D60" s="104"/>
+      <c r="E60" s="104"/>
+      <c r="F60" s="104"/>
+      <c r="G60" s="104"/>
+      <c r="H60" s="104"/>
+      <c r="I60" s="104"/>
+      <c r="J60" s="104"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B61" s="114"/>
-      <c r="C61" s="103"/>
-      <c r="D61" s="103"/>
-      <c r="E61" s="103"/>
-      <c r="F61" s="103"/>
-      <c r="G61" s="103"/>
-      <c r="H61" s="103"/>
-      <c r="I61" s="103"/>
-      <c r="J61" s="103"/>
+      <c r="B61" s="116"/>
+      <c r="C61" s="104"/>
+      <c r="D61" s="104"/>
+      <c r="E61" s="104"/>
+      <c r="F61" s="104"/>
+      <c r="G61" s="104"/>
+      <c r="H61" s="104"/>
+      <c r="I61" s="104"/>
+      <c r="J61" s="104"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B62" s="114"/>
-      <c r="C62" s="103"/>
-      <c r="D62" s="103"/>
-      <c r="E62" s="103"/>
-      <c r="F62" s="103"/>
-      <c r="G62" s="103"/>
-      <c r="H62" s="103"/>
-      <c r="I62" s="103"/>
-      <c r="J62" s="103"/>
+      <c r="B62" s="116"/>
+      <c r="C62" s="104"/>
+      <c r="D62" s="104"/>
+      <c r="E62" s="104"/>
+      <c r="F62" s="104"/>
+      <c r="G62" s="104"/>
+      <c r="H62" s="104"/>
+      <c r="I62" s="104"/>
+      <c r="J62" s="104"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B63" s="114"/>
-      <c r="C63" s="103"/>
-      <c r="D63" s="103"/>
-      <c r="E63" s="103"/>
-      <c r="F63" s="103"/>
-      <c r="G63" s="103"/>
-      <c r="H63" s="103"/>
-      <c r="I63" s="103"/>
-      <c r="J63" s="103"/>
+      <c r="B63" s="116"/>
+      <c r="C63" s="104"/>
+      <c r="D63" s="104"/>
+      <c r="E63" s="104"/>
+      <c r="F63" s="104"/>
+      <c r="G63" s="104"/>
+      <c r="H63" s="104"/>
+      <c r="I63" s="104"/>
+      <c r="J63" s="104"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B64" s="114"/>
-      <c r="C64" s="103"/>
-      <c r="D64" s="103"/>
-      <c r="E64" s="103"/>
-      <c r="F64" s="103"/>
-      <c r="G64" s="103"/>
-      <c r="H64" s="103"/>
-      <c r="I64" s="103"/>
-      <c r="J64" s="103"/>
+      <c r="B64" s="116"/>
+      <c r="C64" s="104"/>
+      <c r="D64" s="104"/>
+      <c r="E64" s="104"/>
+      <c r="F64" s="104"/>
+      <c r="G64" s="104"/>
+      <c r="H64" s="104"/>
+      <c r="I64" s="104"/>
+      <c r="J64" s="104"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B65" s="114"/>
-      <c r="C65" s="103"/>
-      <c r="D65" s="103"/>
-      <c r="E65" s="103"/>
-      <c r="F65" s="103"/>
-      <c r="G65" s="103"/>
-      <c r="H65" s="103"/>
-      <c r="I65" s="103"/>
-      <c r="J65" s="103"/>
+      <c r="B65" s="116"/>
+      <c r="C65" s="104"/>
+      <c r="D65" s="104"/>
+      <c r="E65" s="104"/>
+      <c r="F65" s="104"/>
+      <c r="G65" s="104"/>
+      <c r="H65" s="104"/>
+      <c r="I65" s="104"/>
+      <c r="J65" s="104"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B66" s="114"/>
-      <c r="C66" s="103"/>
-      <c r="D66" s="103"/>
-      <c r="E66" s="103"/>
-      <c r="F66" s="103"/>
-      <c r="G66" s="103"/>
-      <c r="H66" s="103"/>
-      <c r="I66" s="103"/>
-      <c r="J66" s="103"/>
+      <c r="B66" s="116"/>
+      <c r="C66" s="104"/>
+      <c r="D66" s="104"/>
+      <c r="E66" s="104"/>
+      <c r="F66" s="104"/>
+      <c r="G66" s="104"/>
+      <c r="H66" s="104"/>
+      <c r="I66" s="104"/>
+      <c r="J66" s="104"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="59">
-    <mergeCell ref="B52:J52"/>
-    <mergeCell ref="B45:J45"/>
-    <mergeCell ref="B38:J38"/>
-    <mergeCell ref="B39:J39"/>
-    <mergeCell ref="B65:J65"/>
-    <mergeCell ref="B63:J63"/>
-    <mergeCell ref="B64:J64"/>
-    <mergeCell ref="B50:J50"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="B55:J55"/>
+    <mergeCell ref="B66:J66"/>
+    <mergeCell ref="A4:L6"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="B24:J24"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="B35:J35"/>
+    <mergeCell ref="B46:J46"/>
+    <mergeCell ref="B47:J47"/>
+    <mergeCell ref="B48:J48"/>
+    <mergeCell ref="B49:J49"/>
+    <mergeCell ref="B41:J41"/>
+    <mergeCell ref="B42:J42"/>
+    <mergeCell ref="B43:J43"/>
+    <mergeCell ref="B44:J44"/>
     <mergeCell ref="B10:J10"/>
     <mergeCell ref="B59:J59"/>
     <mergeCell ref="B60:J60"/>
@@ -7160,41 +7170,14 @@
     <mergeCell ref="B33:J33"/>
     <mergeCell ref="B34:J34"/>
     <mergeCell ref="B40:J40"/>
-    <mergeCell ref="B35:J35"/>
-    <mergeCell ref="B46:J46"/>
-    <mergeCell ref="B47:J47"/>
-    <mergeCell ref="B48:J48"/>
-    <mergeCell ref="B49:J49"/>
-    <mergeCell ref="B41:J41"/>
-    <mergeCell ref="B42:J42"/>
-    <mergeCell ref="B43:J43"/>
-    <mergeCell ref="B44:J44"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="B24:J24"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="B32:J32"/>
-    <mergeCell ref="B55:J55"/>
-    <mergeCell ref="B66:J66"/>
-    <mergeCell ref="A4:L6"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="B14:J14"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="B12:J12"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="B52:J52"/>
+    <mergeCell ref="B45:J45"/>
+    <mergeCell ref="B38:J38"/>
+    <mergeCell ref="B39:J39"/>
+    <mergeCell ref="B65:J65"/>
+    <mergeCell ref="B63:J63"/>
+    <mergeCell ref="B64:J64"/>
+    <mergeCell ref="B50:J50"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.30000000000000004" right="0.2" top="0.6484375" bottom="0.53125" header="0" footer="0"/>
@@ -7207,32 +7190,32 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.140625" customWidth="1"/>
     <col min="2" max="2" width="32.5703125" customWidth="1"/>
-    <col min="3" max="3" width="67.140625" customWidth="1"/>
+    <col min="3" max="3" width="62.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="117" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-    </row>
-    <row r="2" spans="1:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
+      <c r="A1" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+    </row>
+    <row r="2" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <pageMargins left="0.14583333333333334" right="7.2916666666666671E-2" top="0.86895833333333339" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.30312499999999998" right="7.2916666666666671E-2" top="1.1417708333333334" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="97" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
@@ -7241,8 +7224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A15:L68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L63" sqref="L63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7694,18 +7677,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="102" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="116"/>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
     </row>
     <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="79"/>
@@ -7732,11 +7715,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K62"/>
+  <dimension ref="A2:L62"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageLayout" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7746,32 +7727,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="105" t="s">
-        <v>136</v>
-      </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
+      <c r="A2" s="106" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="105"/>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
+      <c r="A3" s="106"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B42" s="28"/>
@@ -7796,71 +7777,71 @@
       <c r="A43" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="85" t="s">
+      <c r="B43" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="C43" s="85" t="s">
+      <c r="C43" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="D43" s="85" t="s">
+      <c r="D43" s="96" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="96" t="s">
+        <v>128</v>
+      </c>
+      <c r="F43" s="96" t="s">
+        <v>122</v>
+      </c>
+      <c r="G43" s="96" t="s">
         <v>129</v>
       </c>
-      <c r="E43" s="85" t="s">
-        <v>130</v>
-      </c>
-      <c r="F43" s="85" t="s">
-        <v>131</v>
-      </c>
-      <c r="G43" s="85" t="s">
-        <v>132</v>
-      </c>
-      <c r="H43" s="85" t="s">
-        <v>133</v>
-      </c>
-      <c r="I43" s="85" t="s">
-        <v>134</v>
-      </c>
-      <c r="J43" s="85" t="s">
-        <v>135</v>
+      <c r="H43" s="96" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" s="96" t="s">
+        <v>18</v>
+      </c>
+      <c r="J43" s="96" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B44" s="81">
+      <c r="B44" s="97">
         <f>Dati!$B2</f>
         <v>66</v>
       </c>
-      <c r="C44" s="81">
+      <c r="C44" s="97">
         <f>Dati!$C2</f>
         <v>68</v>
       </c>
-      <c r="D44" s="81">
+      <c r="D44" s="97">
         <f>Dati!D2</f>
         <v>70</v>
       </c>
-      <c r="E44" s="81">
+      <c r="E44" s="97">
         <f>Dati!E2</f>
         <v>72</v>
       </c>
-      <c r="F44" s="81">
+      <c r="F44" s="97">
         <f>Dati!F2</f>
         <v>74</v>
       </c>
-      <c r="G44" s="81">
+      <c r="G44" s="97">
         <f>Dati!G2</f>
         <v>76</v>
       </c>
-      <c r="H44" s="81">
+      <c r="H44" s="97">
         <f>Dati!H2</f>
         <v>78</v>
       </c>
-      <c r="I44" s="84">
+      <c r="I44" s="95">
         <f>Dati!O2</f>
         <v>46</v>
       </c>
-      <c r="J44" s="81">
+      <c r="J44" s="97">
         <f>Dati!M2</f>
         <v>39</v>
       </c>
@@ -7869,39 +7850,39 @@
       <c r="A45" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B45" s="81">
+      <c r="B45" s="97">
         <f>Dati!$B3</f>
         <v>70</v>
       </c>
-      <c r="C45" s="81">
+      <c r="C45" s="97">
         <f>Dati!$C3</f>
         <v>65</v>
       </c>
-      <c r="D45" s="81">
+      <c r="D45" s="97">
         <f>Dati!D3</f>
         <v>70</v>
       </c>
-      <c r="E45" s="81">
+      <c r="E45" s="97">
         <f>Dati!E3</f>
         <v>89</v>
       </c>
-      <c r="F45" s="81">
+      <c r="F45" s="97">
         <f>Dati!F3</f>
         <v>64</v>
       </c>
-      <c r="G45" s="81">
+      <c r="G45" s="97">
         <f>Dati!G3</f>
         <v>101</v>
       </c>
-      <c r="H45" s="81">
+      <c r="H45" s="97">
         <f>Dati!H3</f>
         <v>89</v>
       </c>
-      <c r="I45" s="84">
+      <c r="I45" s="95">
         <f>Dati!O3</f>
         <v>94</v>
       </c>
-      <c r="J45" s="81">
+      <c r="J45" s="97">
         <f>Dati!M3</f>
         <v>54</v>
       </c>
@@ -7910,39 +7891,39 @@
       <c r="A46" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B46" s="81">
+      <c r="B46" s="97">
         <f>Dati!$B4</f>
         <v>100</v>
       </c>
-      <c r="C46" s="81">
+      <c r="C46" s="97">
         <f>Dati!$C4</f>
         <v>100</v>
       </c>
-      <c r="D46" s="81">
+      <c r="D46" s="97">
         <f>Dati!D4</f>
         <v>100</v>
       </c>
-      <c r="E46" s="81">
+      <c r="E46" s="97">
         <f>Dati!E4</f>
         <v>100</v>
       </c>
-      <c r="F46" s="81">
+      <c r="F46" s="97">
         <f>Dati!F4</f>
         <v>100</v>
       </c>
-      <c r="G46" s="81">
+      <c r="G46" s="97">
         <f>Dati!G4</f>
         <v>100</v>
       </c>
-      <c r="H46" s="81">
+      <c r="H46" s="97">
         <f>Dati!H4</f>
         <v>100</v>
       </c>
-      <c r="I46" s="84">
+      <c r="I46" s="95">
         <f>Dati!O4</f>
         <v>100</v>
       </c>
-      <c r="J46" s="81">
+      <c r="J46" s="97">
         <f>Dati!M4</f>
         <v>100</v>
       </c>
@@ -7985,11 +7966,11 @@
         <v>0</v>
       </c>
       <c r="C48" s="4"/>
-      <c r="D48" s="104" t="s">
+      <c r="D48" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="E48" s="104"/>
-      <c r="F48" s="104"/>
+      <c r="E48" s="105"/>
+      <c r="F48" s="105"/>
       <c r="G48" s="5">
         <v>65</v>
       </c>
@@ -8003,33 +7984,33 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
-      <c r="D49" s="104" t="s">
+      <c r="D49" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="104"/>
-      <c r="F49" s="104"/>
+      <c r="E49" s="105"/>
+      <c r="F49" s="105"/>
       <c r="G49" s="8"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
     </row>
-    <row r="50" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
-      <c r="D50" s="104"/>
-      <c r="E50" s="104"/>
-      <c r="F50" s="104"/>
+      <c r="D50" s="105"/>
+      <c r="E50" s="105"/>
+      <c r="F50" s="105"/>
       <c r="G50" s="8"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="67"/>
       <c r="B51" s="68">
         <v>50</v>
@@ -8060,7 +8041,7 @@
       </c>
       <c r="K51" s="67"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="67"/>
       <c r="B52" s="67"/>
       <c r="C52" s="67"/>
@@ -8073,14 +8054,14 @@
       <c r="J52" s="67"/>
       <c r="K52" s="67"/>
     </row>
-    <row r="53" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7"/>
-      <c r="B53" s="102"/>
-      <c r="C53" s="103"/>
-      <c r="D53" s="103"/>
-      <c r="E53" s="103"/>
-    </row>
-    <row r="54" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="103"/>
+      <c r="C53" s="104"/>
+      <c r="D53" s="104"/>
+      <c r="E53" s="104"/>
+    </row>
+    <row r="54" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -8092,134 +8073,135 @@
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
-    </row>
-    <row r="55" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L54" s="6"/>
+    </row>
+    <row r="55" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B55" s="102" t="s">
+      <c r="B55" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="C55" s="103"/>
-      <c r="D55" s="103"/>
-      <c r="E55" s="103"/>
+      <c r="C55" s="104"/>
+      <c r="D55" s="104"/>
+      <c r="E55" s="104"/>
       <c r="F55" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G55" s="102" t="s">
+      <c r="G55" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="H55" s="103"/>
-      <c r="I55" s="103"/>
-      <c r="J55" s="103"/>
-    </row>
-    <row r="56" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="83"/>
+      <c r="H55" s="104"/>
+      <c r="I55" s="104"/>
+      <c r="J55" s="104"/>
+    </row>
+    <row r="56" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="82"/>
       <c r="B56" s="65"/>
       <c r="C56" s="65"/>
       <c r="D56" s="65"/>
       <c r="E56" s="65"/>
       <c r="F56" s="7"/>
-      <c r="G56" s="82"/>
-      <c r="H56" s="83"/>
-      <c r="I56" s="83"/>
-      <c r="J56" s="83"/>
-    </row>
-    <row r="57" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G56" s="81"/>
+      <c r="H56" s="82"/>
+      <c r="I56" s="82"/>
+      <c r="J56" s="82"/>
+    </row>
+    <row r="57" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="82" t="s">
+      <c r="B57" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C57" s="83"/>
-      <c r="D57" s="83"/>
-      <c r="E57" s="83"/>
+      <c r="C57" s="82"/>
+      <c r="D57" s="82"/>
+      <c r="E57" s="82"/>
       <c r="F57" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G57" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="H57" s="83"/>
-      <c r="I57" s="83"/>
-      <c r="J57" s="83"/>
-    </row>
-    <row r="58" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="83"/>
+      <c r="G57" s="81" t="s">
+        <v>127</v>
+      </c>
+      <c r="H57" s="82"/>
+      <c r="I57" s="82"/>
+      <c r="J57" s="82"/>
+    </row>
+    <row r="58" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="82"/>
       <c r="B58" s="65"/>
       <c r="C58" s="65"/>
       <c r="D58" s="65"/>
       <c r="E58" s="65"/>
       <c r="F58" s="7"/>
-      <c r="G58" s="82"/>
-      <c r="H58" s="83"/>
-      <c r="I58" s="83"/>
-      <c r="J58" s="83"/>
-    </row>
-    <row r="59" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G58" s="81"/>
+      <c r="H58" s="82"/>
+      <c r="I58" s="82"/>
+      <c r="J58" s="82"/>
+    </row>
+    <row r="59" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="B59" s="82" t="s">
+        <v>123</v>
+      </c>
+      <c r="B59" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="C59" s="83"/>
-      <c r="D59" s="83"/>
-      <c r="E59" s="83"/>
+      <c r="C59" s="82"/>
+      <c r="D59" s="82"/>
+      <c r="E59" s="82"/>
       <c r="F59" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G59" s="82" t="s">
+      <c r="G59" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="H59" s="83"/>
-      <c r="I59" s="83"/>
-      <c r="J59" s="83"/>
-    </row>
-    <row r="60" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="83"/>
+      <c r="H59" s="82"/>
+      <c r="I59" s="82"/>
+      <c r="J59" s="82"/>
+    </row>
+    <row r="60" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="82"/>
       <c r="B60" s="65"/>
       <c r="C60" s="65"/>
       <c r="D60" s="65"/>
       <c r="E60" s="65"/>
       <c r="F60" s="7"/>
-      <c r="G60" s="82"/>
-      <c r="H60" s="83"/>
-      <c r="I60" s="83"/>
-      <c r="J60" s="83"/>
-    </row>
-    <row r="61" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G60" s="81"/>
+      <c r="H60" s="82"/>
+      <c r="I60" s="82"/>
+      <c r="J60" s="82"/>
+    </row>
+    <row r="61" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="B61" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="B61" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="C61" s="83"/>
-      <c r="D61" s="83"/>
-      <c r="E61" s="83"/>
+      <c r="C61" s="82"/>
+      <c r="D61" s="82"/>
+      <c r="E61" s="82"/>
       <c r="F61" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G61" s="82" t="s">
+      <c r="G61" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="H61" s="83"/>
-      <c r="I61" s="83"/>
-      <c r="J61" s="83"/>
-    </row>
-    <row r="62" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H61" s="82"/>
+      <c r="I61" s="82"/>
+      <c r="J61" s="82"/>
+    </row>
+    <row r="62" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
-      <c r="B62" s="102"/>
-      <c r="C62" s="103"/>
-      <c r="D62" s="103"/>
-      <c r="E62" s="103"/>
+      <c r="B62" s="103"/>
+      <c r="C62" s="104"/>
+      <c r="D62" s="104"/>
+      <c r="E62" s="104"/>
       <c r="F62" s="3"/>
-      <c r="G62" s="102"/>
-      <c r="H62" s="103"/>
-      <c r="I62" s="103"/>
-      <c r="J62" s="103"/>
+      <c r="G62" s="103"/>
+      <c r="H62" s="104"/>
+      <c r="I62" s="104"/>
+      <c r="J62" s="104"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -8247,9 +8229,7 @@
   </sheetPr>
   <dimension ref="A1:P64"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A19" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8259,42 +8239,42 @@
   <sheetData>
     <row r="1" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="106" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="106"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="105"/>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
+      <c r="A3" s="106"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="106"/>
+      <c r="O3" s="106"/>
+      <c r="P3" s="106"/>
     </row>
     <row r="4" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8302,141 +8282,135 @@
       <c r="A43" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C43" s="109" t="str">
-        <f>Dati!K1</f>
-        <v>RC1</v>
-      </c>
-      <c r="D43" s="109"/>
-      <c r="E43" s="109" t="str">
-        <f>Dati!L1</f>
-        <v>MLS</v>
-      </c>
-      <c r="F43" s="109"/>
-      <c r="G43" s="109" t="str">
-        <f>Dati!M1</f>
-        <v>GIC</v>
-      </c>
-      <c r="H43" s="109"/>
-      <c r="I43" s="109" t="str">
-        <f>Dati!N1</f>
-        <v>HPC</v>
-      </c>
-      <c r="J43" s="109"/>
-      <c r="K43" s="109" t="str">
-        <f>Dati!O1</f>
-        <v>NUC</v>
-      </c>
-      <c r="L43" s="109"/>
-      <c r="M43" s="109" t="str">
-        <f>Dati!P1</f>
-        <v>COG</v>
-      </c>
-      <c r="N43" s="109"/>
+      <c r="C43" s="113" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" s="113"/>
+      <c r="E43" s="113" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" s="113"/>
+      <c r="G43" s="113" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" s="113"/>
+      <c r="I43" s="113" t="s">
+        <v>46</v>
+      </c>
+      <c r="J43" s="113"/>
+      <c r="K43" s="113" t="s">
+        <v>47</v>
+      </c>
+      <c r="L43" s="113"/>
+      <c r="M43" s="113" t="s">
+        <v>48</v>
+      </c>
+      <c r="N43" s="113"/>
     </row>
     <row r="44" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="106">
+      <c r="C44" s="110">
         <f>Dati!K2</f>
         <v>48</v>
       </c>
-      <c r="D44" s="106"/>
-      <c r="E44" s="106">
+      <c r="D44" s="110"/>
+      <c r="E44" s="110">
         <f>Dati!L2</f>
         <v>49</v>
       </c>
-      <c r="F44" s="106"/>
-      <c r="G44" s="106">
+      <c r="F44" s="110"/>
+      <c r="G44" s="110">
         <f>Dati!M2</f>
         <v>39</v>
       </c>
-      <c r="H44" s="106"/>
-      <c r="I44" s="106">
+      <c r="H44" s="110"/>
+      <c r="I44" s="110">
         <f>Dati!N2</f>
         <v>46</v>
       </c>
-      <c r="J44" s="106"/>
-      <c r="K44" s="106">
+      <c r="J44" s="110"/>
+      <c r="K44" s="110">
         <f>Dati!O2</f>
         <v>46</v>
       </c>
-      <c r="L44" s="106"/>
-      <c r="M44" s="106">
+      <c r="L44" s="110"/>
+      <c r="M44" s="110">
         <f>Dati!P2</f>
         <v>57</v>
       </c>
-      <c r="N44" s="106"/>
+      <c r="N44" s="110"/>
     </row>
     <row r="45" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C45" s="106">
+      <c r="C45" s="110">
         <f>Dati!K3</f>
         <v>65</v>
       </c>
-      <c r="D45" s="106"/>
-      <c r="E45" s="106">
+      <c r="D45" s="110"/>
+      <c r="E45" s="110">
         <f>Dati!L3</f>
         <v>75</v>
       </c>
-      <c r="F45" s="106"/>
-      <c r="G45" s="106">
+      <c r="F45" s="110"/>
+      <c r="G45" s="110">
         <f>Dati!M3</f>
         <v>54</v>
       </c>
-      <c r="H45" s="106"/>
-      <c r="I45" s="106">
+      <c r="H45" s="110"/>
+      <c r="I45" s="110">
         <f>Dati!N3</f>
         <v>88</v>
       </c>
-      <c r="J45" s="106"/>
-      <c r="K45" s="106">
+      <c r="J45" s="110"/>
+      <c r="K45" s="110">
         <f>Dati!O3</f>
         <v>94</v>
       </c>
-      <c r="L45" s="106"/>
-      <c r="M45" s="106">
+      <c r="L45" s="110"/>
+      <c r="M45" s="110">
         <f>Dati!P3</f>
         <v>44</v>
       </c>
-      <c r="N45" s="106"/>
+      <c r="N45" s="110"/>
     </row>
     <row r="46" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="106">
+      <c r="C46" s="110">
         <f>Dati!K4</f>
         <v>100</v>
       </c>
-      <c r="D46" s="106"/>
-      <c r="E46" s="106">
+      <c r="D46" s="110"/>
+      <c r="E46" s="110">
         <f>Dati!L4</f>
         <v>100</v>
       </c>
-      <c r="F46" s="106"/>
-      <c r="G46" s="106">
+      <c r="F46" s="110"/>
+      <c r="G46" s="110">
         <f>Dati!M4</f>
         <v>100</v>
       </c>
-      <c r="H46" s="106"/>
-      <c r="I46" s="106">
+      <c r="H46" s="110"/>
+      <c r="I46" s="110">
         <f>Dati!N4</f>
         <v>100</v>
       </c>
-      <c r="J46" s="106"/>
-      <c r="K46" s="106">
+      <c r="J46" s="110"/>
+      <c r="K46" s="110">
         <f>Dati!O4</f>
         <v>100</v>
       </c>
-      <c r="L46" s="106"/>
-      <c r="M46" s="106">
+      <c r="L46" s="110"/>
+      <c r="M46" s="110">
         <f>Dati!P4</f>
         <v>100</v>
       </c>
-      <c r="N46" s="106"/>
+      <c r="N46" s="110"/>
     </row>
     <row r="47" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="5"/>
@@ -8626,6 +8600,21 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="31">
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
     <mergeCell ref="A2:P3"/>
     <mergeCell ref="B61:F61"/>
     <mergeCell ref="B59:F59"/>
@@ -8642,21 +8631,6 @@
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K46:L46"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.19685039370078741" top="0.62992125984251968" bottom="0.55118110236220474" header="0" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="76" orientation="portrait" r:id="rId1"/>
@@ -8669,10 +8643,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P65"/>
+  <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="O45" sqref="O45:P45"/>
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8682,42 +8656,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
-        <v>138</v>
-      </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="105"/>
-      <c r="O1" s="105"/>
-      <c r="P1" s="105"/>
+      <c r="A1" s="106" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
     </row>
     <row r="2" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="105"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
+      <c r="A2" s="106"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="106"/>
     </row>
     <row r="4" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8725,161 +8699,154 @@
       <c r="B42" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="118" t="str">
-        <f>Dati!Q1</f>
-        <v>EID</v>
-      </c>
-      <c r="D42" s="118"/>
-      <c r="E42" s="118" t="str">
-        <f>Dati!R1</f>
-        <v>RCd</v>
-      </c>
-      <c r="F42" s="118"/>
-      <c r="G42" s="118" t="str">
-        <f>Dati!S1</f>
-        <v>SUI</v>
-      </c>
-      <c r="H42" s="118"/>
-      <c r="I42" s="118" t="str">
-        <f>Dati!T1</f>
-        <v>HLP</v>
-      </c>
-      <c r="J42" s="118"/>
-      <c r="K42" s="118" t="str">
-        <f>Dati!U1</f>
-        <v>SFD</v>
-      </c>
-      <c r="L42" s="118"/>
-      <c r="M42" s="118" t="str">
-        <f>Dati!V1</f>
-        <v>NFC</v>
-      </c>
-      <c r="N42" s="118"/>
-      <c r="O42" s="118" t="str">
-        <f>Dati!W1</f>
-        <v>RC2</v>
-      </c>
-      <c r="P42" s="118"/>
+      <c r="C42" s="113" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="113"/>
+      <c r="E42" s="113" t="s">
+        <v>26</v>
+      </c>
+      <c r="F42" s="113"/>
+      <c r="G42" s="113" t="s">
+        <v>49</v>
+      </c>
+      <c r="H42" s="113"/>
+      <c r="I42" s="113" t="s">
+        <v>50</v>
+      </c>
+      <c r="J42" s="113"/>
+      <c r="K42" s="113" t="s">
+        <v>51</v>
+      </c>
+      <c r="L42" s="113"/>
+      <c r="M42" s="113" t="s">
+        <v>52</v>
+      </c>
+      <c r="N42" s="113"/>
+      <c r="O42" s="113" t="s">
+        <v>28</v>
+      </c>
+      <c r="P42" s="113"/>
     </row>
     <row r="43" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="119">
+      <c r="C43" s="111">
         <f>Dati!Q2</f>
         <v>59</v>
       </c>
-      <c r="D43" s="119"/>
-      <c r="E43" s="119">
+      <c r="D43" s="111"/>
+      <c r="E43" s="111">
         <f>Dati!R2</f>
         <v>48</v>
       </c>
-      <c r="F43" s="119"/>
-      <c r="G43" s="119">
+      <c r="F43" s="111"/>
+      <c r="G43" s="111">
         <f>Dati!S2</f>
         <v>51</v>
       </c>
-      <c r="H43" s="119"/>
-      <c r="I43" s="119">
+      <c r="H43" s="111"/>
+      <c r="I43" s="111">
         <f>Dati!T2</f>
         <v>54</v>
       </c>
-      <c r="J43" s="119"/>
-      <c r="K43" s="119">
+      <c r="J43" s="111"/>
+      <c r="K43" s="111">
         <f>Dati!U2</f>
         <v>57</v>
       </c>
-      <c r="L43" s="119"/>
-      <c r="M43" s="119">
+      <c r="L43" s="111"/>
+      <c r="M43" s="111">
         <f>Dati!V2</f>
         <v>60</v>
       </c>
-      <c r="N43" s="119"/>
-      <c r="O43" s="119">
+      <c r="N43" s="111"/>
+      <c r="O43" s="111">
         <f>Dati!W2</f>
         <v>71</v>
       </c>
-      <c r="P43" s="119"/>
+      <c r="P43" s="111"/>
     </row>
     <row r="44" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B44" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="119">
+      <c r="C44" s="111">
         <f>Dati!Q3</f>
         <v>100</v>
       </c>
-      <c r="D44" s="119"/>
-      <c r="E44" s="119">
+      <c r="D44" s="111"/>
+      <c r="E44" s="111">
         <f>Dati!R3</f>
         <v>45</v>
       </c>
-      <c r="F44" s="119"/>
-      <c r="G44" s="119">
+      <c r="F44" s="111"/>
+      <c r="G44" s="111">
         <f>Dati!S3</f>
         <v>67</v>
       </c>
-      <c r="H44" s="119"/>
-      <c r="I44" s="119">
+      <c r="H44" s="111"/>
+      <c r="I44" s="111">
         <f>Dati!T3</f>
         <v>77</v>
       </c>
-      <c r="J44" s="119"/>
-      <c r="K44" s="119">
+      <c r="J44" s="111"/>
+      <c r="K44" s="111">
         <f>Dati!U3</f>
         <v>64</v>
       </c>
-      <c r="L44" s="119"/>
-      <c r="M44" s="119">
+      <c r="L44" s="111"/>
+      <c r="M44" s="111">
         <f>Dati!V3</f>
         <v>77</v>
       </c>
-      <c r="N44" s="119"/>
-      <c r="O44" s="119">
+      <c r="N44" s="111"/>
+      <c r="O44" s="111">
         <f>Dati!W3</f>
         <v>65</v>
       </c>
-      <c r="P44" s="119"/>
+      <c r="P44" s="111"/>
     </row>
     <row r="45" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="119">
+      <c r="C45" s="111">
         <f>Dati!Q4</f>
         <v>100</v>
       </c>
-      <c r="D45" s="119"/>
-      <c r="E45" s="119">
+      <c r="D45" s="111"/>
+      <c r="E45" s="111">
         <f>Dati!R4</f>
         <v>100</v>
       </c>
-      <c r="F45" s="119"/>
-      <c r="G45" s="119">
+      <c r="F45" s="111"/>
+      <c r="G45" s="111">
         <f>Dati!S4</f>
         <v>100</v>
       </c>
-      <c r="H45" s="119"/>
-      <c r="I45" s="119">
+      <c r="H45" s="111"/>
+      <c r="I45" s="111">
         <f>Dati!T4</f>
         <v>100</v>
       </c>
-      <c r="J45" s="119"/>
-      <c r="K45" s="119">
+      <c r="J45" s="111"/>
+      <c r="K45" s="111">
         <f>Dati!U4</f>
         <v>100</v>
       </c>
-      <c r="L45" s="119"/>
-      <c r="M45" s="119">
+      <c r="L45" s="111"/>
+      <c r="M45" s="111">
         <f>Dati!V4</f>
         <v>100</v>
       </c>
-      <c r="N45" s="119"/>
-      <c r="O45" s="119">
+      <c r="N45" s="111"/>
+      <c r="O45" s="111">
         <f>Dati!W4</f>
         <v>100</v>
       </c>
-      <c r="P45" s="119"/>
+      <c r="P45" s="111"/>
     </row>
     <row r="46" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="5"/>
@@ -8923,12 +8890,12 @@
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
     </row>
-    <row r="51" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -8945,13 +8912,14 @@
       <c r="N59" s="6"/>
       <c r="O59" s="6"/>
       <c r="P59" s="6"/>
-    </row>
-    <row r="60" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q59" s="6"/>
+    </row>
+    <row r="60" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B60" s="108" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C60" s="108"/>
       <c r="D60" s="108"/>
@@ -8962,16 +8930,16 @@
       <c r="I60" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="J60" s="110" t="s">
+      <c r="J60" s="112" t="s">
         <v>63</v>
       </c>
-      <c r="K60" s="110"/>
-      <c r="L60" s="110"/>
-      <c r="M60" s="110"/>
-      <c r="N60" s="110"/>
-      <c r="O60" s="110"/>
-    </row>
-    <row r="61" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K60" s="112"/>
+      <c r="L60" s="112"/>
+      <c r="M60" s="112"/>
+      <c r="N60" s="112"/>
+      <c r="O60" s="112"/>
+    </row>
+    <row r="61" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H61" s="13"/>
       <c r="I61" s="13"/>
       <c r="J61" s="13"/>
@@ -8980,31 +8948,31 @@
       <c r="M61" s="12"/>
       <c r="N61" s="12"/>
     </row>
-    <row r="62" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B62" s="86" t="s">
+      <c r="B62" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="C62" s="86"/>
-      <c r="D62" s="86"/>
-      <c r="E62" s="86"/>
-      <c r="F62" s="86"/>
-      <c r="G62" s="86"/>
-      <c r="H62" s="86"/>
+      <c r="C62" s="83"/>
+      <c r="D62" s="83"/>
+      <c r="E62" s="83"/>
+      <c r="F62" s="83"/>
+      <c r="G62" s="83"/>
+      <c r="H62" s="83"/>
       <c r="I62" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="J62" s="86" t="s">
+      <c r="J62" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="K62" s="86"/>
-      <c r="L62" s="86"/>
-      <c r="M62" s="86"/>
-      <c r="N62" s="86"/>
-    </row>
-    <row r="63" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K62" s="83"/>
+      <c r="L62" s="83"/>
+      <c r="M62" s="83"/>
+      <c r="N62" s="83"/>
+    </row>
+    <row r="63" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="14"/>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
@@ -9012,37 +8980,37 @@
       <c r="E63" s="14"/>
       <c r="F63" s="12"/>
       <c r="G63" s="14"/>
-      <c r="H63" s="86"/>
-      <c r="I63" s="86"/>
-      <c r="J63" s="86"/>
+      <c r="H63" s="83"/>
+      <c r="I63" s="83"/>
+      <c r="J63" s="83"/>
       <c r="K63" s="14"/>
       <c r="L63" s="12"/>
       <c r="M63" s="12"/>
       <c r="N63" s="12"/>
     </row>
-    <row r="64" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B64" s="86" t="s">
-        <v>119</v>
-      </c>
-      <c r="C64" s="86"/>
-      <c r="D64" s="86"/>
-      <c r="E64" s="86"/>
-      <c r="F64" s="86"/>
-      <c r="G64" s="86"/>
-      <c r="H64" s="86"/>
+      <c r="B64" s="83" t="s">
+        <v>118</v>
+      </c>
+      <c r="C64" s="83"/>
+      <c r="D64" s="83"/>
+      <c r="E64" s="83"/>
+      <c r="F64" s="83"/>
+      <c r="G64" s="83"/>
+      <c r="H64" s="83"/>
       <c r="I64" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="J64" s="86" t="s">
+      <c r="J64" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="K64" s="86"/>
-      <c r="L64" s="86"/>
-      <c r="M64" s="86"/>
-      <c r="N64" s="86"/>
+      <c r="K64" s="83"/>
+      <c r="L64" s="83"/>
+      <c r="M64" s="83"/>
+      <c r="N64" s="83"/>
     </row>
     <row r="65" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A65" s="14"/>
@@ -9052,9 +9020,9 @@
       <c r="E65" s="14"/>
       <c r="F65" s="12"/>
       <c r="G65" s="14"/>
-      <c r="H65" s="86"/>
-      <c r="I65" s="86"/>
-      <c r="J65" s="86"/>
+      <c r="H65" s="83"/>
+      <c r="I65" s="83"/>
+      <c r="J65" s="83"/>
       <c r="K65" s="14"/>
       <c r="L65" s="12"/>
       <c r="M65" s="12"/>
@@ -9063,21 +9031,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="31">
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="I45:J45"/>
     <mergeCell ref="B60:G60"/>
     <mergeCell ref="J60:O60"/>
     <mergeCell ref="A1:P2"/>
@@ -9094,6 +9047,21 @@
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="E44:F44"/>
     <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M45:N45"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.30000000000000004" right="0.40104166666666669" top="0.65249999999999997" bottom="0.53041666666666665" header="0" footer="0.30000000000000004"/>
@@ -9109,9 +9077,7 @@
   </sheetPr>
   <dimension ref="A2:O65"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9122,40 +9088,40 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="105" t="s">
-        <v>137</v>
-      </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
+      <c r="A2" s="106" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
     </row>
     <row r="3" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="105"/>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
+      <c r="A3" s="106"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="106"/>
+      <c r="O3" s="106"/>
     </row>
     <row r="5" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9202,35 +9168,35 @@
       <c r="B44" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D44" s="96">
+      <c r="D44" s="93">
         <f>Dati!X2</f>
         <v>72</v>
       </c>
-      <c r="E44" s="96">
+      <c r="E44" s="93">
         <f>Dati!Y2</f>
         <v>75</v>
       </c>
-      <c r="F44" s="96">
+      <c r="F44" s="93">
         <f>Dati!Z2</f>
         <v>78</v>
       </c>
-      <c r="G44" s="96">
+      <c r="G44" s="93">
         <f>Dati!AA2</f>
         <v>81</v>
       </c>
-      <c r="H44" s="96">
+      <c r="H44" s="93">
         <f>Dati!AB2</f>
         <v>84</v>
       </c>
-      <c r="I44" s="96">
+      <c r="I44" s="93">
         <f>Dati!AC2</f>
         <v>87</v>
       </c>
-      <c r="J44" s="96">
+      <c r="J44" s="93">
         <f>Dati!AD2</f>
         <v>49</v>
       </c>
-      <c r="K44" s="96">
+      <c r="K44" s="93">
         <f>Dati!AE2</f>
         <v>59</v>
       </c>
@@ -9241,35 +9207,35 @@
       <c r="B45" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D45" s="96">
+      <c r="D45" s="93">
         <f>Dati!X3</f>
         <v>65</v>
       </c>
-      <c r="E45" s="96">
+      <c r="E45" s="93">
         <f>Dati!Y3</f>
         <v>75</v>
       </c>
-      <c r="F45" s="96">
+      <c r="F45" s="93">
         <f>Dati!Z3</f>
         <v>54</v>
       </c>
-      <c r="G45" s="96">
+      <c r="G45" s="93">
         <f>Dati!AA3</f>
         <v>88</v>
       </c>
-      <c r="H45" s="96">
+      <c r="H45" s="93">
         <f>Dati!AB3</f>
         <v>94</v>
       </c>
-      <c r="I45" s="96">
+      <c r="I45" s="93">
         <f>Dati!AC3</f>
         <v>44</v>
       </c>
-      <c r="J45" s="96">
+      <c r="J45" s="93">
         <f>Dati!AD3</f>
         <v>65</v>
       </c>
-      <c r="K45" s="96">
+      <c r="K45" s="93">
         <f>Dati!AE3</f>
         <v>78</v>
       </c>
@@ -9280,35 +9246,35 @@
       <c r="B46" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="96">
+      <c r="D46" s="93">
         <f>Dati!X4</f>
         <v>100</v>
       </c>
-      <c r="E46" s="96">
+      <c r="E46" s="93">
         <f>Dati!Y4</f>
         <v>100</v>
       </c>
-      <c r="F46" s="96">
+      <c r="F46" s="93">
         <f>Dati!Z4</f>
         <v>100</v>
       </c>
-      <c r="G46" s="96">
+      <c r="G46" s="93">
         <f>Dati!AA4</f>
         <v>100</v>
       </c>
-      <c r="H46" s="96">
+      <c r="H46" s="93">
         <f>Dati!AB4</f>
         <v>100</v>
       </c>
-      <c r="I46" s="96">
+      <c r="I46" s="93">
         <f>Dati!AC4</f>
         <v>100</v>
       </c>
-      <c r="J46" s="96">
+      <c r="J46" s="93">
         <f>Dati!AD4</f>
         <v>100</v>
       </c>
-      <c r="K46" s="96">
+      <c r="K46" s="93">
         <f>Dati!AE4</f>
         <v>100</v>
       </c>
@@ -9345,7 +9311,7 @@
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
     </row>
-    <row r="49" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9"/>
       <c r="B49" s="8"/>
       <c r="C49" s="4"/>
@@ -9357,10 +9323,10 @@
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
     </row>
-    <row r="52" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -9375,8 +9341,9 @@
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
-    </row>
-    <row r="57" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O56" s="6"/>
+    </row>
+    <row r="57" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="15" t="s">
         <v>32</v>
       </c>
@@ -9390,17 +9357,17 @@
       <c r="G57" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="H57" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="I57" s="94"/>
-      <c r="J57" s="94"/>
-      <c r="K57" s="94"/>
-      <c r="L57" s="94"/>
+      <c r="H57" s="91" t="s">
+        <v>119</v>
+      </c>
+      <c r="I57" s="91"/>
+      <c r="J57" s="91"/>
+      <c r="K57" s="91"/>
+      <c r="L57" s="91"/>
       <c r="M57" s="59"/>
       <c r="N57" s="59"/>
     </row>
-    <row r="58" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="14"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
@@ -9416,7 +9383,7 @@
       <c r="M58" s="12"/>
       <c r="N58" s="12"/>
     </row>
-    <row r="59" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="15" t="s">
         <v>53</v>
       </c>
@@ -9440,7 +9407,7 @@
       <c r="M59" s="59"/>
       <c r="N59" s="59"/>
     </row>
-    <row r="60" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="14"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
@@ -9450,7 +9417,7 @@
       <c r="M60" s="12"/>
       <c r="N60" s="12"/>
     </row>
-    <row r="61" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="15" t="s">
         <v>54</v>
       </c>
@@ -9461,7 +9428,7 @@
       <c r="D61" s="107"/>
       <c r="E61" s="107"/>
       <c r="F61" s="107"/>
-      <c r="G61" s="97" t="s">
+      <c r="G61" s="94" t="s">
         <v>93</v>
       </c>
       <c r="H61" s="66" t="s">
@@ -9474,7 +9441,7 @@
       <c r="M61" s="59"/>
       <c r="N61" s="59"/>
     </row>
-    <row r="62" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="14"/>
       <c r="C62" s="58"/>
       <c r="D62" s="58"/>
@@ -9489,7 +9456,7 @@
       <c r="M62" s="12"/>
       <c r="N62" s="12"/>
     </row>
-    <row r="63" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="15" t="s">
         <v>55</v>
       </c>
@@ -9500,19 +9467,19 @@
       <c r="D63" s="108"/>
       <c r="E63" s="108"/>
       <c r="F63" s="108"/>
-      <c r="G63" s="97" t="s">
-        <v>122</v>
-      </c>
-      <c r="H63" s="91" t="s">
-        <v>139</v>
+      <c r="G63" s="94" t="s">
+        <v>121</v>
+      </c>
+      <c r="H63" s="88" t="s">
+        <v>133</v>
       </c>
       <c r="I63" s="66"/>
       <c r="J63" s="66"/>
       <c r="K63" s="66"/>
       <c r="L63" s="66"/>
-      <c r="M63" s="94"/>
-    </row>
-    <row r="64" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="M63" s="91"/>
+    </row>
+    <row r="64" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -9535,10 +9502,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L64"/>
+  <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView showGridLines="0" view="pageLayout" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9546,37 +9513,38 @@
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="10" width="10.28515625" customWidth="1"/>
     <col min="11" max="11" width="10.42578125" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="106" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
     </row>
     <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="105"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
+      <c r="A2" s="106"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" s="28"/>
@@ -9627,78 +9595,78 @@
       <c r="A43" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="106">
+      <c r="C43" s="110">
         <f>Dati!AF2</f>
         <v>49</v>
       </c>
-      <c r="D43" s="106"/>
-      <c r="E43" s="106">
+      <c r="D43" s="110"/>
+      <c r="E43" s="110">
         <f>Dati!AG2</f>
         <v>51</v>
       </c>
-      <c r="F43" s="106"/>
-      <c r="G43" s="106">
+      <c r="F43" s="110"/>
+      <c r="G43" s="110">
         <f>Dati!AH2</f>
         <v>53</v>
       </c>
-      <c r="H43" s="106"/>
-      <c r="I43" s="106">
+      <c r="H43" s="110"/>
+      <c r="I43" s="110">
         <f>Dati!AI2</f>
         <v>55</v>
       </c>
-      <c r="J43" s="106"/>
+      <c r="J43" s="110"/>
       <c r="K43" s="66"/>
     </row>
     <row r="44" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="106">
+      <c r="C44" s="110">
         <f>Dati!AF3</f>
         <v>70</v>
       </c>
-      <c r="D44" s="106"/>
-      <c r="E44" s="106">
+      <c r="D44" s="110"/>
+      <c r="E44" s="110">
         <f>Dati!AG3</f>
         <v>89</v>
       </c>
-      <c r="F44" s="106"/>
-      <c r="G44" s="106">
+      <c r="F44" s="110"/>
+      <c r="G44" s="110">
         <f>Dati!AH3</f>
         <v>64</v>
       </c>
-      <c r="H44" s="106"/>
-      <c r="I44" s="106">
+      <c r="H44" s="110"/>
+      <c r="I44" s="110">
         <f>Dati!AI3</f>
         <v>101</v>
       </c>
-      <c r="J44" s="106"/>
+      <c r="J44" s="110"/>
       <c r="K44" s="66"/>
     </row>
     <row r="45" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="106">
+      <c r="C45" s="110">
         <f>Dati!AF4</f>
         <v>100</v>
       </c>
-      <c r="D45" s="106"/>
-      <c r="E45" s="106">
+      <c r="D45" s="110"/>
+      <c r="E45" s="110">
         <f>Dati!AG4</f>
         <v>100</v>
       </c>
-      <c r="F45" s="106"/>
-      <c r="G45" s="106">
+      <c r="F45" s="110"/>
+      <c r="G45" s="110">
         <f>Dati!AH4</f>
         <v>100</v>
       </c>
-      <c r="H45" s="106"/>
-      <c r="I45" s="106">
+      <c r="H45" s="110"/>
+      <c r="I45" s="110">
         <f>Dati!AI4</f>
         <v>100</v>
       </c>
-      <c r="J45" s="106"/>
+      <c r="J45" s="110"/>
       <c r="K45" s="66"/>
     </row>
     <row r="46" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9763,27 +9731,27 @@
       <c r="A48" s="29"/>
       <c r="B48" s="8"/>
       <c r="C48" s="4"/>
-      <c r="D48" s="104"/>
-      <c r="E48" s="104"/>
-      <c r="F48" s="104"/>
+      <c r="D48" s="105"/>
+      <c r="E48" s="105"/>
+      <c r="F48" s="105"/>
       <c r="G48" s="8"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
     </row>
-    <row r="49" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
-      <c r="D49" s="104"/>
-      <c r="E49" s="104"/>
-      <c r="F49" s="104"/>
+      <c r="D49" s="105"/>
+      <c r="E49" s="105"/>
+      <c r="F49" s="105"/>
       <c r="G49" s="8"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="67"/>
       <c r="B50" s="68">
         <v>50</v>
@@ -9814,7 +9782,7 @@
       </c>
       <c r="K50" s="67"/>
     </row>
-    <row r="51" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="67"/>
       <c r="B51" s="67"/>
       <c r="C51" s="67"/>
@@ -9827,14 +9795,14 @@
       <c r="J51" s="67"/>
       <c r="K51" s="67"/>
     </row>
-    <row r="52" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
-      <c r="B52" s="102"/>
-      <c r="C52" s="103"/>
-      <c r="D52" s="103"/>
-      <c r="E52" s="103"/>
-    </row>
-    <row r="55" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="103"/>
+      <c r="C52" s="104"/>
+      <c r="D52" s="104"/>
+      <c r="E52" s="104"/>
+    </row>
+    <row r="55" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -9847,28 +9815,29 @@
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
-    </row>
-    <row r="56" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M55" s="6"/>
+    </row>
+    <row r="56" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B56" s="102" t="s">
+      <c r="B56" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="C56" s="102"/>
-      <c r="D56" s="102"/>
-      <c r="E56" s="102"/>
+      <c r="C56" s="103"/>
+      <c r="D56" s="103"/>
+      <c r="E56" s="103"/>
       <c r="F56" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G56" s="102" t="s">
+      <c r="G56" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="H56" s="103"/>
-      <c r="I56" s="103"/>
-      <c r="J56" s="103"/>
-    </row>
-    <row r="57" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H56" s="104"/>
+      <c r="I56" s="104"/>
+      <c r="J56" s="104"/>
+    </row>
+    <row r="57" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="60"/>
       <c r="B57" s="65"/>
       <c r="C57" s="65"/>
@@ -9880,27 +9849,27 @@
       <c r="I57" s="60"/>
       <c r="J57" s="60"/>
     </row>
-    <row r="58" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B58" s="102" t="s">
+      <c r="B58" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="C58" s="102"/>
-      <c r="D58" s="102"/>
-      <c r="E58" s="102"/>
+      <c r="C58" s="103"/>
+      <c r="D58" s="103"/>
+      <c r="E58" s="103"/>
       <c r="F58" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="G58" s="102" t="s">
+      <c r="G58" s="103" t="s">
         <v>95</v>
       </c>
-      <c r="H58" s="102"/>
-      <c r="I58" s="102"/>
-      <c r="J58" s="102"/>
-    </row>
-    <row r="59" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H58" s="103"/>
+      <c r="I58" s="103"/>
+      <c r="J58" s="103"/>
+    </row>
+    <row r="59" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="60"/>
       <c r="B59" s="65"/>
       <c r="C59" s="65"/>
@@ -9912,14 +9881,26 @@
       <c r="I59" s="60"/>
       <c r="J59" s="60"/>
     </row>
-    <row r="60" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="24">
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="G58:J58"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="G56:J56"/>
+    <mergeCell ref="A1:L2"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="C42:D42"/>
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="E43:F43"/>
@@ -9932,18 +9913,6 @@
     <mergeCell ref="G45:H45"/>
     <mergeCell ref="E45:F45"/>
     <mergeCell ref="C44:D44"/>
-    <mergeCell ref="A1:L2"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="G58:J58"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="G56:J56"/>
   </mergeCells>
   <pageMargins left="0.30000000000000004" right="0.2" top="0.65" bottom="0.53125" header="0" footer="0.30000000000000004"/>
   <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
@@ -9958,9 +9927,7 @@
   </sheetPr>
   <dimension ref="A2:L60"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A25" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9970,34 +9937,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="105" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
+      <c r="A2" s="106" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="105"/>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
+      <c r="A3" s="106"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" s="28"/>
@@ -10022,7 +9989,7 @@
       <c r="A43" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="95" t="str">
+      <c r="B43" s="92" t="str">
         <f>Dati!AJ1</f>
         <v>BXD</v>
       </c>
@@ -10038,23 +10005,23 @@
         <f>Dati!AM1</f>
         <v>SUB</v>
       </c>
-      <c r="F43" s="95" t="str">
+      <c r="F43" s="92" t="str">
         <f>Dati!AN1</f>
         <v>RC9</v>
       </c>
-      <c r="G43" s="95" t="str">
+      <c r="G43" s="92" t="str">
         <f>Dati!AO1</f>
         <v>AGG</v>
       </c>
-      <c r="H43" s="95" t="str">
+      <c r="H43" s="92" t="str">
         <f>Dati!AP1</f>
         <v>ACT</v>
       </c>
-      <c r="I43" s="95" t="str">
+      <c r="I43" s="92" t="str">
         <f>Dati!AQ1</f>
         <v>AGGR-r</v>
       </c>
-      <c r="J43" s="95" t="str">
+      <c r="J43" s="92" t="str">
         <f>Dati!AR1</f>
         <v>DISC-r</v>
       </c>
@@ -10064,39 +10031,39 @@
       <c r="A44" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B44" s="93">
+      <c r="B44" s="90">
         <f>Dati!AJ2</f>
         <v>60</v>
       </c>
-      <c r="C44" s="96">
+      <c r="C44" s="93">
         <f>Dati!AK2</f>
         <v>67</v>
       </c>
-      <c r="D44" s="96">
+      <c r="D44" s="93">
         <f>Dati!AL2</f>
         <v>66</v>
       </c>
-      <c r="E44" s="96">
+      <c r="E44" s="93">
         <f>Dati!AM2</f>
         <v>68</v>
       </c>
-      <c r="F44" s="96">
+      <c r="F44" s="93">
         <f>Dati!AN2</f>
         <v>67</v>
       </c>
-      <c r="G44" s="96">
+      <c r="G44" s="93">
         <f>Dati!AO2</f>
         <v>66</v>
       </c>
-      <c r="H44" s="96">
+      <c r="H44" s="93">
         <f>Dati!AP2</f>
         <v>68</v>
       </c>
-      <c r="I44" s="96">
+      <c r="I44" s="93">
         <f>Dati!AQ2</f>
         <v>49</v>
       </c>
-      <c r="J44" s="96">
+      <c r="J44" s="93">
         <f>Dati!AR2</f>
         <v>59</v>
       </c>
@@ -10106,39 +10073,39 @@
       <c r="A45" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B45" s="93">
+      <c r="B45" s="90">
         <f>Dati!AJ3</f>
         <v>65</v>
       </c>
-      <c r="C45" s="96">
+      <c r="C45" s="93">
         <f>Dati!AK3</f>
         <v>100</v>
       </c>
-      <c r="D45" s="96">
+      <c r="D45" s="93">
         <f>Dati!AL3</f>
         <v>70</v>
       </c>
-      <c r="E45" s="96">
+      <c r="E45" s="93">
         <f>Dati!AM3</f>
         <v>65</v>
       </c>
-      <c r="F45" s="96">
+      <c r="F45" s="93">
         <f>Dati!AN3</f>
         <v>100</v>
       </c>
-      <c r="G45" s="96">
+      <c r="G45" s="93">
         <f>Dati!AO3</f>
         <v>70</v>
       </c>
-      <c r="H45" s="96">
+      <c r="H45" s="93">
         <f>Dati!AP3</f>
         <v>65</v>
       </c>
-      <c r="I45" s="96">
+      <c r="I45" s="93">
         <f>Dati!AQ3</f>
         <v>65</v>
       </c>
-      <c r="J45" s="96">
+      <c r="J45" s="93">
         <f>Dati!AR3</f>
         <v>78</v>
       </c>
@@ -10148,39 +10115,39 @@
       <c r="A46" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B46" s="93">
+      <c r="B46" s="90">
         <f>Dati!AJ4</f>
         <v>100</v>
       </c>
-      <c r="C46" s="96">
+      <c r="C46" s="93">
         <f>Dati!AK4</f>
         <v>100</v>
       </c>
-      <c r="D46" s="96">
+      <c r="D46" s="93">
         <f>Dati!AL4</f>
         <v>100</v>
       </c>
-      <c r="E46" s="96">
+      <c r="E46" s="93">
         <f>Dati!AM4</f>
         <v>100</v>
       </c>
-      <c r="F46" s="96">
+      <c r="F46" s="93">
         <f>Dati!AN4</f>
         <v>100</v>
       </c>
-      <c r="G46" s="96">
+      <c r="G46" s="93">
         <f>Dati!AO4</f>
         <v>100</v>
       </c>
-      <c r="H46" s="96">
+      <c r="H46" s="93">
         <f>Dati!AP4</f>
         <v>100</v>
       </c>
-      <c r="I46" s="96">
+      <c r="I46" s="93">
         <f>Dati!AQ4</f>
         <v>100</v>
       </c>
-      <c r="J46" s="96">
+      <c r="J46" s="93">
         <f>Dati!AR4</f>
         <v>100</v>
       </c>
@@ -10248,9 +10215,9 @@
       <c r="A49" s="29"/>
       <c r="B49" s="8"/>
       <c r="C49" s="4"/>
-      <c r="D49" s="104"/>
-      <c r="E49" s="104"/>
-      <c r="F49" s="104"/>
+      <c r="D49" s="105"/>
+      <c r="E49" s="105"/>
+      <c r="F49" s="105"/>
       <c r="G49" s="8"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
@@ -10258,15 +10225,15 @@
     </row>
     <row r="50" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>
-      <c r="B50" s="91"/>
-      <c r="C50" s="92"/>
-      <c r="D50" s="92"/>
-      <c r="E50" s="92"/>
+      <c r="B50" s="88"/>
+      <c r="C50" s="89"/>
+      <c r="D50" s="89"/>
+      <c r="E50" s="89"/>
       <c r="F50" s="7"/>
-      <c r="G50" s="91"/>
-      <c r="H50" s="92"/>
-      <c r="I50" s="92"/>
-      <c r="J50" s="92"/>
+      <c r="G50" s="88"/>
+      <c r="H50" s="89"/>
+      <c r="I50" s="89"/>
+      <c r="J50" s="89"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
@@ -10283,11 +10250,11 @@
       <c r="L51" s="6"/>
     </row>
     <row r="52" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A52" s="97" t="s">
+      <c r="A52" s="94" t="s">
         <v>25</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11"/>
@@ -10296,15 +10263,15 @@
       <c r="G52" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H52" s="91" t="s">
+      <c r="H52" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="I52" s="92"/>
-      <c r="J52" s="92"/>
-      <c r="K52" s="92"/>
+      <c r="I52" s="89"/>
+      <c r="J52" s="89"/>
+      <c r="K52" s="89"/>
     </row>
     <row r="53" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G53" s="92"/>
+      <c r="G53" s="89"/>
       <c r="H53" s="65"/>
       <c r="I53" s="65"/>
       <c r="J53" s="65"/>
@@ -10314,43 +10281,43 @@
       <c r="A54" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B54" s="91" t="s">
+      <c r="B54" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="C54" s="92"/>
-      <c r="D54" s="92"/>
-      <c r="E54" s="92"/>
+      <c r="C54" s="89"/>
+      <c r="D54" s="89"/>
+      <c r="E54" s="89"/>
       <c r="G54" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H54" s="91" t="s">
+      <c r="H54" s="88" t="s">
         <v>84</v>
       </c>
-      <c r="I54" s="92"/>
-      <c r="J54" s="92"/>
-      <c r="K54" s="92"/>
+      <c r="I54" s="89"/>
+      <c r="J54" s="89"/>
+      <c r="K54" s="89"/>
     </row>
     <row r="55" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="56" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B56" s="91" t="s">
+      <c r="B56" s="88" t="s">
         <v>80</v>
       </c>
-      <c r="C56" s="92"/>
-      <c r="D56" s="92"/>
-      <c r="E56" s="92"/>
+      <c r="C56" s="89"/>
+      <c r="D56" s="89"/>
+      <c r="E56" s="89"/>
       <c r="F56" s="7"/>
       <c r="G56" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H56" s="91" t="s">
+      <c r="H56" s="88" t="s">
         <v>85</v>
       </c>
-      <c r="I56" s="92"/>
-      <c r="J56" s="92"/>
-      <c r="K56" s="92"/>
+      <c r="I56" s="89"/>
+      <c r="J56" s="89"/>
+      <c r="K56" s="89"/>
     </row>
     <row r="57" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F57" s="7"/>
@@ -10363,34 +10330,34 @@
       <c r="A58" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B58" s="102" t="s">
+      <c r="B58" s="103" t="s">
         <v>83</v>
       </c>
-      <c r="C58" s="103"/>
-      <c r="D58" s="103"/>
-      <c r="E58" s="103"/>
+      <c r="C58" s="104"/>
+      <c r="D58" s="104"/>
+      <c r="E58" s="104"/>
       <c r="F58" s="3"/>
       <c r="G58" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H58" s="102" t="s">
+      <c r="H58" s="103" t="s">
         <v>94</v>
       </c>
-      <c r="I58" s="102"/>
-      <c r="J58" s="102"/>
-      <c r="K58" s="102"/>
+      <c r="I58" s="103"/>
+      <c r="J58" s="103"/>
+      <c r="K58" s="103"/>
     </row>
     <row r="59" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="60" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G60" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="H60" s="102" t="s">
+      <c r="H60" s="103" t="s">
         <v>96</v>
       </c>
-      <c r="I60" s="102"/>
-      <c r="J60" s="102"/>
-      <c r="K60" s="102"/>
+      <c r="I60" s="103"/>
+      <c r="J60" s="103"/>
+      <c r="K60" s="103"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/public/template2.xlsx
+++ b/public/template2.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="149">
   <si>
     <t xml:space="preserve">        </t>
   </si>
@@ -358,9 +358,6 @@
   </si>
   <si>
     <t>Edizione italiana © 2012, Giunti O.S. Organizzazioni Speciali - Firenze.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Correzione manuale effettuata da </t>
   </si>
   <si>
     <t>Correzione manuale effettuata da Emiliano Lambiase e profilo grafico tramite Excel realizzato da ITCI © e concesso in uso ai membri</t>
@@ -748,7 +745,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1036,12 +1033,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="24" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1059,26 +1056,29 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1092,11 +1092,11 @@
     <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1104,9 +1104,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1187,7 +1185,7 @@
           <c:yMode val="edge"/>
           <c:x val="4.4306610011344491E-2"/>
           <c:y val="1.56733546382016E-2"/>
-          <c:w val="0.93374843676591213"/>
+          <c:w val="0.93011533684205105"/>
           <c:h val="0.94649007786160599"/>
         </c:manualLayout>
       </c:layout>
@@ -1301,11 +1299,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1880239856"/>
-        <c:axId val="1880228976"/>
+        <c:axId val="2006511040"/>
+        <c:axId val="1319273968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1880239856"/>
+        <c:axId val="2006511040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1334,7 +1332,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1880228976"/>
+        <c:crossAx val="1319273968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1342,7 +1340,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1880228976"/>
+        <c:axId val="1319273968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
@@ -1361,7 +1359,7 @@
           </a:ln>
           <a:effectLst/>
         </c:spPr>
-        <c:crossAx val="1880228976"/>
+        <c:crossAx val="1319273968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -1499,11 +1497,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1880211024"/>
-        <c:axId val="1880215920"/>
+        <c:axId val="2126212240"/>
+        <c:axId val="2126227472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1880211024"/>
+        <c:axId val="2126212240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1532,7 +1530,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1880215920"/>
+        <c:crossAx val="2126227472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1540,7 +1538,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1880215920"/>
+        <c:axId val="2126227472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
@@ -1559,7 +1557,7 @@
           </a:ln>
           <a:effectLst/>
         </c:spPr>
-        <c:crossAx val="1880215920"/>
+        <c:crossAx val="2126227472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -1728,11 +1726,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1876082576"/>
-        <c:axId val="1879945504"/>
+        <c:axId val="2126221488"/>
+        <c:axId val="2126228016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1876082576"/>
+        <c:axId val="2126221488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1761,7 +1759,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1879945504"/>
+        <c:crossAx val="2126228016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1769,7 +1767,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1879945504"/>
+        <c:axId val="2126228016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
@@ -1788,7 +1786,7 @@
           </a:ln>
           <a:effectLst/>
         </c:spPr>
-        <c:crossAx val="1879945504"/>
+        <c:crossAx val="2126228016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -1939,11 +1937,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1882549200"/>
-        <c:axId val="1882549744"/>
+        <c:axId val="2126234000"/>
+        <c:axId val="2126216592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1882549200"/>
+        <c:axId val="2126234000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1972,7 +1970,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1882549744"/>
+        <c:crossAx val="2126216592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1980,7 +1978,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1882549744"/>
+        <c:axId val="2126216592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
@@ -1999,7 +1997,7 @@
           </a:ln>
           <a:effectLst/>
         </c:spPr>
-        <c:crossAx val="1882549744"/>
+        <c:crossAx val="2126216592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -2126,11 +2124,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1882556816"/>
-        <c:axId val="1882564976"/>
+        <c:axId val="2126235632"/>
+        <c:axId val="2126229104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1882556816"/>
+        <c:axId val="2126235632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2159,7 +2157,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1882564976"/>
+        <c:crossAx val="2126229104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2167,7 +2165,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1882564976"/>
+        <c:axId val="2126229104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
@@ -2186,7 +2184,7 @@
           </a:ln>
           <a:effectLst/>
         </c:spPr>
-        <c:crossAx val="1882564976"/>
+        <c:crossAx val="2126229104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -2376,11 +2374,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1880223536"/>
-        <c:axId val="1880221904"/>
+        <c:axId val="2126214960"/>
+        <c:axId val="2126208976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1880223536"/>
+        <c:axId val="2126214960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2409,7 +2407,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1880221904"/>
+        <c:crossAx val="2126208976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2417,7 +2415,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1880221904"/>
+        <c:axId val="2126208976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
@@ -2436,7 +2434,7 @@
           </a:ln>
           <a:effectLst/>
         </c:spPr>
-        <c:crossAx val="1880221904"/>
+        <c:crossAx val="2126208976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -2490,7 +2488,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8603463663168358E-2"/>
           <c:y val="1.2946924579212874E-2"/>
-          <c:w val="0.94129278629306123"/>
+          <c:w val="0.94565008426968544"/>
           <c:h val="0.95084586907979796"/>
         </c:manualLayout>
       </c:layout>
@@ -2634,11 +2632,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1880240944"/>
-        <c:axId val="1880230064"/>
+        <c:axId val="2126219856"/>
+        <c:axId val="2126231280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1880240944"/>
+        <c:axId val="2126219856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2667,7 +2665,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1880230064"/>
+        <c:crossAx val="2126231280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2675,7 +2673,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1880230064"/>
+        <c:axId val="2126231280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
@@ -2694,7 +2692,7 @@
           </a:ln>
           <a:effectLst/>
         </c:spPr>
-        <c:crossAx val="1880230064"/>
+        <c:crossAx val="2126231280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -2748,7 +2746,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8362801153861585E-2"/>
           <c:y val="1.2946924579212874E-2"/>
-          <c:w val="0.93812502501880546"/>
+          <c:w val="0.94122947087958597"/>
           <c:h val="0.95084586907979796"/>
         </c:manualLayout>
       </c:layout>
@@ -2888,11 +2886,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1880241488"/>
-        <c:axId val="1880224080"/>
+        <c:axId val="2126207888"/>
+        <c:axId val="2126213872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1880241488"/>
+        <c:axId val="2126207888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2921,7 +2919,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1880224080"/>
+        <c:crossAx val="2126213872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2929,7 +2927,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1880224080"/>
+        <c:axId val="2126213872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
@@ -2948,7 +2946,7 @@
           </a:ln>
           <a:effectLst/>
         </c:spPr>
-        <c:crossAx val="1880224080"/>
+        <c:crossAx val="2126213872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -3092,11 +3090,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1880215376"/>
-        <c:axId val="1880231152"/>
+        <c:axId val="2126223120"/>
+        <c:axId val="2126220400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1880215376"/>
+        <c:axId val="2126223120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3125,7 +3123,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1880231152"/>
+        <c:crossAx val="2126220400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3133,7 +3131,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1880231152"/>
+        <c:axId val="2126220400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
@@ -3152,7 +3150,7 @@
           </a:ln>
           <a:effectLst/>
         </c:spPr>
-        <c:crossAx val="1880231152"/>
+        <c:crossAx val="2126220400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -3320,11 +3318,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1880237680"/>
-        <c:axId val="1880227344"/>
+        <c:axId val="2126230736"/>
+        <c:axId val="2126236176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1880237680"/>
+        <c:axId val="2126230736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3353,7 +3351,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1880227344"/>
+        <c:crossAx val="2126236176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3361,7 +3359,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1880227344"/>
+        <c:axId val="2126236176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
@@ -3380,7 +3378,7 @@
           </a:ln>
           <a:effectLst/>
         </c:spPr>
-        <c:crossAx val="1880227344"/>
+        <c:crossAx val="2126236176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -3531,11 +3529,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1880209936"/>
-        <c:axId val="1880218640"/>
+        <c:axId val="2126235088"/>
+        <c:axId val="2126234544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1880209936"/>
+        <c:axId val="2126235088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3564,7 +3562,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1880218640"/>
+        <c:crossAx val="2126234544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3572,7 +3570,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1880218640"/>
+        <c:axId val="2126234544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
@@ -3591,7 +3589,7 @@
           </a:ln>
           <a:effectLst/>
         </c:spPr>
-        <c:crossAx val="1880218640"/>
+        <c:crossAx val="2126234544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -3748,11 +3746,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1880212656"/>
-        <c:axId val="1880231696"/>
+        <c:axId val="2126210064"/>
+        <c:axId val="2126208432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1880212656"/>
+        <c:axId val="2126210064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3781,7 +3779,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1880231696"/>
+        <c:crossAx val="2126208432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3789,7 +3787,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1880231696"/>
+        <c:axId val="2126208432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
@@ -3808,7 +3806,7 @@
           </a:ln>
           <a:effectLst/>
         </c:spPr>
-        <c:crossAx val="1880231696"/>
+        <c:crossAx val="2126208432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -3971,11 +3969,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1880213744"/>
-        <c:axId val="1880233872"/>
+        <c:axId val="2126211696"/>
+        <c:axId val="2126224208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1880213744"/>
+        <c:axId val="2126211696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4004,7 +4002,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1880233872"/>
+        <c:crossAx val="2126224208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4012,7 +4010,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1880233872"/>
+        <c:axId val="2126224208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
@@ -4031,7 +4029,7 @@
           </a:ln>
           <a:effectLst/>
         </c:spPr>
-        <c:crossAx val="1880233872"/>
+        <c:crossAx val="2126224208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -4826,7 +4824,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>200026</xdr:colOff>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -5092,7 +5090,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:colOff>304799</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
@@ -5129,13 +5127,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>323849</xdr:colOff>
+      <xdr:colOff>276225</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -5172,7 +5170,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -5734,7 +5732,7 @@
   <sheetData>
     <row r="1" spans="1:52" s="81" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="80" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B1" s="80" t="s">
         <v>3</v>
@@ -5746,10 +5744,10 @@
         <v>14</v>
       </c>
       <c r="E1" s="80" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F1" s="80" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G1" s="80" t="s">
         <v>12</v>
@@ -5824,7 +5822,7 @@
         <v>93</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AF1" s="3" t="s">
         <v>24</v>
@@ -5836,7 +5834,7 @@
         <v>33</v>
       </c>
       <c r="AI1" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AJ1" s="3" t="s">
         <v>25</v>
@@ -6410,7 +6408,7 @@
     </row>
     <row r="2" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="140" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B2" s="140"/>
       <c r="C2" s="140"/>
@@ -6487,121 +6485,121 @@
       <c r="B43" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="143">
+      <c r="C43" s="144">
         <f>Dati!Q2</f>
         <v>59</v>
       </c>
-      <c r="D43" s="143"/>
-      <c r="E43" s="143">
+      <c r="D43" s="144"/>
+      <c r="E43" s="144">
         <f>Dati!R2</f>
         <v>48</v>
       </c>
-      <c r="F43" s="143"/>
-      <c r="G43" s="143">
+      <c r="F43" s="144"/>
+      <c r="G43" s="144">
         <f>Dati!S2</f>
         <v>51</v>
       </c>
-      <c r="H43" s="143"/>
-      <c r="I43" s="143">
+      <c r="H43" s="144"/>
+      <c r="I43" s="144">
         <f>Dati!T2</f>
         <v>54</v>
       </c>
-      <c r="J43" s="143"/>
-      <c r="K43" s="143">
+      <c r="J43" s="144"/>
+      <c r="K43" s="144">
         <f>Dati!U2</f>
         <v>57</v>
       </c>
-      <c r="L43" s="143"/>
-      <c r="M43" s="143">
+      <c r="L43" s="144"/>
+      <c r="M43" s="144">
         <f>Dati!V2</f>
         <v>60</v>
       </c>
-      <c r="N43" s="143"/>
-      <c r="O43" s="143">
+      <c r="N43" s="144"/>
+      <c r="O43" s="144">
         <f>Dati!W2</f>
         <v>71</v>
       </c>
-      <c r="P43" s="143"/>
+      <c r="P43" s="144"/>
     </row>
     <row r="44" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B44" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="143">
+      <c r="C44" s="144">
         <f>Dati!Q3</f>
         <v>100</v>
       </c>
-      <c r="D44" s="143"/>
-      <c r="E44" s="143">
+      <c r="D44" s="144"/>
+      <c r="E44" s="144">
         <f>Dati!R3</f>
         <v>45</v>
       </c>
-      <c r="F44" s="143"/>
-      <c r="G44" s="143">
+      <c r="F44" s="144"/>
+      <c r="G44" s="144">
         <f>Dati!S3</f>
         <v>67</v>
       </c>
-      <c r="H44" s="143"/>
-      <c r="I44" s="143">
+      <c r="H44" s="144"/>
+      <c r="I44" s="144">
         <f>Dati!T3</f>
         <v>77</v>
       </c>
-      <c r="J44" s="143"/>
-      <c r="K44" s="143">
+      <c r="J44" s="144"/>
+      <c r="K44" s="144">
         <f>Dati!U3</f>
         <v>64</v>
       </c>
-      <c r="L44" s="143"/>
-      <c r="M44" s="143">
+      <c r="L44" s="144"/>
+      <c r="M44" s="144">
         <f>Dati!V3</f>
         <v>77</v>
       </c>
-      <c r="N44" s="143"/>
-      <c r="O44" s="143">
+      <c r="N44" s="144"/>
+      <c r="O44" s="144">
         <f>Dati!W3</f>
         <v>65</v>
       </c>
-      <c r="P44" s="143"/>
+      <c r="P44" s="144"/>
     </row>
     <row r="45" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="143">
+      <c r="C45" s="144">
         <f>Dati!Q4</f>
         <v>100</v>
       </c>
-      <c r="D45" s="143"/>
-      <c r="E45" s="143">
+      <c r="D45" s="144"/>
+      <c r="E45" s="144">
         <f>Dati!R4</f>
         <v>100</v>
       </c>
-      <c r="F45" s="143"/>
-      <c r="G45" s="143">
+      <c r="F45" s="144"/>
+      <c r="G45" s="144">
         <f>Dati!S4</f>
         <v>100</v>
       </c>
-      <c r="H45" s="143"/>
-      <c r="I45" s="143">
+      <c r="H45" s="144"/>
+      <c r="I45" s="144">
         <f>Dati!T4</f>
         <v>100</v>
       </c>
-      <c r="J45" s="143"/>
-      <c r="K45" s="143">
+      <c r="J45" s="144"/>
+      <c r="K45" s="144">
         <f>Dati!U4</f>
         <v>100</v>
       </c>
-      <c r="L45" s="143"/>
-      <c r="M45" s="143">
+      <c r="L45" s="144"/>
+      <c r="M45" s="144">
         <f>Dati!V4</f>
         <v>100</v>
       </c>
-      <c r="N45" s="143"/>
-      <c r="O45" s="143">
+      <c r="N45" s="144"/>
+      <c r="O45" s="144">
         <f>Dati!W4</f>
         <v>100</v>
       </c>
-      <c r="P45" s="143"/>
+      <c r="P45" s="144"/>
     </row>
     <row r="46" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="5"/>
@@ -6673,7 +6671,7 @@
         <v>23</v>
       </c>
       <c r="B59" s="119" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C59" s="119"/>
       <c r="D59" s="119"/>
@@ -6752,7 +6750,7 @@
         <v>49</v>
       </c>
       <c r="B63" s="119" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C63" s="119"/>
       <c r="D63" s="119"/>
@@ -6775,6 +6773,19 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="29">
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:L42"/>
     <mergeCell ref="A2:Q3"/>
     <mergeCell ref="O43:P43"/>
     <mergeCell ref="O44:P44"/>
@@ -6791,19 +6802,6 @@
     <mergeCell ref="I43:J43"/>
     <mergeCell ref="I44:J44"/>
     <mergeCell ref="I45:J45"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.30000000000000004" right="0.54729166666666662" top="0.65249999999999997" bottom="0.53041666666666665" header="0" footer="0.30000000000000004"/>
@@ -6850,7 +6848,7 @@
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="140" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2" s="140"/>
       <c r="C2" s="140"/>
@@ -7146,7 +7144,7 @@
         <v>56</v>
       </c>
       <c r="I72" s="63" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J72" s="95"/>
       <c r="K72" s="95"/>
@@ -7252,10 +7250,10 @@
       <c r="E78" s="95"/>
       <c r="F78" s="95"/>
       <c r="H78" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I78" s="92" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J78" s="63"/>
       <c r="K78" s="63"/>
@@ -7309,7 +7307,7 @@
     </row>
     <row r="2" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="140" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B2" s="140"/>
       <c r="C2" s="140"/>
@@ -7377,104 +7375,104 @@
       <c r="A42" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="144" t="str">
+      <c r="C42" s="145" t="str">
         <f>Dati!AF1</f>
         <v>THD</v>
       </c>
-      <c r="D42" s="144"/>
-      <c r="E42" s="144" t="str">
+      <c r="D42" s="145"/>
+      <c r="E42" s="145" t="str">
         <f>Dati!AG1</f>
         <v>RC6</v>
       </c>
-      <c r="F42" s="144"/>
-      <c r="G42" s="144" t="str">
+      <c r="F42" s="145"/>
+      <c r="G42" s="145" t="str">
         <f>Dati!AH1</f>
         <v>RC8</v>
       </c>
-      <c r="H42" s="144"/>
-      <c r="I42" s="144" t="str">
+      <c r="H42" s="145"/>
+      <c r="I42" s="145" t="str">
         <f>Dati!AI1</f>
         <v>PSYC-r</v>
       </c>
-      <c r="J42" s="144"/>
+      <c r="J42" s="145"/>
       <c r="K42" s="67"/>
     </row>
     <row r="43" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="141">
+      <c r="C43" s="143">
         <f>Dati!AF2</f>
         <v>49</v>
       </c>
-      <c r="D43" s="141"/>
-      <c r="E43" s="141">
+      <c r="D43" s="143"/>
+      <c r="E43" s="143">
         <f>Dati!AG2</f>
         <v>51</v>
       </c>
-      <c r="F43" s="141"/>
-      <c r="G43" s="141">
+      <c r="F43" s="143"/>
+      <c r="G43" s="143">
         <f>Dati!AH2</f>
         <v>53</v>
       </c>
-      <c r="H43" s="141"/>
-      <c r="I43" s="141">
+      <c r="H43" s="143"/>
+      <c r="I43" s="143">
         <f>Dati!AI2</f>
         <v>55</v>
       </c>
-      <c r="J43" s="141"/>
+      <c r="J43" s="143"/>
       <c r="K43" s="63"/>
     </row>
     <row r="44" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="141">
+      <c r="C44" s="143">
         <f>Dati!AF3</f>
         <v>70</v>
       </c>
-      <c r="D44" s="141"/>
-      <c r="E44" s="141">
+      <c r="D44" s="143"/>
+      <c r="E44" s="143">
         <f>Dati!AG3</f>
         <v>89</v>
       </c>
-      <c r="F44" s="141"/>
-      <c r="G44" s="141">
+      <c r="F44" s="143"/>
+      <c r="G44" s="143">
         <f>Dati!AH3</f>
         <v>64</v>
       </c>
-      <c r="H44" s="141"/>
-      <c r="I44" s="141">
+      <c r="H44" s="143"/>
+      <c r="I44" s="143">
         <f>Dati!AI3</f>
         <v>101</v>
       </c>
-      <c r="J44" s="141"/>
+      <c r="J44" s="143"/>
       <c r="K44" s="63"/>
     </row>
     <row r="45" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="141">
+      <c r="C45" s="143">
         <f>Dati!AF4</f>
         <v>100</v>
       </c>
-      <c r="D45" s="141"/>
-      <c r="E45" s="141">
+      <c r="D45" s="143"/>
+      <c r="E45" s="143">
         <f>Dati!AG4</f>
         <v>100</v>
       </c>
-      <c r="F45" s="141"/>
-      <c r="G45" s="141">
+      <c r="F45" s="143"/>
+      <c r="G45" s="143">
         <f>Dati!AH4</f>
         <v>100</v>
       </c>
-      <c r="H45" s="141"/>
-      <c r="I45" s="141">
+      <c r="H45" s="143"/>
+      <c r="I45" s="143">
         <f>Dati!AI4</f>
         <v>100</v>
       </c>
-      <c r="J45" s="141"/>
+      <c r="J45" s="143"/>
       <c r="K45" s="63"/>
     </row>
     <row r="46" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7671,7 +7669,7 @@
       <c r="D61" s="119"/>
       <c r="E61" s="119"/>
       <c r="F61" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G61" s="119" t="s">
         <v>95</v>
@@ -7697,6 +7695,14 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="20">
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="A2:M4"/>
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="E43:F43"/>
@@ -7709,14 +7715,6 @@
     <mergeCell ref="G45:H45"/>
     <mergeCell ref="E45:F45"/>
     <mergeCell ref="C44:D44"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="A2:M4"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="B52:E52"/>
   </mergeCells>
   <pageMargins left="0.30000000000000004" right="0.5625" top="0.65" bottom="0.53125" header="0" footer="0.30000000000000004"/>
   <pageSetup paperSize="9" scale="71" orientation="portrait" r:id="rId1"/>
@@ -7759,7 +7757,7 @@
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="140" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B2" s="140"/>
       <c r="C2" s="140"/>
@@ -8091,7 +8089,7 @@
         <v>25</v>
       </c>
       <c r="B56" s="119" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
@@ -8246,7 +8244,7 @@
     </row>
     <row r="2" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="140" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" s="140"/>
       <c r="C2" s="140"/>
@@ -8307,141 +8305,141 @@
       <c r="A43" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C43" s="144" t="str">
+      <c r="C43" s="145" t="str">
         <f>Dati!AS1</f>
         <v>FML</v>
       </c>
-      <c r="D43" s="144"/>
-      <c r="E43" s="144" t="str">
+      <c r="D43" s="145"/>
+      <c r="E43" s="145" t="str">
         <f>Dati!AT1</f>
         <v>RC3</v>
       </c>
-      <c r="F43" s="144"/>
-      <c r="G43" s="144" t="str">
+      <c r="F43" s="145"/>
+      <c r="G43" s="145" t="str">
         <f>Dati!AU1</f>
         <v>IPP</v>
       </c>
-      <c r="H43" s="144"/>
-      <c r="I43" s="144" t="str">
+      <c r="H43" s="145"/>
+      <c r="I43" s="145" t="str">
         <f>Dati!AV1</f>
         <v>SAV</v>
       </c>
-      <c r="J43" s="144"/>
-      <c r="K43" s="144" t="str">
+      <c r="J43" s="145"/>
+      <c r="K43" s="145" t="str">
         <f>Dati!AW1</f>
         <v>SHY</v>
       </c>
-      <c r="L43" s="144"/>
-      <c r="M43" s="144" t="str">
+      <c r="L43" s="145"/>
+      <c r="M43" s="145" t="str">
         <f>Dati!AX1</f>
         <v>DSF</v>
       </c>
-      <c r="N43" s="144"/>
+      <c r="N43" s="145"/>
     </row>
     <row r="44" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="141">
+      <c r="C44" s="143">
         <f>Dati!AS2</f>
         <v>67</v>
       </c>
-      <c r="D44" s="141"/>
-      <c r="E44" s="141">
+      <c r="D44" s="143"/>
+      <c r="E44" s="143">
         <f>Dati!AT2</f>
         <v>68</v>
       </c>
-      <c r="F44" s="141"/>
-      <c r="G44" s="141">
+      <c r="F44" s="143"/>
+      <c r="G44" s="143">
         <f>Dati!AU2</f>
         <v>69</v>
       </c>
-      <c r="H44" s="141"/>
-      <c r="I44" s="141">
+      <c r="H44" s="143"/>
+      <c r="I44" s="143">
         <f>Dati!AV2</f>
         <v>70</v>
       </c>
-      <c r="J44" s="141"/>
-      <c r="K44" s="141">
+      <c r="J44" s="143"/>
+      <c r="K44" s="143">
         <f>Dati!AW2</f>
         <v>71</v>
       </c>
-      <c r="L44" s="141"/>
-      <c r="M44" s="141">
+      <c r="L44" s="143"/>
+      <c r="M44" s="143">
         <f>Dati!AX2</f>
         <v>72</v>
       </c>
-      <c r="N44" s="141"/>
+      <c r="N44" s="143"/>
     </row>
     <row r="45" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C45" s="141">
+      <c r="C45" s="143">
         <f>Dati!AS3</f>
         <v>65</v>
       </c>
-      <c r="D45" s="141"/>
-      <c r="E45" s="141">
+      <c r="D45" s="143"/>
+      <c r="E45" s="143">
         <f>Dati!AT3</f>
         <v>75</v>
       </c>
-      <c r="F45" s="141"/>
-      <c r="G45" s="141">
+      <c r="F45" s="143"/>
+      <c r="G45" s="143">
         <f>Dati!AU3</f>
         <v>54</v>
       </c>
-      <c r="H45" s="141"/>
-      <c r="I45" s="141">
+      <c r="H45" s="143"/>
+      <c r="I45" s="143">
         <f>Dati!AV3</f>
         <v>88</v>
       </c>
-      <c r="J45" s="141"/>
-      <c r="K45" s="141">
+      <c r="J45" s="143"/>
+      <c r="K45" s="143">
         <f>Dati!AW3</f>
         <v>94</v>
       </c>
-      <c r="L45" s="141"/>
-      <c r="M45" s="141">
+      <c r="L45" s="143"/>
+      <c r="M45" s="143">
         <f>Dati!AX3</f>
         <v>44</v>
       </c>
-      <c r="N45" s="141"/>
+      <c r="N45" s="143"/>
     </row>
     <row r="46" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="141">
+      <c r="C46" s="143">
         <f>Dati!AS4</f>
         <v>100</v>
       </c>
-      <c r="D46" s="141"/>
-      <c r="E46" s="141">
+      <c r="D46" s="143"/>
+      <c r="E46" s="143">
         <f>Dati!AT4</f>
         <v>100</v>
       </c>
-      <c r="F46" s="141"/>
-      <c r="G46" s="141">
+      <c r="F46" s="143"/>
+      <c r="G46" s="143">
         <f>Dati!AU4</f>
         <v>100</v>
       </c>
-      <c r="H46" s="141"/>
-      <c r="I46" s="141">
+      <c r="H46" s="143"/>
+      <c r="I46" s="143">
         <f>Dati!AV4</f>
         <v>100</v>
       </c>
-      <c r="J46" s="141"/>
-      <c r="K46" s="141">
+      <c r="J46" s="143"/>
+      <c r="K46" s="143">
         <f>Dati!AW4</f>
         <v>100</v>
       </c>
-      <c r="L46" s="141"/>
-      <c r="M46" s="141">
+      <c r="L46" s="143"/>
+      <c r="M46" s="143">
         <f>Dati!AX4</f>
         <v>100</v>
       </c>
-      <c r="N46" s="141"/>
+      <c r="N46" s="143"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B47" s="5"/>
@@ -8594,13 +8592,13 @@
       <c r="A58" s="126" t="s">
         <v>73</v>
       </c>
-      <c r="B58" s="151" t="s">
+      <c r="B58" s="141" t="s">
         <v>87</v>
       </c>
-      <c r="C58" s="151"/>
-      <c r="D58" s="151"/>
-      <c r="E58" s="151"/>
-      <c r="F58" s="151"/>
+      <c r="C58" s="141"/>
+      <c r="D58" s="141"/>
+      <c r="E58" s="141"/>
+      <c r="F58" s="141"/>
       <c r="G58" s="126" t="s">
         <v>76</v>
       </c>
@@ -8634,21 +8632,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="31">
-    <mergeCell ref="A2:P4"/>
-    <mergeCell ref="B56:F56"/>
-    <mergeCell ref="H54:L54"/>
-    <mergeCell ref="H56:L56"/>
-    <mergeCell ref="B54:F54"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M45:N45"/>
     <mergeCell ref="H58:L58"/>
     <mergeCell ref="B58:F58"/>
     <mergeCell ref="M46:N46"/>
@@ -8665,6 +8648,21 @@
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="E44:F44"/>
     <mergeCell ref="C45:D45"/>
+    <mergeCell ref="A2:P4"/>
+    <mergeCell ref="B56:F56"/>
+    <mergeCell ref="H54:L54"/>
+    <mergeCell ref="H56:L56"/>
+    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M45:N45"/>
   </mergeCells>
   <pageMargins left="0.30000000000000004" right="0.48166666666666669" top="0.65249999999999997" bottom="0.53187499999999999" header="0" footer="0.30000000000000004"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" r:id="rId1"/>
@@ -8723,7 +8721,7 @@
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="134" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B3" s="134"/>
       <c r="C3" s="134"/>
@@ -8775,84 +8773,84 @@
       <c r="A44" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B44" s="144" t="str">
+      <c r="B44" s="145" t="str">
         <f>Dati!AY1</f>
         <v>AES</v>
       </c>
-      <c r="C44" s="144"/>
-      <c r="D44" s="144"/>
-      <c r="E44" s="144"/>
-      <c r="F44" s="144"/>
-      <c r="G44" s="144" t="str">
+      <c r="C44" s="145"/>
+      <c r="D44" s="145"/>
+      <c r="E44" s="145"/>
+      <c r="F44" s="145"/>
+      <c r="G44" s="145" t="str">
         <f>Dati!AZ1</f>
         <v>MEC</v>
       </c>
-      <c r="H44" s="144"/>
-      <c r="I44" s="144"/>
-      <c r="J44" s="144"/>
+      <c r="H44" s="145"/>
+      <c r="I44" s="145"/>
+      <c r="J44" s="145"/>
       <c r="K44" s="67"/>
     </row>
     <row r="45" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="141">
+      <c r="B45" s="143">
         <f>Dati!AY2</f>
         <v>49</v>
       </c>
-      <c r="C45" s="141"/>
-      <c r="D45" s="141"/>
-      <c r="E45" s="141"/>
-      <c r="F45" s="141"/>
-      <c r="G45" s="141">
+      <c r="C45" s="143"/>
+      <c r="D45" s="143"/>
+      <c r="E45" s="143"/>
+      <c r="F45" s="143"/>
+      <c r="G45" s="143">
         <f>Dati!AZ2</f>
         <v>59</v>
       </c>
-      <c r="H45" s="141"/>
-      <c r="I45" s="141"/>
-      <c r="J45" s="141"/>
+      <c r="H45" s="143"/>
+      <c r="I45" s="143"/>
+      <c r="J45" s="143"/>
       <c r="K45" s="63"/>
     </row>
     <row r="46" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="141">
+      <c r="B46" s="143">
         <f>Dati!AY3</f>
         <v>65</v>
       </c>
-      <c r="C46" s="141"/>
-      <c r="D46" s="141"/>
-      <c r="E46" s="141"/>
-      <c r="F46" s="141"/>
-      <c r="G46" s="141">
+      <c r="C46" s="143"/>
+      <c r="D46" s="143"/>
+      <c r="E46" s="143"/>
+      <c r="F46" s="143"/>
+      <c r="G46" s="143">
         <f>Dati!AZ3</f>
         <v>78</v>
       </c>
-      <c r="H46" s="141"/>
-      <c r="I46" s="141"/>
-      <c r="J46" s="141"/>
+      <c r="H46" s="143"/>
+      <c r="I46" s="143"/>
+      <c r="J46" s="143"/>
       <c r="K46" s="63"/>
     </row>
     <row r="47" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="141">
+      <c r="B47" s="143">
         <f>Dati!AY4</f>
         <v>100</v>
       </c>
-      <c r="C47" s="141"/>
-      <c r="D47" s="141"/>
-      <c r="E47" s="141"/>
-      <c r="F47" s="141"/>
-      <c r="G47" s="141">
+      <c r="C47" s="143"/>
+      <c r="D47" s="143"/>
+      <c r="E47" s="143"/>
+      <c r="F47" s="143"/>
+      <c r="G47" s="143">
         <f>Dati!AZ4</f>
         <v>100</v>
       </c>
-      <c r="H47" s="141"/>
-      <c r="I47" s="141"/>
-      <c r="J47" s="141"/>
+      <c r="H47" s="143"/>
+      <c r="I47" s="143"/>
+      <c r="J47" s="143"/>
       <c r="K47" s="63"/>
     </row>
     <row r="48" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9128,87 +9126,87 @@
       <c r="Y1" s="34"/>
     </row>
     <row r="2" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="145" t="s">
+      <c r="A2" s="146" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="145"/>
-      <c r="M2" s="145"/>
-      <c r="N2" s="145"/>
-      <c r="O2" s="145"/>
-      <c r="P2" s="145"/>
-      <c r="Q2" s="145"/>
-      <c r="R2" s="145"/>
-      <c r="S2" s="145"/>
-      <c r="T2" s="145"/>
-      <c r="U2" s="145"/>
-      <c r="V2" s="145"/>
-      <c r="W2" s="145"/>
-      <c r="X2" s="145"/>
-      <c r="Y2" s="145"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="146"/>
+      <c r="N2" s="146"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="146"/>
+      <c r="Q2" s="146"/>
+      <c r="R2" s="146"/>
+      <c r="S2" s="146"/>
+      <c r="T2" s="146"/>
+      <c r="U2" s="146"/>
+      <c r="V2" s="146"/>
+      <c r="W2" s="146"/>
+      <c r="X2" s="146"/>
+      <c r="Y2" s="146"/>
     </row>
     <row r="3" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="145"/>
-      <c r="B3" s="145"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="145"/>
-      <c r="J3" s="145"/>
-      <c r="K3" s="145"/>
-      <c r="L3" s="145"/>
-      <c r="M3" s="145"/>
-      <c r="N3" s="145"/>
-      <c r="O3" s="145"/>
-      <c r="P3" s="145"/>
-      <c r="Q3" s="145"/>
-      <c r="R3" s="145"/>
-      <c r="S3" s="145"/>
-      <c r="T3" s="145"/>
-      <c r="U3" s="145"/>
-      <c r="V3" s="145"/>
-      <c r="W3" s="145"/>
-      <c r="X3" s="145"/>
-      <c r="Y3" s="145"/>
+      <c r="A3" s="146"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="146"/>
+      <c r="L3" s="146"/>
+      <c r="M3" s="146"/>
+      <c r="N3" s="146"/>
+      <c r="O3" s="146"/>
+      <c r="P3" s="146"/>
+      <c r="Q3" s="146"/>
+      <c r="R3" s="146"/>
+      <c r="S3" s="146"/>
+      <c r="T3" s="146"/>
+      <c r="U3" s="146"/>
+      <c r="V3" s="146"/>
+      <c r="W3" s="146"/>
+      <c r="X3" s="146"/>
+      <c r="Y3" s="146"/>
     </row>
     <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="145"/>
-      <c r="B4" s="145"/>
-      <c r="C4" s="145"/>
-      <c r="D4" s="145"/>
-      <c r="E4" s="145"/>
-      <c r="F4" s="145"/>
-      <c r="G4" s="145"/>
-      <c r="H4" s="145"/>
-      <c r="I4" s="145"/>
-      <c r="J4" s="145"/>
-      <c r="K4" s="145"/>
-      <c r="L4" s="145"/>
-      <c r="M4" s="145"/>
-      <c r="N4" s="145"/>
-      <c r="O4" s="145"/>
-      <c r="P4" s="145"/>
-      <c r="Q4" s="145"/>
-      <c r="R4" s="145"/>
-      <c r="S4" s="145"/>
-      <c r="T4" s="145"/>
-      <c r="U4" s="145"/>
-      <c r="V4" s="145"/>
-      <c r="W4" s="145"/>
-      <c r="X4" s="145"/>
-      <c r="Y4" s="145"/>
+      <c r="A4" s="146"/>
+      <c r="B4" s="146"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="146"/>
+      <c r="K4" s="146"/>
+      <c r="L4" s="146"/>
+      <c r="M4" s="146"/>
+      <c r="N4" s="146"/>
+      <c r="O4" s="146"/>
+      <c r="P4" s="146"/>
+      <c r="Q4" s="146"/>
+      <c r="R4" s="146"/>
+      <c r="S4" s="146"/>
+      <c r="T4" s="146"/>
+      <c r="U4" s="146"/>
+      <c r="V4" s="146"/>
+      <c r="W4" s="146"/>
+      <c r="X4" s="146"/>
+      <c r="Y4" s="146"/>
     </row>
     <row r="5" spans="1:25" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="73"/>
@@ -9793,59 +9791,59 @@
       <c r="L1" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="145" t="s">
+      <c r="A4" s="146" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="145"/>
-      <c r="C4" s="145"/>
-      <c r="D4" s="145"/>
-      <c r="E4" s="145"/>
-      <c r="F4" s="145"/>
-      <c r="G4" s="145"/>
-      <c r="H4" s="145"/>
-      <c r="I4" s="145"/>
-      <c r="J4" s="145"/>
-      <c r="K4" s="145"/>
-      <c r="L4" s="145"/>
+      <c r="B4" s="146"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="146"/>
+      <c r="K4" s="146"/>
+      <c r="L4" s="146"/>
     </row>
     <row r="5" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="145"/>
-      <c r="B5" s="145"/>
-      <c r="C5" s="145"/>
-      <c r="D5" s="145"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="145"/>
-      <c r="I5" s="145"/>
-      <c r="J5" s="145"/>
-      <c r="K5" s="145"/>
-      <c r="L5" s="145"/>
+      <c r="A5" s="146"/>
+      <c r="B5" s="146"/>
+      <c r="C5" s="146"/>
+      <c r="D5" s="146"/>
+      <c r="E5" s="146"/>
+      <c r="F5" s="146"/>
+      <c r="G5" s="146"/>
+      <c r="H5" s="146"/>
+      <c r="I5" s="146"/>
+      <c r="J5" s="146"/>
+      <c r="K5" s="146"/>
+      <c r="L5" s="146"/>
     </row>
     <row r="6" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="145"/>
-      <c r="B6" s="145"/>
-      <c r="C6" s="145"/>
-      <c r="D6" s="145"/>
-      <c r="E6" s="145"/>
-      <c r="F6" s="145"/>
-      <c r="G6" s="145"/>
-      <c r="H6" s="145"/>
-      <c r="I6" s="145"/>
-      <c r="J6" s="145"/>
-      <c r="K6" s="145"/>
-      <c r="L6" s="145"/>
+      <c r="A6" s="146"/>
+      <c r="B6" s="146"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="146"/>
+      <c r="K6" s="146"/>
+      <c r="L6" s="146"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
-      <c r="B8" s="146"/>
-      <c r="C8" s="146"/>
-      <c r="D8" s="146"/>
-      <c r="E8" s="146"/>
-      <c r="F8" s="146"/>
-      <c r="G8" s="146"/>
-      <c r="H8" s="146"/>
-      <c r="I8" s="146"/>
+      <c r="B8" s="147"/>
+      <c r="C8" s="147"/>
+      <c r="D8" s="147"/>
+      <c r="E8" s="147"/>
+      <c r="F8" s="147"/>
+      <c r="G8" s="147"/>
+      <c r="H8" s="147"/>
+      <c r="I8" s="147"/>
       <c r="J8" s="72"/>
       <c r="K8" s="23"/>
     </row>
@@ -9856,614 +9854,614 @@
     <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
       <c r="B10" s="148" t="s">
-        <v>126</v>
-      </c>
-      <c r="C10" s="146"/>
-      <c r="D10" s="146"/>
-      <c r="E10" s="146"/>
-      <c r="F10" s="146"/>
-      <c r="G10" s="146"/>
-      <c r="H10" s="146"/>
-      <c r="I10" s="146"/>
-      <c r="J10" s="146"/>
+        <v>125</v>
+      </c>
+      <c r="C10" s="147"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="147"/>
+      <c r="F10" s="147"/>
+      <c r="G10" s="147"/>
+      <c r="H10" s="147"/>
+      <c r="I10" s="147"/>
+      <c r="J10" s="147"/>
       <c r="K10" s="23"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="25"/>
-      <c r="B11" s="146"/>
-      <c r="C11" s="146"/>
-      <c r="D11" s="146"/>
-      <c r="E11" s="146"/>
-      <c r="F11" s="146"/>
-      <c r="G11" s="146"/>
-      <c r="H11" s="146"/>
-      <c r="I11" s="146"/>
-      <c r="J11" s="146"/>
+      <c r="B11" s="147"/>
+      <c r="C11" s="147"/>
+      <c r="D11" s="147"/>
+      <c r="E11" s="147"/>
+      <c r="F11" s="147"/>
+      <c r="G11" s="147"/>
+      <c r="H11" s="147"/>
+      <c r="I11" s="147"/>
+      <c r="J11" s="147"/>
       <c r="K11" s="23"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="25"/>
-      <c r="B12" s="146"/>
-      <c r="C12" s="146"/>
-      <c r="D12" s="146"/>
-      <c r="E12" s="146"/>
-      <c r="F12" s="146"/>
-      <c r="G12" s="146"/>
-      <c r="H12" s="146"/>
-      <c r="I12" s="146"/>
-      <c r="J12" s="146"/>
+      <c r="B12" s="147"/>
+      <c r="C12" s="147"/>
+      <c r="D12" s="147"/>
+      <c r="E12" s="147"/>
+      <c r="F12" s="147"/>
+      <c r="G12" s="147"/>
+      <c r="H12" s="147"/>
+      <c r="I12" s="147"/>
+      <c r="J12" s="147"/>
       <c r="K12" s="23"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
-      <c r="B13" s="146"/>
-      <c r="C13" s="146"/>
-      <c r="D13" s="146"/>
-      <c r="E13" s="146"/>
-      <c r="F13" s="146"/>
-      <c r="G13" s="146"/>
-      <c r="H13" s="146"/>
-      <c r="I13" s="146"/>
-      <c r="J13" s="146"/>
+      <c r="B13" s="147"/>
+      <c r="C13" s="147"/>
+      <c r="D13" s="147"/>
+      <c r="E13" s="147"/>
+      <c r="F13" s="147"/>
+      <c r="G13" s="147"/>
+      <c r="H13" s="147"/>
+      <c r="I13" s="147"/>
+      <c r="J13" s="147"/>
       <c r="K13" s="23"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
-      <c r="B14" s="146"/>
-      <c r="C14" s="146"/>
-      <c r="D14" s="146"/>
-      <c r="E14" s="146"/>
-      <c r="F14" s="146"/>
-      <c r="G14" s="146"/>
-      <c r="H14" s="146"/>
-      <c r="I14" s="146"/>
-      <c r="J14" s="146"/>
+      <c r="B14" s="147"/>
+      <c r="C14" s="147"/>
+      <c r="D14" s="147"/>
+      <c r="E14" s="147"/>
+      <c r="F14" s="147"/>
+      <c r="G14" s="147"/>
+      <c r="H14" s="147"/>
+      <c r="I14" s="147"/>
+      <c r="J14" s="147"/>
       <c r="K14" s="23"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="25"/>
-      <c r="B15" s="146"/>
-      <c r="C15" s="146"/>
-      <c r="D15" s="146"/>
-      <c r="E15" s="146"/>
-      <c r="F15" s="146"/>
-      <c r="G15" s="146"/>
-      <c r="H15" s="146"/>
-      <c r="I15" s="146"/>
-      <c r="J15" s="146"/>
+      <c r="B15" s="147"/>
+      <c r="C15" s="147"/>
+      <c r="D15" s="147"/>
+      <c r="E15" s="147"/>
+      <c r="F15" s="147"/>
+      <c r="G15" s="147"/>
+      <c r="H15" s="147"/>
+      <c r="I15" s="147"/>
+      <c r="J15" s="147"/>
       <c r="K15" s="23"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="25"/>
-      <c r="B16" s="146"/>
-      <c r="C16" s="146"/>
-      <c r="D16" s="146"/>
-      <c r="E16" s="146"/>
-      <c r="F16" s="146"/>
-      <c r="G16" s="146"/>
-      <c r="H16" s="146"/>
-      <c r="I16" s="146"/>
-      <c r="J16" s="146"/>
+      <c r="B16" s="147"/>
+      <c r="C16" s="147"/>
+      <c r="D16" s="147"/>
+      <c r="E16" s="147"/>
+      <c r="F16" s="147"/>
+      <c r="G16" s="147"/>
+      <c r="H16" s="147"/>
+      <c r="I16" s="147"/>
+      <c r="J16" s="147"/>
       <c r="K16" s="23"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="25"/>
-      <c r="B17" s="146"/>
-      <c r="C17" s="146"/>
-      <c r="D17" s="146"/>
-      <c r="E17" s="146"/>
-      <c r="F17" s="146"/>
-      <c r="G17" s="146"/>
-      <c r="H17" s="146"/>
-      <c r="I17" s="146"/>
-      <c r="J17" s="146"/>
+      <c r="B17" s="147"/>
+      <c r="C17" s="147"/>
+      <c r="D17" s="147"/>
+      <c r="E17" s="147"/>
+      <c r="F17" s="147"/>
+      <c r="G17" s="147"/>
+      <c r="H17" s="147"/>
+      <c r="I17" s="147"/>
+      <c r="J17" s="147"/>
       <c r="K17" s="23"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="26"/>
-      <c r="B18" s="146"/>
-      <c r="C18" s="146"/>
-      <c r="D18" s="146"/>
-      <c r="E18" s="146"/>
-      <c r="F18" s="146"/>
-      <c r="G18" s="146"/>
-      <c r="H18" s="146"/>
-      <c r="I18" s="146"/>
-      <c r="J18" s="146"/>
+      <c r="B18" s="147"/>
+      <c r="C18" s="147"/>
+      <c r="D18" s="147"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="147"/>
+      <c r="G18" s="147"/>
+      <c r="H18" s="147"/>
+      <c r="I18" s="147"/>
+      <c r="J18" s="147"/>
       <c r="K18" s="24"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="26"/>
-      <c r="B19" s="146"/>
-      <c r="C19" s="146"/>
-      <c r="D19" s="146"/>
-      <c r="E19" s="146"/>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="146"/>
+      <c r="B19" s="147"/>
+      <c r="C19" s="147"/>
+      <c r="D19" s="147"/>
+      <c r="E19" s="147"/>
+      <c r="F19" s="147"/>
+      <c r="G19" s="147"/>
+      <c r="H19" s="147"/>
+      <c r="I19" s="147"/>
+      <c r="J19" s="147"/>
       <c r="K19" s="24"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="26"/>
-      <c r="B20" s="146"/>
-      <c r="C20" s="146"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="146"/>
-      <c r="G20" s="146"/>
-      <c r="H20" s="146"/>
-      <c r="I20" s="146"/>
-      <c r="J20" s="146"/>
+      <c r="B20" s="147"/>
+      <c r="C20" s="147"/>
+      <c r="D20" s="147"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="147"/>
       <c r="K20" s="24"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="25"/>
-      <c r="B21" s="146"/>
-      <c r="C21" s="146"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="146"/>
-      <c r="G21" s="146"/>
-      <c r="H21" s="146"/>
-      <c r="I21" s="146"/>
-      <c r="J21" s="146"/>
+      <c r="B21" s="147"/>
+      <c r="C21" s="147"/>
+      <c r="D21" s="147"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="147"/>
       <c r="K21" s="23"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="25"/>
-      <c r="B22" s="146"/>
-      <c r="C22" s="146"/>
-      <c r="D22" s="146"/>
-      <c r="E22" s="146"/>
-      <c r="F22" s="146"/>
-      <c r="G22" s="146"/>
-      <c r="H22" s="146"/>
-      <c r="I22" s="146"/>
-      <c r="J22" s="146"/>
+      <c r="B22" s="147"/>
+      <c r="C22" s="147"/>
+      <c r="D22" s="147"/>
+      <c r="E22" s="147"/>
+      <c r="F22" s="147"/>
+      <c r="G22" s="147"/>
+      <c r="H22" s="147"/>
+      <c r="I22" s="147"/>
+      <c r="J22" s="147"/>
       <c r="K22" s="23"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
-      <c r="B23" s="146"/>
-      <c r="C23" s="146"/>
-      <c r="D23" s="146"/>
-      <c r="E23" s="146"/>
-      <c r="F23" s="146"/>
-      <c r="G23" s="146"/>
-      <c r="H23" s="146"/>
-      <c r="I23" s="146"/>
-      <c r="J23" s="146"/>
+      <c r="B23" s="147"/>
+      <c r="C23" s="147"/>
+      <c r="D23" s="147"/>
+      <c r="E23" s="147"/>
+      <c r="F23" s="147"/>
+      <c r="G23" s="147"/>
+      <c r="H23" s="147"/>
+      <c r="I23" s="147"/>
+      <c r="J23" s="147"/>
       <c r="K23" s="23"/>
     </row>
     <row r="24" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25"/>
-      <c r="B24" s="146"/>
-      <c r="C24" s="146"/>
-      <c r="D24" s="146"/>
-      <c r="E24" s="146"/>
-      <c r="F24" s="146"/>
-      <c r="G24" s="146"/>
-      <c r="H24" s="146"/>
-      <c r="I24" s="146"/>
-      <c r="J24" s="146"/>
+      <c r="B24" s="147"/>
+      <c r="C24" s="147"/>
+      <c r="D24" s="147"/>
+      <c r="E24" s="147"/>
+      <c r="F24" s="147"/>
+      <c r="G24" s="147"/>
+      <c r="H24" s="147"/>
+      <c r="I24" s="147"/>
+      <c r="J24" s="147"/>
       <c r="K24" s="23"/>
     </row>
     <row r="25" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25"/>
-      <c r="B25" s="146"/>
-      <c r="C25" s="146"/>
-      <c r="D25" s="146"/>
-      <c r="E25" s="146"/>
-      <c r="F25" s="146"/>
-      <c r="G25" s="146"/>
-      <c r="H25" s="146"/>
-      <c r="I25" s="146"/>
-      <c r="J25" s="146"/>
+      <c r="B25" s="147"/>
+      <c r="C25" s="147"/>
+      <c r="D25" s="147"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="147"/>
       <c r="K25" s="23"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="25"/>
-      <c r="B26" s="146"/>
-      <c r="C26" s="146"/>
-      <c r="D26" s="146"/>
-      <c r="E26" s="146"/>
-      <c r="F26" s="146"/>
-      <c r="G26" s="146"/>
-      <c r="H26" s="146"/>
-      <c r="I26" s="146"/>
-      <c r="J26" s="146"/>
+      <c r="B26" s="147"/>
+      <c r="C26" s="147"/>
+      <c r="D26" s="147"/>
+      <c r="E26" s="147"/>
+      <c r="F26" s="147"/>
+      <c r="G26" s="147"/>
+      <c r="H26" s="147"/>
+      <c r="I26" s="147"/>
+      <c r="J26" s="147"/>
       <c r="K26" s="23"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="25"/>
-      <c r="B27" s="146"/>
-      <c r="C27" s="146"/>
-      <c r="D27" s="146"/>
-      <c r="E27" s="146"/>
-      <c r="F27" s="146"/>
-      <c r="G27" s="146"/>
-      <c r="H27" s="146"/>
-      <c r="I27" s="146"/>
-      <c r="J27" s="146"/>
+      <c r="B27" s="147"/>
+      <c r="C27" s="147"/>
+      <c r="D27" s="147"/>
+      <c r="E27" s="147"/>
+      <c r="F27" s="147"/>
+      <c r="G27" s="147"/>
+      <c r="H27" s="147"/>
+      <c r="I27" s="147"/>
+      <c r="J27" s="147"/>
       <c r="K27" s="23"/>
     </row>
     <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="25"/>
-      <c r="B28" s="146"/>
-      <c r="C28" s="146"/>
-      <c r="D28" s="146"/>
-      <c r="E28" s="146"/>
-      <c r="F28" s="146"/>
-      <c r="G28" s="146"/>
-      <c r="H28" s="146"/>
-      <c r="I28" s="146"/>
-      <c r="J28" s="146"/>
+      <c r="B28" s="147"/>
+      <c r="C28" s="147"/>
+      <c r="D28" s="147"/>
+      <c r="E28" s="147"/>
+      <c r="F28" s="147"/>
+      <c r="G28" s="147"/>
+      <c r="H28" s="147"/>
+      <c r="I28" s="147"/>
+      <c r="J28" s="147"/>
       <c r="K28" s="23"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="25"/>
-      <c r="B29" s="146"/>
-      <c r="C29" s="146"/>
-      <c r="D29" s="146"/>
-      <c r="E29" s="146"/>
-      <c r="F29" s="146"/>
-      <c r="G29" s="146"/>
-      <c r="H29" s="146"/>
-      <c r="I29" s="146"/>
-      <c r="J29" s="146"/>
+      <c r="B29" s="147"/>
+      <c r="C29" s="147"/>
+      <c r="D29" s="147"/>
+      <c r="E29" s="147"/>
+      <c r="F29" s="147"/>
+      <c r="G29" s="147"/>
+      <c r="H29" s="147"/>
+      <c r="I29" s="147"/>
+      <c r="J29" s="147"/>
       <c r="K29" s="23"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="25"/>
-      <c r="B30" s="146"/>
-      <c r="C30" s="146"/>
-      <c r="D30" s="146"/>
-      <c r="E30" s="146"/>
-      <c r="F30" s="146"/>
-      <c r="G30" s="146"/>
-      <c r="H30" s="146"/>
-      <c r="I30" s="146"/>
-      <c r="J30" s="146"/>
+      <c r="B30" s="147"/>
+      <c r="C30" s="147"/>
+      <c r="D30" s="147"/>
+      <c r="E30" s="147"/>
+      <c r="F30" s="147"/>
+      <c r="G30" s="147"/>
+      <c r="H30" s="147"/>
+      <c r="I30" s="147"/>
+      <c r="J30" s="147"/>
       <c r="K30" s="23"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="25"/>
-      <c r="B31" s="146"/>
-      <c r="C31" s="146"/>
-      <c r="D31" s="146"/>
-      <c r="E31" s="146"/>
-      <c r="F31" s="146"/>
-      <c r="G31" s="146"/>
-      <c r="H31" s="146"/>
-      <c r="I31" s="146"/>
-      <c r="J31" s="146"/>
+      <c r="B31" s="147"/>
+      <c r="C31" s="147"/>
+      <c r="D31" s="147"/>
+      <c r="E31" s="147"/>
+      <c r="F31" s="147"/>
+      <c r="G31" s="147"/>
+      <c r="H31" s="147"/>
+      <c r="I31" s="147"/>
+      <c r="J31" s="147"/>
       <c r="K31" s="23"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="25"/>
-      <c r="B32" s="146"/>
-      <c r="C32" s="146"/>
-      <c r="D32" s="146"/>
-      <c r="E32" s="146"/>
-      <c r="F32" s="146"/>
-      <c r="G32" s="146"/>
-      <c r="H32" s="146"/>
-      <c r="I32" s="146"/>
-      <c r="J32" s="146"/>
+      <c r="B32" s="147"/>
+      <c r="C32" s="147"/>
+      <c r="D32" s="147"/>
+      <c r="E32" s="147"/>
+      <c r="F32" s="147"/>
+      <c r="G32" s="147"/>
+      <c r="H32" s="147"/>
+      <c r="I32" s="147"/>
+      <c r="J32" s="147"/>
       <c r="K32" s="23"/>
     </row>
     <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="25"/>
-      <c r="B33" s="146"/>
-      <c r="C33" s="146"/>
-      <c r="D33" s="146"/>
-      <c r="E33" s="146"/>
-      <c r="F33" s="146"/>
-      <c r="G33" s="146"/>
-      <c r="H33" s="146"/>
-      <c r="I33" s="146"/>
-      <c r="J33" s="146"/>
+      <c r="B33" s="147"/>
+      <c r="C33" s="147"/>
+      <c r="D33" s="147"/>
+      <c r="E33" s="147"/>
+      <c r="F33" s="147"/>
+      <c r="G33" s="147"/>
+      <c r="H33" s="147"/>
+      <c r="I33" s="147"/>
+      <c r="J33" s="147"/>
       <c r="K33" s="23"/>
     </row>
     <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="25"/>
-      <c r="B34" s="146"/>
-      <c r="C34" s="146"/>
-      <c r="D34" s="146"/>
-      <c r="E34" s="146"/>
-      <c r="F34" s="146"/>
-      <c r="G34" s="146"/>
-      <c r="H34" s="146"/>
-      <c r="I34" s="146"/>
-      <c r="J34" s="146"/>
+      <c r="B34" s="147"/>
+      <c r="C34" s="147"/>
+      <c r="D34" s="147"/>
+      <c r="E34" s="147"/>
+      <c r="F34" s="147"/>
+      <c r="G34" s="147"/>
+      <c r="H34" s="147"/>
+      <c r="I34" s="147"/>
+      <c r="J34" s="147"/>
       <c r="K34" s="23"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="25"/>
-      <c r="B35" s="146"/>
-      <c r="C35" s="146"/>
-      <c r="D35" s="146"/>
-      <c r="E35" s="146"/>
-      <c r="F35" s="146"/>
-      <c r="G35" s="146"/>
-      <c r="H35" s="146"/>
-      <c r="I35" s="146"/>
-      <c r="J35" s="146"/>
+      <c r="B35" s="147"/>
+      <c r="C35" s="147"/>
+      <c r="D35" s="147"/>
+      <c r="E35" s="147"/>
+      <c r="F35" s="147"/>
+      <c r="G35" s="147"/>
+      <c r="H35" s="147"/>
+      <c r="I35" s="147"/>
+      <c r="J35" s="147"/>
       <c r="K35" s="23"/>
     </row>
     <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="25"/>
-      <c r="B36" s="146"/>
-      <c r="C36" s="146"/>
-      <c r="D36" s="146"/>
-      <c r="E36" s="146"/>
-      <c r="F36" s="146"/>
-      <c r="G36" s="146"/>
-      <c r="H36" s="146"/>
-      <c r="I36" s="146"/>
-      <c r="J36" s="146"/>
+      <c r="B36" s="147"/>
+      <c r="C36" s="147"/>
+      <c r="D36" s="147"/>
+      <c r="E36" s="147"/>
+      <c r="F36" s="147"/>
+      <c r="G36" s="147"/>
+      <c r="H36" s="147"/>
+      <c r="I36" s="147"/>
+      <c r="J36" s="147"/>
       <c r="K36" s="23"/>
     </row>
     <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="25"/>
-      <c r="B37" s="146"/>
-      <c r="C37" s="146"/>
-      <c r="D37" s="146"/>
-      <c r="E37" s="146"/>
-      <c r="F37" s="146"/>
-      <c r="G37" s="146"/>
-      <c r="H37" s="146"/>
-      <c r="I37" s="146"/>
-      <c r="J37" s="146"/>
+      <c r="B37" s="147"/>
+      <c r="C37" s="147"/>
+      <c r="D37" s="147"/>
+      <c r="E37" s="147"/>
+      <c r="F37" s="147"/>
+      <c r="G37" s="147"/>
+      <c r="H37" s="147"/>
+      <c r="I37" s="147"/>
+      <c r="J37" s="147"/>
       <c r="K37" s="23"/>
     </row>
     <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="25"/>
-      <c r="B38" s="146"/>
-      <c r="C38" s="146"/>
-      <c r="D38" s="146"/>
-      <c r="E38" s="146"/>
-      <c r="F38" s="146"/>
-      <c r="G38" s="146"/>
-      <c r="H38" s="146"/>
-      <c r="I38" s="146"/>
-      <c r="J38" s="146"/>
+      <c r="B38" s="147"/>
+      <c r="C38" s="147"/>
+      <c r="D38" s="147"/>
+      <c r="E38" s="147"/>
+      <c r="F38" s="147"/>
+      <c r="G38" s="147"/>
+      <c r="H38" s="147"/>
+      <c r="I38" s="147"/>
+      <c r="J38" s="147"/>
       <c r="K38" s="23"/>
     </row>
     <row r="39" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="25"/>
-      <c r="B39" s="146"/>
-      <c r="C39" s="146"/>
-      <c r="D39" s="146"/>
-      <c r="E39" s="146"/>
-      <c r="F39" s="146"/>
-      <c r="G39" s="146"/>
-      <c r="H39" s="146"/>
-      <c r="I39" s="146"/>
-      <c r="J39" s="146"/>
+      <c r="B39" s="147"/>
+      <c r="C39" s="147"/>
+      <c r="D39" s="147"/>
+      <c r="E39" s="147"/>
+      <c r="F39" s="147"/>
+      <c r="G39" s="147"/>
+      <c r="H39" s="147"/>
+      <c r="I39" s="147"/>
+      <c r="J39" s="147"/>
       <c r="K39" s="23"/>
     </row>
     <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="25"/>
-      <c r="B40" s="146"/>
-      <c r="C40" s="146"/>
-      <c r="D40" s="146"/>
-      <c r="E40" s="146"/>
-      <c r="F40" s="146"/>
-      <c r="G40" s="146"/>
-      <c r="H40" s="146"/>
-      <c r="I40" s="146"/>
-      <c r="J40" s="146"/>
+      <c r="B40" s="147"/>
+      <c r="C40" s="147"/>
+      <c r="D40" s="147"/>
+      <c r="E40" s="147"/>
+      <c r="F40" s="147"/>
+      <c r="G40" s="147"/>
+      <c r="H40" s="147"/>
+      <c r="I40" s="147"/>
+      <c r="J40" s="147"/>
       <c r="K40" s="23"/>
     </row>
     <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="25"/>
-      <c r="B41" s="146"/>
-      <c r="C41" s="146"/>
-      <c r="D41" s="146"/>
-      <c r="E41" s="146"/>
-      <c r="F41" s="146"/>
-      <c r="G41" s="146"/>
-      <c r="H41" s="146"/>
-      <c r="I41" s="146"/>
-      <c r="J41" s="146"/>
+      <c r="B41" s="147"/>
+      <c r="C41" s="147"/>
+      <c r="D41" s="147"/>
+      <c r="E41" s="147"/>
+      <c r="F41" s="147"/>
+      <c r="G41" s="147"/>
+      <c r="H41" s="147"/>
+      <c r="I41" s="147"/>
+      <c r="J41" s="147"/>
       <c r="K41" s="23"/>
     </row>
     <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="25"/>
-      <c r="B42" s="146"/>
-      <c r="C42" s="146"/>
-      <c r="D42" s="146"/>
-      <c r="E42" s="146"/>
-      <c r="F42" s="146"/>
-      <c r="G42" s="146"/>
-      <c r="H42" s="146"/>
-      <c r="I42" s="146"/>
-      <c r="J42" s="146"/>
+      <c r="B42" s="147"/>
+      <c r="C42" s="147"/>
+      <c r="D42" s="147"/>
+      <c r="E42" s="147"/>
+      <c r="F42" s="147"/>
+      <c r="G42" s="147"/>
+      <c r="H42" s="147"/>
+      <c r="I42" s="147"/>
+      <c r="J42" s="147"/>
       <c r="K42" s="23"/>
     </row>
     <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="25"/>
-      <c r="B43" s="146"/>
-      <c r="C43" s="146"/>
-      <c r="D43" s="146"/>
-      <c r="E43" s="146"/>
-      <c r="F43" s="146"/>
-      <c r="G43" s="146"/>
-      <c r="H43" s="146"/>
-      <c r="I43" s="146"/>
-      <c r="J43" s="146"/>
+      <c r="B43" s="147"/>
+      <c r="C43" s="147"/>
+      <c r="D43" s="147"/>
+      <c r="E43" s="147"/>
+      <c r="F43" s="147"/>
+      <c r="G43" s="147"/>
+      <c r="H43" s="147"/>
+      <c r="I43" s="147"/>
+      <c r="J43" s="147"/>
       <c r="K43" s="23"/>
     </row>
     <row r="44" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="25"/>
-      <c r="B44" s="146"/>
-      <c r="C44" s="146"/>
-      <c r="D44" s="146"/>
-      <c r="E44" s="146"/>
-      <c r="F44" s="146"/>
-      <c r="G44" s="146"/>
-      <c r="H44" s="146"/>
-      <c r="I44" s="146"/>
-      <c r="J44" s="146"/>
+      <c r="B44" s="147"/>
+      <c r="C44" s="147"/>
+      <c r="D44" s="147"/>
+      <c r="E44" s="147"/>
+      <c r="F44" s="147"/>
+      <c r="G44" s="147"/>
+      <c r="H44" s="147"/>
+      <c r="I44" s="147"/>
+      <c r="J44" s="147"/>
       <c r="K44" s="23"/>
     </row>
     <row r="45" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="25"/>
-      <c r="B45" s="146"/>
-      <c r="C45" s="146"/>
-      <c r="D45" s="146"/>
-      <c r="E45" s="146"/>
-      <c r="F45" s="146"/>
-      <c r="G45" s="146"/>
-      <c r="H45" s="146"/>
-      <c r="I45" s="146"/>
-      <c r="J45" s="146"/>
+      <c r="B45" s="147"/>
+      <c r="C45" s="147"/>
+      <c r="D45" s="147"/>
+      <c r="E45" s="147"/>
+      <c r="F45" s="147"/>
+      <c r="G45" s="147"/>
+      <c r="H45" s="147"/>
+      <c r="I45" s="147"/>
+      <c r="J45" s="147"/>
       <c r="K45" s="23"/>
     </row>
     <row r="46" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="25"/>
-      <c r="B46" s="146"/>
-      <c r="C46" s="146"/>
-      <c r="D46" s="146"/>
-      <c r="E46" s="146"/>
-      <c r="F46" s="146"/>
-      <c r="G46" s="146"/>
-      <c r="H46" s="146"/>
-      <c r="I46" s="146"/>
-      <c r="J46" s="146"/>
+      <c r="B46" s="147"/>
+      <c r="C46" s="147"/>
+      <c r="D46" s="147"/>
+      <c r="E46" s="147"/>
+      <c r="F46" s="147"/>
+      <c r="G46" s="147"/>
+      <c r="H46" s="147"/>
+      <c r="I46" s="147"/>
+      <c r="J46" s="147"/>
       <c r="K46" s="23"/>
     </row>
     <row r="47" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="25"/>
-      <c r="B47" s="146"/>
-      <c r="C47" s="146"/>
-      <c r="D47" s="146"/>
-      <c r="E47" s="146"/>
-      <c r="F47" s="146"/>
-      <c r="G47" s="146"/>
-      <c r="H47" s="146"/>
-      <c r="I47" s="146"/>
-      <c r="J47" s="146"/>
+      <c r="B47" s="147"/>
+      <c r="C47" s="147"/>
+      <c r="D47" s="147"/>
+      <c r="E47" s="147"/>
+      <c r="F47" s="147"/>
+      <c r="G47" s="147"/>
+      <c r="H47" s="147"/>
+      <c r="I47" s="147"/>
+      <c r="J47" s="147"/>
       <c r="K47" s="23"/>
     </row>
     <row r="48" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="25"/>
-      <c r="B48" s="146"/>
-      <c r="C48" s="146"/>
-      <c r="D48" s="146"/>
-      <c r="E48" s="146"/>
-      <c r="F48" s="146"/>
-      <c r="G48" s="146"/>
-      <c r="H48" s="146"/>
-      <c r="I48" s="146"/>
-      <c r="J48" s="146"/>
+      <c r="B48" s="147"/>
+      <c r="C48" s="147"/>
+      <c r="D48" s="147"/>
+      <c r="E48" s="147"/>
+      <c r="F48" s="147"/>
+      <c r="G48" s="147"/>
+      <c r="H48" s="147"/>
+      <c r="I48" s="147"/>
+      <c r="J48" s="147"/>
       <c r="K48" s="23"/>
     </row>
     <row r="49" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="25"/>
-      <c r="B49" s="146"/>
-      <c r="C49" s="146"/>
-      <c r="D49" s="146"/>
-      <c r="E49" s="146"/>
-      <c r="F49" s="146"/>
-      <c r="G49" s="146"/>
-      <c r="H49" s="146"/>
-      <c r="I49" s="146"/>
-      <c r="J49" s="146"/>
+      <c r="B49" s="147"/>
+      <c r="C49" s="147"/>
+      <c r="D49" s="147"/>
+      <c r="E49" s="147"/>
+      <c r="F49" s="147"/>
+      <c r="G49" s="147"/>
+      <c r="H49" s="147"/>
+      <c r="I49" s="147"/>
+      <c r="J49" s="147"/>
       <c r="K49" s="23"/>
     </row>
     <row r="50" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="25"/>
-      <c r="B50" s="146"/>
-      <c r="C50" s="146"/>
-      <c r="D50" s="146"/>
-      <c r="E50" s="146"/>
-      <c r="F50" s="146"/>
-      <c r="G50" s="146"/>
-      <c r="H50" s="146"/>
-      <c r="I50" s="146"/>
-      <c r="J50" s="146"/>
+      <c r="B50" s="147"/>
+      <c r="C50" s="147"/>
+      <c r="D50" s="147"/>
+      <c r="E50" s="147"/>
+      <c r="F50" s="147"/>
+      <c r="G50" s="147"/>
+      <c r="H50" s="147"/>
+      <c r="I50" s="147"/>
+      <c r="J50" s="147"/>
       <c r="K50" s="23"/>
     </row>
     <row r="51" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="25"/>
-      <c r="B51" s="146"/>
-      <c r="C51" s="146"/>
-      <c r="D51" s="146"/>
-      <c r="E51" s="146"/>
-      <c r="F51" s="146"/>
-      <c r="G51" s="146"/>
-      <c r="H51" s="146"/>
-      <c r="I51" s="146"/>
-      <c r="J51" s="146"/>
+      <c r="B51" s="147"/>
+      <c r="C51" s="147"/>
+      <c r="D51" s="147"/>
+      <c r="E51" s="147"/>
+      <c r="F51" s="147"/>
+      <c r="G51" s="147"/>
+      <c r="H51" s="147"/>
+      <c r="I51" s="147"/>
+      <c r="J51" s="147"/>
       <c r="K51" s="23"/>
     </row>
     <row r="52" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="25"/>
-      <c r="B52" s="146"/>
-      <c r="C52" s="146"/>
-      <c r="D52" s="146"/>
-      <c r="E52" s="146"/>
-      <c r="F52" s="146"/>
-      <c r="G52" s="146"/>
-      <c r="H52" s="146"/>
-      <c r="I52" s="146"/>
-      <c r="J52" s="146"/>
+      <c r="B52" s="147"/>
+      <c r="C52" s="147"/>
+      <c r="D52" s="147"/>
+      <c r="E52" s="147"/>
+      <c r="F52" s="147"/>
+      <c r="G52" s="147"/>
+      <c r="H52" s="147"/>
+      <c r="I52" s="147"/>
+      <c r="J52" s="147"/>
       <c r="K52" s="23"/>
     </row>
     <row r="53" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="25"/>
-      <c r="B53" s="146"/>
-      <c r="C53" s="146"/>
-      <c r="D53" s="146"/>
-      <c r="E53" s="146"/>
-      <c r="F53" s="146"/>
-      <c r="G53" s="146"/>
-      <c r="H53" s="146"/>
-      <c r="I53" s="146"/>
-      <c r="J53" s="146"/>
+      <c r="B53" s="147"/>
+      <c r="C53" s="147"/>
+      <c r="D53" s="147"/>
+      <c r="E53" s="147"/>
+      <c r="F53" s="147"/>
+      <c r="G53" s="147"/>
+      <c r="H53" s="147"/>
+      <c r="I53" s="147"/>
+      <c r="J53" s="147"/>
       <c r="K53" s="23"/>
     </row>
     <row r="54" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="25"/>
-      <c r="B54" s="146"/>
-      <c r="C54" s="146"/>
-      <c r="D54" s="146"/>
-      <c r="E54" s="146"/>
-      <c r="F54" s="146"/>
-      <c r="G54" s="146"/>
-      <c r="H54" s="146"/>
-      <c r="I54" s="146"/>
-      <c r="J54" s="146"/>
+      <c r="B54" s="147"/>
+      <c r="C54" s="147"/>
+      <c r="D54" s="147"/>
+      <c r="E54" s="147"/>
+      <c r="F54" s="147"/>
+      <c r="G54" s="147"/>
+      <c r="H54" s="147"/>
+      <c r="I54" s="147"/>
+      <c r="J54" s="147"/>
       <c r="K54" s="23"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B55" s="147"/>
-      <c r="C55" s="147"/>
-      <c r="D55" s="147"/>
-      <c r="E55" s="147"/>
-      <c r="F55" s="147"/>
-      <c r="G55" s="147"/>
-      <c r="H55" s="147"/>
-      <c r="I55" s="147"/>
-      <c r="J55" s="147"/>
+      <c r="B55" s="149"/>
+      <c r="C55" s="149"/>
+      <c r="D55" s="149"/>
+      <c r="E55" s="149"/>
+      <c r="F55" s="149"/>
+      <c r="G55" s="149"/>
+      <c r="H55" s="149"/>
+      <c r="I55" s="149"/>
+      <c r="J55" s="149"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B56" s="137"/>
-      <c r="C56" s="137"/>
-      <c r="D56" s="137"/>
-      <c r="E56" s="137"/>
-      <c r="F56" s="137"/>
-      <c r="G56" s="137"/>
-      <c r="H56" s="137"/>
-      <c r="I56" s="137"/>
-      <c r="J56" s="137"/>
+      <c r="B56" s="139"/>
+      <c r="C56" s="139"/>
+      <c r="D56" s="139"/>
+      <c r="E56" s="139"/>
+      <c r="F56" s="139"/>
+      <c r="G56" s="139"/>
+      <c r="H56" s="139"/>
+      <c r="I56" s="139"/>
+      <c r="J56" s="139"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B57" s="137"/>
+      <c r="B57" s="139"/>
       <c r="C57" s="132"/>
       <c r="D57" s="132"/>
       <c r="E57" s="132"/>
@@ -10474,7 +10472,7 @@
       <c r="J57" s="132"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B58" s="137"/>
+      <c r="B58" s="139"/>
       <c r="C58" s="132"/>
       <c r="D58" s="132"/>
       <c r="E58" s="132"/>
@@ -10485,7 +10483,7 @@
       <c r="J58" s="132"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B59" s="137"/>
+      <c r="B59" s="139"/>
       <c r="C59" s="132"/>
       <c r="D59" s="132"/>
       <c r="E59" s="132"/>
@@ -10496,7 +10494,7 @@
       <c r="J59" s="132"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B60" s="137"/>
+      <c r="B60" s="139"/>
       <c r="C60" s="132"/>
       <c r="D60" s="132"/>
       <c r="E60" s="132"/>
@@ -10507,7 +10505,7 @@
       <c r="J60" s="132"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B61" s="137"/>
+      <c r="B61" s="139"/>
       <c r="C61" s="132"/>
       <c r="D61" s="132"/>
       <c r="E61" s="132"/>
@@ -10518,7 +10516,7 @@
       <c r="J61" s="132"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B62" s="137"/>
+      <c r="B62" s="139"/>
       <c r="C62" s="132"/>
       <c r="D62" s="132"/>
       <c r="E62" s="132"/>
@@ -10529,7 +10527,7 @@
       <c r="J62" s="132"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B63" s="137"/>
+      <c r="B63" s="139"/>
       <c r="C63" s="132"/>
       <c r="D63" s="132"/>
       <c r="E63" s="132"/>
@@ -10540,7 +10538,7 @@
       <c r="J63" s="132"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B64" s="137"/>
+      <c r="B64" s="139"/>
       <c r="C64" s="132"/>
       <c r="D64" s="132"/>
       <c r="E64" s="132"/>
@@ -10551,7 +10549,7 @@
       <c r="J64" s="132"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B65" s="137"/>
+      <c r="B65" s="139"/>
       <c r="C65" s="132"/>
       <c r="D65" s="132"/>
       <c r="E65" s="132"/>
@@ -10562,7 +10560,7 @@
       <c r="J65" s="132"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B66" s="137"/>
+      <c r="B66" s="139"/>
       <c r="C66" s="132"/>
       <c r="D66" s="132"/>
       <c r="E66" s="132"/>
@@ -10575,14 +10573,41 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="59">
-    <mergeCell ref="B52:J52"/>
-    <mergeCell ref="B45:J45"/>
-    <mergeCell ref="B38:J38"/>
-    <mergeCell ref="B39:J39"/>
-    <mergeCell ref="B65:J65"/>
-    <mergeCell ref="B63:J63"/>
-    <mergeCell ref="B64:J64"/>
-    <mergeCell ref="B50:J50"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="B55:J55"/>
+    <mergeCell ref="B66:J66"/>
+    <mergeCell ref="A4:L6"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="B24:J24"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="B35:J35"/>
+    <mergeCell ref="B46:J46"/>
+    <mergeCell ref="B47:J47"/>
+    <mergeCell ref="B48:J48"/>
+    <mergeCell ref="B49:J49"/>
+    <mergeCell ref="B41:J41"/>
+    <mergeCell ref="B42:J42"/>
+    <mergeCell ref="B43:J43"/>
+    <mergeCell ref="B44:J44"/>
     <mergeCell ref="B10:J10"/>
     <mergeCell ref="B59:J59"/>
     <mergeCell ref="B60:J60"/>
@@ -10599,41 +10624,14 @@
     <mergeCell ref="B33:J33"/>
     <mergeCell ref="B34:J34"/>
     <mergeCell ref="B40:J40"/>
-    <mergeCell ref="B35:J35"/>
-    <mergeCell ref="B46:J46"/>
-    <mergeCell ref="B47:J47"/>
-    <mergeCell ref="B48:J48"/>
-    <mergeCell ref="B49:J49"/>
-    <mergeCell ref="B41:J41"/>
-    <mergeCell ref="B42:J42"/>
-    <mergeCell ref="B43:J43"/>
-    <mergeCell ref="B44:J44"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="B24:J24"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="B32:J32"/>
-    <mergeCell ref="B55:J55"/>
-    <mergeCell ref="B66:J66"/>
-    <mergeCell ref="A4:L6"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="B14:J14"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="B12:J12"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="B52:J52"/>
+    <mergeCell ref="B45:J45"/>
+    <mergeCell ref="B38:J38"/>
+    <mergeCell ref="B39:J39"/>
+    <mergeCell ref="B65:J65"/>
+    <mergeCell ref="B63:J63"/>
+    <mergeCell ref="B64:J64"/>
+    <mergeCell ref="B50:J50"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.30000000000000004" right="0.2" top="0.6484375" bottom="0.53125" header="0" footer="0"/>
@@ -10663,18 +10661,18 @@
       <c r="D1" s="118"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="149" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
+      <c r="A2" s="150" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="150"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
     </row>
     <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="149"/>
-      <c r="B3" s="149"/>
-      <c r="C3" s="149"/>
-      <c r="D3" s="149"/>
+      <c r="A3" s="150"/>
+      <c r="B3" s="150"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
     </row>
     <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="76"/>
@@ -10707,11 +10705,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="150" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
+      <c r="A1" s="151" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
     </row>
     <row r="2" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="64"/>
@@ -10732,7 +10730,7 @@
   <dimension ref="A15:L68"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10760,13 +10758,10 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G17" s="130" t="s">
-        <v>104</v>
-      </c>
-      <c r="H17" s="130"/>
-      <c r="I17" s="130"/>
-      <c r="J17" s="130"/>
-      <c r="K17" s="130"/>
+      <c r="H17" s="152"/>
+      <c r="I17" s="152"/>
+      <c r="J17" s="152"/>
+      <c r="K17" s="129"/>
     </row>
     <row r="24" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="32"/>
@@ -10811,7 +10806,7 @@
     <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:11" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A31" s="37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B31" s="38"/>
       <c r="C31" s="38"/>
@@ -10823,7 +10818,7 @@
     </row>
     <row r="32" spans="1:11" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A32" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B32" s="39"/>
       <c r="C32" s="39"/>
@@ -10928,16 +10923,16 @@
       <c r="B43" s="34"/>
       <c r="C43" s="34"/>
       <c r="D43" s="45" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E43" s="45"/>
       <c r="F43" s="45"/>
-      <c r="G43" s="128"/>
-      <c r="H43" s="128"/>
-      <c r="I43" s="128"/>
-      <c r="J43" s="128"/>
-      <c r="K43" s="128"/>
-      <c r="L43" s="128"/>
+      <c r="G43" s="127"/>
+      <c r="H43" s="127"/>
+      <c r="I43" s="127"/>
+      <c r="J43" s="127"/>
+      <c r="K43" s="127"/>
+      <c r="L43" s="127"/>
     </row>
     <row r="44" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="34"/>
@@ -10958,12 +10953,12 @@
       </c>
       <c r="E45" s="47"/>
       <c r="F45" s="47"/>
-      <c r="G45" s="129"/>
-      <c r="H45" s="129"/>
-      <c r="I45" s="129"/>
-      <c r="J45" s="129"/>
-      <c r="K45" s="129"/>
-      <c r="L45" s="129"/>
+      <c r="G45" s="128"/>
+      <c r="H45" s="128"/>
+      <c r="I45" s="128"/>
+      <c r="J45" s="128"/>
+      <c r="K45" s="128"/>
+      <c r="L45" s="128"/>
     </row>
     <row r="46" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A46" s="48"/>
@@ -10975,16 +10970,16 @@
       <c r="B47" s="49"/>
       <c r="C47" s="49"/>
       <c r="D47" s="45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E47" s="45"/>
       <c r="F47" s="45"/>
-      <c r="G47" s="128"/>
-      <c r="H47" s="128"/>
-      <c r="I47" s="128"/>
-      <c r="J47" s="128"/>
-      <c r="K47" s="128"/>
-      <c r="L47" s="128"/>
+      <c r="G47" s="127"/>
+      <c r="H47" s="127"/>
+      <c r="I47" s="127"/>
+      <c r="J47" s="127"/>
+      <c r="K47" s="127"/>
+      <c r="L47" s="127"/>
     </row>
     <row r="48" spans="1:12" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A48" s="34"/>
@@ -11135,29 +11130,25 @@
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="127" t="s">
-        <v>105</v>
-      </c>
-      <c r="B68" s="127"/>
-      <c r="C68" s="127"/>
-      <c r="D68" s="127"/>
-      <c r="E68" s="127"/>
-      <c r="F68" s="127"/>
-      <c r="G68" s="127"/>
-      <c r="H68" s="127"/>
-      <c r="I68" s="127"/>
-      <c r="J68" s="127"/>
-      <c r="K68" s="127"/>
-      <c r="L68" s="127"/>
+      <c r="A68" s="130" t="s">
+        <v>104</v>
+      </c>
+      <c r="B68" s="130"/>
+      <c r="C68" s="130"/>
+      <c r="D68" s="130"/>
+      <c r="E68" s="130"/>
+      <c r="F68" s="130"/>
+      <c r="G68" s="130"/>
+      <c r="H68" s="130"/>
+      <c r="I68" s="130"/>
+      <c r="J68" s="130"/>
+      <c r="K68" s="130"/>
+      <c r="L68" s="130"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="5">
+  <mergeCells count="1">
     <mergeCell ref="A68:L68"/>
-    <mergeCell ref="G43:L43"/>
-    <mergeCell ref="G45:L45"/>
-    <mergeCell ref="G47:L47"/>
-    <mergeCell ref="G17:K17"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
@@ -11175,20 +11166,19 @@
   </sheetPr>
   <dimension ref="A2:L60"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="K55" sqref="K55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="10" width="10.28515625" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="134" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B2" s="134"/>
       <c r="C2" s="134"/>
@@ -11199,9 +11189,8 @@
       <c r="H2" s="134"/>
       <c r="I2" s="134"/>
       <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="134"/>
       <c r="B3" s="134"/>
       <c r="C3" s="134"/>
@@ -11212,7 +11201,6 @@
       <c r="H3" s="134"/>
       <c r="I3" s="134"/>
       <c r="J3" s="134"/>
-      <c r="K3" s="134"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B42" s="27"/>
@@ -11247,13 +11235,13 @@
         <v>14</v>
       </c>
       <c r="E43" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="F43" s="90" t="s">
+        <v>121</v>
+      </c>
+      <c r="G43" s="90" t="s">
         <v>128</v>
-      </c>
-      <c r="F43" s="90" t="s">
-        <v>122</v>
-      </c>
-      <c r="G43" s="90" t="s">
-        <v>129</v>
       </c>
       <c r="H43" s="90" t="s">
         <v>16</v>
@@ -11538,7 +11526,7 @@
         <v>16</v>
       </c>
       <c r="G55" s="92" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H55" s="93"/>
       <c r="I55" s="93"/>
@@ -11558,7 +11546,7 @@
     </row>
     <row r="57" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B57" s="92" t="s">
         <v>17</v>
@@ -11590,7 +11578,7 @@
     </row>
     <row r="59" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B59" s="78" t="s">
         <v>20</v>
@@ -11626,12 +11614,12 @@
     <mergeCell ref="B60:E60"/>
     <mergeCell ref="G60:J60"/>
     <mergeCell ref="D48:F48"/>
-    <mergeCell ref="A2:K3"/>
+    <mergeCell ref="A2:J3"/>
     <mergeCell ref="D50:F50"/>
     <mergeCell ref="D49:F49"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.19685039370078741" top="0.6692913385826772" bottom="0.51181102362204722" header="0" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="81" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -11643,22 +11631,19 @@
   </sheetPr>
   <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="M62" sqref="M62"/>
+    <sheetView view="pageLayout" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="11" width="7.7109375" style="10" customWidth="1"/>
-    <col min="12" max="14" width="8.85546875" style="10"/>
-    <col min="15" max="15" width="8.85546875" style="10" customWidth="1"/>
-    <col min="16" max="16" width="6.5703125" style="10" customWidth="1"/>
-    <col min="17" max="16384" width="8.85546875" style="10"/>
+    <col min="12" max="16384" width="8.85546875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="135" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B1" s="135"/>
       <c r="C1" s="135"/>
@@ -11673,10 +11658,8 @@
       <c r="L1" s="135"/>
       <c r="M1" s="135"/>
       <c r="N1" s="135"/>
-      <c r="O1" s="135"/>
-      <c r="P1" s="135"/>
-    </row>
-    <row r="2" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="135"/>
       <c r="B2" s="135"/>
       <c r="C2" s="135"/>
@@ -11691,8 +11674,6 @@
       <c r="L2" s="135"/>
       <c r="M2" s="135"/>
       <c r="N2" s="135"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="135"/>
     </row>
     <row r="42" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="101" t="s">
@@ -11708,7 +11689,7 @@
         <v>25</v>
       </c>
       <c r="E42" s="102" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F42" s="102" t="s">
         <v>26</v>
@@ -11969,7 +11950,7 @@
         <v>23</v>
       </c>
       <c r="B55" s="110" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C55" s="110"/>
       <c r="D55" s="110"/>
@@ -11990,7 +11971,6 @@
         <v>40</v>
       </c>
       <c r="N55" s="111"/>
-      <c r="O55" s="111"/>
     </row>
     <row r="56" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="112"/>
@@ -12006,7 +11986,6 @@
       <c r="L56" s="112"/>
       <c r="M56" s="113"/>
       <c r="N56" s="113"/>
-      <c r="O56" s="113"/>
     </row>
     <row r="57" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="109" t="s">
@@ -12034,7 +12013,6 @@
         <v>41</v>
       </c>
       <c r="N57" s="122"/>
-      <c r="O57" s="122"/>
     </row>
     <row r="58" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="112"/>
@@ -12050,14 +12028,13 @@
       <c r="L58" s="112"/>
       <c r="M58" s="113"/>
       <c r="N58" s="113"/>
-      <c r="O58" s="113"/>
     </row>
     <row r="59" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="109" t="s">
         <v>25</v>
       </c>
       <c r="B59" s="110" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C59" s="121"/>
       <c r="D59" s="121"/>
@@ -12067,7 +12044,7 @@
         <v>28</v>
       </c>
       <c r="H59" s="122" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I59" s="122"/>
       <c r="J59" s="122"/>
@@ -12078,12 +12055,11 @@
         <v>42</v>
       </c>
       <c r="N59" s="122"/>
-      <c r="O59" s="122"/>
     </row>
     <row r="60" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A60" s="112"/>
       <c r="B60" s="110" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C60" s="121"/>
       <c r="D60" s="121"/>
@@ -12096,7 +12072,6 @@
       <c r="L60" s="112"/>
       <c r="M60" s="113"/>
       <c r="N60" s="113"/>
-      <c r="O60" s="113"/>
     </row>
     <row r="61" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A61" s="109"/>
@@ -12120,7 +12095,6 @@
         <v>43</v>
       </c>
       <c r="N61" s="122"/>
-      <c r="O61" s="122"/>
     </row>
     <row r="62" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A62" s="109"/>
@@ -12161,10 +12135,10 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="1">
-    <mergeCell ref="A1:P2"/>
+    <mergeCell ref="A1:N2"/>
   </mergeCells>
   <pageMargins left="0.30000000000000004" right="0.2" top="0.64916666666666667" bottom="0.53187499999999999" header="0" footer="0.30000000000000004"/>
-  <pageSetup paperSize="9" scale="78" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="76" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -12176,8 +12150,8 @@
   </sheetPr>
   <dimension ref="A1:S72"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView view="pageLayout" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12207,7 +12181,7 @@
     </row>
     <row r="2" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="135" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B2" s="135"/>
       <c r="C2" s="135"/>
@@ -12259,7 +12233,7 @@
         <v>46</v>
       </c>
       <c r="E43" s="102" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F43" s="102" t="s">
         <v>48</v>
@@ -12480,7 +12454,7 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B47" s="104" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C47" s="104"/>
       <c r="D47" s="104"/>
@@ -12558,7 +12532,7 @@
         <v>49</v>
       </c>
       <c r="H64" s="110" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I64" s="110"/>
       <c r="J64" s="110"/>
@@ -12650,7 +12624,7 @@
         <v>51</v>
       </c>
       <c r="H68" s="110" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I68" s="110"/>
       <c r="J68" s="110"/>
@@ -12659,7 +12633,7 @@
         <v>56</v>
       </c>
       <c r="M68" s="110" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N68" s="110"/>
       <c r="O68" s="113"/>
@@ -12759,7 +12733,7 @@
     <mergeCell ref="A2:Q3"/>
   </mergeCells>
   <pageMargins left="0.30000000000000004" right="0.2" top="0.65083333333333337" bottom="0.53125" header="0" footer="0.30000000000000004"/>
-  <pageSetup paperSize="9" scale="66" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="67" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -12771,7 +12745,7 @@
   </sheetPr>
   <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A37" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -12800,7 +12774,7 @@
     </row>
     <row r="2" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="135" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B2" s="135"/>
       <c r="C2" s="135"/>
@@ -12844,7 +12818,7 @@
         <v>69</v>
       </c>
       <c r="C43" s="102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D43" s="102" t="s">
         <v>70</v>
@@ -13027,7 +13001,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B47" s="104" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C47" s="104"/>
       <c r="D47" s="104"/>
@@ -13285,8 +13259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView view="pageLayout" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13297,7 +13271,7 @@
     <col min="12" max="16384" width="8.85546875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="34"/>
       <c r="B1" s="34"/>
       <c r="C1" s="34"/>
@@ -13309,37 +13283,34 @@
       <c r="I1" s="34"/>
       <c r="J1" s="34"/>
       <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="138" t="s">
-        <v>149</v>
-      </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="138"/>
-      <c r="L2" s="34"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="138"/>
-      <c r="B3" s="138"/>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="138"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="34"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="136" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="136"/>
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
     </row>
     <row r="43" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="101" t="s">
@@ -13349,7 +13320,7 @@
         <v>91</v>
       </c>
       <c r="D43" s="102" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E43" s="102" t="s">
         <v>92</v>
@@ -13358,7 +13329,7 @@
         <v>93</v>
       </c>
       <c r="G43" s="102" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H43" s="102"/>
       <c r="I43" s="102"/>
@@ -13450,7 +13421,7 @@
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="104" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C47" s="104"/>
       <c r="D47" s="104"/>
@@ -13476,9 +13447,9 @@
       <c r="A49" s="108"/>
       <c r="B49" s="105"/>
       <c r="C49" s="106"/>
-      <c r="D49" s="139"/>
-      <c r="E49" s="139"/>
-      <c r="F49" s="139"/>
+      <c r="D49" s="137"/>
+      <c r="E49" s="137"/>
+      <c r="F49" s="137"/>
       <c r="G49" s="105"/>
       <c r="H49" s="106"/>
       <c r="I49" s="106"/>
@@ -13488,9 +13459,9 @@
       <c r="A50" s="106"/>
       <c r="B50" s="106"/>
       <c r="C50" s="106"/>
-      <c r="D50" s="139"/>
-      <c r="E50" s="139"/>
-      <c r="F50" s="139"/>
+      <c r="D50" s="137"/>
+      <c r="E50" s="137"/>
+      <c r="F50" s="137"/>
       <c r="G50" s="105"/>
       <c r="H50" s="106"/>
       <c r="I50" s="106"/>
@@ -13516,12 +13487,12 @@
       <c r="A56" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="B56" s="136" t="s">
+      <c r="B56" s="138" t="s">
         <v>94</v>
       </c>
-      <c r="C56" s="137"/>
-      <c r="D56" s="137"/>
-      <c r="E56" s="137"/>
+      <c r="C56" s="139"/>
+      <c r="D56" s="139"/>
+      <c r="E56" s="139"/>
       <c r="F56" s="30" t="s">
         <v>93</v>
       </c>
@@ -13546,7 +13517,7 @@
     </row>
     <row r="58" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B58" s="29" t="s">
         <v>95</v>
@@ -13555,10 +13526,10 @@
       <c r="D58" s="99"/>
       <c r="E58" s="99"/>
       <c r="F58" s="30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G58" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H58" s="99"/>
       <c r="I58" s="99"/>
@@ -13625,7 +13596,7 @@
   </sheetPr>
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A37" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageLayout" workbookViewId="0">
       <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
@@ -13652,7 +13623,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="140" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B2" s="140"/>
       <c r="C2" s="140"/>
@@ -13713,13 +13684,13 @@
         <v>14</v>
       </c>
       <c r="E43" s="96" t="s">
+        <v>127</v>
+      </c>
+      <c r="F43" s="96" t="s">
+        <v>121</v>
+      </c>
+      <c r="G43" s="96" t="s">
         <v>128</v>
-      </c>
-      <c r="F43" s="96" t="s">
-        <v>122</v>
-      </c>
-      <c r="G43" s="96" t="s">
-        <v>129</v>
       </c>
       <c r="H43" s="96" t="s">
         <v>16</v>
@@ -14004,7 +13975,7 @@
         <v>16</v>
       </c>
       <c r="G55" s="92" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H55" s="93"/>
       <c r="I55" s="93"/>
@@ -14024,7 +13995,7 @@
     </row>
     <row r="57" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B57" s="92" t="s">
         <v>17</v>
@@ -14056,7 +14027,7 @@
     </row>
     <row r="59" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B59" s="92" t="s">
         <v>20</v>
@@ -14109,7 +14080,7 @@
   </sheetPr>
   <dimension ref="A1:P64"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A37" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageLayout" workbookViewId="0">
       <selection activeCell="H53" sqref="H53:L57"/>
     </sheetView>
   </sheetViews>
@@ -14139,7 +14110,7 @@
     </row>
     <row r="2" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="140" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" s="140"/>
       <c r="C2" s="140"/>
@@ -14210,106 +14181,106 @@
       <c r="A44" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="141">
+      <c r="C44" s="143">
         <f>Dati!K2</f>
         <v>48</v>
       </c>
-      <c r="D44" s="141"/>
-      <c r="E44" s="141">
+      <c r="D44" s="143"/>
+      <c r="E44" s="143">
         <f>Dati!L2</f>
         <v>49</v>
       </c>
-      <c r="F44" s="141"/>
-      <c r="G44" s="141">
+      <c r="F44" s="143"/>
+      <c r="G44" s="143">
         <f>Dati!M2</f>
         <v>39</v>
       </c>
-      <c r="H44" s="141"/>
-      <c r="I44" s="141">
+      <c r="H44" s="143"/>
+      <c r="I44" s="143">
         <f>Dati!N2</f>
         <v>46</v>
       </c>
-      <c r="J44" s="141"/>
-      <c r="K44" s="141">
+      <c r="J44" s="143"/>
+      <c r="K44" s="143">
         <f>Dati!O2</f>
         <v>46</v>
       </c>
-      <c r="L44" s="141"/>
-      <c r="M44" s="141">
+      <c r="L44" s="143"/>
+      <c r="M44" s="143">
         <f>Dati!P2</f>
         <v>57</v>
       </c>
-      <c r="N44" s="141"/>
+      <c r="N44" s="143"/>
     </row>
     <row r="45" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C45" s="141">
+      <c r="C45" s="143">
         <f>Dati!K3</f>
         <v>65</v>
       </c>
-      <c r="D45" s="141"/>
-      <c r="E45" s="141">
+      <c r="D45" s="143"/>
+      <c r="E45" s="143">
         <f>Dati!L3</f>
         <v>75</v>
       </c>
-      <c r="F45" s="141"/>
-      <c r="G45" s="141">
+      <c r="F45" s="143"/>
+      <c r="G45" s="143">
         <f>Dati!M3</f>
         <v>54</v>
       </c>
-      <c r="H45" s="141"/>
-      <c r="I45" s="141">
+      <c r="H45" s="143"/>
+      <c r="I45" s="143">
         <f>Dati!N3</f>
         <v>88</v>
       </c>
-      <c r="J45" s="141"/>
-      <c r="K45" s="141">
+      <c r="J45" s="143"/>
+      <c r="K45" s="143">
         <f>Dati!O3</f>
         <v>94</v>
       </c>
-      <c r="L45" s="141"/>
-      <c r="M45" s="141">
+      <c r="L45" s="143"/>
+      <c r="M45" s="143">
         <f>Dati!P3</f>
         <v>44</v>
       </c>
-      <c r="N45" s="141"/>
+      <c r="N45" s="143"/>
     </row>
     <row r="46" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="141">
+      <c r="C46" s="143">
         <f>Dati!K4</f>
         <v>100</v>
       </c>
-      <c r="D46" s="141"/>
-      <c r="E46" s="141">
+      <c r="D46" s="143"/>
+      <c r="E46" s="143">
         <f>Dati!L4</f>
         <v>100</v>
       </c>
-      <c r="F46" s="141"/>
-      <c r="G46" s="141">
+      <c r="F46" s="143"/>
+      <c r="G46" s="143">
         <f>Dati!M4</f>
         <v>100</v>
       </c>
-      <c r="H46" s="141"/>
-      <c r="I46" s="141">
+      <c r="H46" s="143"/>
+      <c r="I46" s="143">
         <f>Dati!N4</f>
         <v>100</v>
       </c>
-      <c r="J46" s="141"/>
-      <c r="K46" s="141">
+      <c r="J46" s="143"/>
+      <c r="K46" s="143">
         <f>Dati!O4</f>
         <v>100</v>
       </c>
-      <c r="L46" s="141"/>
-      <c r="M46" s="141">
+      <c r="L46" s="143"/>
+      <c r="M46" s="143">
         <f>Dati!P4</f>
         <v>100</v>
       </c>
-      <c r="N46" s="141"/>
+      <c r="N46" s="143"/>
     </row>
     <row r="47" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="5"/>
@@ -14456,23 +14427,23 @@
       <c r="A57" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B57" s="151" t="s">
+      <c r="B57" s="141" t="s">
         <v>59</v>
       </c>
-      <c r="C57" s="151"/>
-      <c r="D57" s="151"/>
-      <c r="E57" s="151"/>
-      <c r="F57" s="151"/>
+      <c r="C57" s="141"/>
+      <c r="D57" s="141"/>
+      <c r="E57" s="141"/>
+      <c r="F57" s="141"/>
       <c r="G57" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="H57" s="151" t="s">
+      <c r="H57" s="141" t="s">
         <v>62</v>
       </c>
-      <c r="I57" s="151"/>
-      <c r="J57" s="151"/>
-      <c r="K57" s="151"/>
-      <c r="L57" s="151"/>
+      <c r="I57" s="141"/>
+      <c r="J57" s="141"/>
+      <c r="K57" s="141"/>
+      <c r="L57" s="141"/>
       <c r="M57" s="58"/>
       <c r="N57" s="58"/>
     </row>
@@ -14500,6 +14471,17 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="27">
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K46:L46"/>
     <mergeCell ref="A2:P3"/>
     <mergeCell ref="B57:F57"/>
     <mergeCell ref="H57:L57"/>
@@ -14516,17 +14498,6 @@
     <mergeCell ref="E45:F45"/>
     <mergeCell ref="E46:F46"/>
     <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K46:L46"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.19685039370078741" top="0.62992125984251968" bottom="0.55118110236220474" header="0" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>

--- a/public/template2.xlsx
+++ b/public/template2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="826" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="826" firstSheet="1" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Dati" sheetId="33" state="hidden" r:id="rId1"/>
@@ -7265,7 +7265,7 @@
   <mergeCells count="1">
     <mergeCell ref="A2:O4"/>
   </mergeCells>
-  <pageMargins left="0.30000000000000004" right="0.53770833333333334" top="0.6484375" bottom="0.53249999999999997" header="0" footer="0.30000000000000004"/>
+  <pageMargins left="0.30000000000000004" right="0.21197916666666666" top="0.6484375" bottom="0.53249999999999997" header="0" footer="0.30000000000000004"/>
   <pageSetup paperSize="9" scale="55" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -8212,8 +8212,8 @@
   </sheetPr>
   <dimension ref="A1:Q60"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8664,8 +8664,8 @@
     <mergeCell ref="M44:N44"/>
     <mergeCell ref="M45:N45"/>
   </mergeCells>
-  <pageMargins left="0.30000000000000004" right="0.48166666666666669" top="0.65249999999999997" bottom="0.53187499999999999" header="0" footer="0.30000000000000004"/>
-  <pageSetup paperSize="9" scale="69" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.30000000000000004" right="0.24437500000000001" top="0.65249999999999997" bottom="0.53187499999999999" header="0" footer="0.30000000000000004"/>
+  <pageSetup paperSize="9" scale="71" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -10729,7 +10729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A15:L68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>

--- a/public/template2.xlsx
+++ b/public/template2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="826" firstSheet="1" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="826" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Dati" sheetId="33" state="hidden" r:id="rId1"/>
@@ -745,7 +745,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1038,6 +1038,10 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1072,13 +1076,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1092,11 +1096,11 @@
     <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1104,7 +1108,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1299,11 +1302,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2006511040"/>
-        <c:axId val="1319273968"/>
+        <c:axId val="-1005182384"/>
+        <c:axId val="-1005189456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2006511040"/>
+        <c:axId val="-1005182384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1332,7 +1335,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1319273968"/>
+        <c:crossAx val="-1005189456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1340,7 +1343,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1319273968"/>
+        <c:axId val="-1005189456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
@@ -1359,7 +1362,7 @@
           </a:ln>
           <a:effectLst/>
         </c:spPr>
-        <c:crossAx val="1319273968"/>
+        <c:crossAx val="-1005189456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -1497,11 +1500,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2126212240"/>
-        <c:axId val="2126227472"/>
+        <c:axId val="-1006575648"/>
+        <c:axId val="-1006576192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2126212240"/>
+        <c:axId val="-1006575648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1530,7 +1533,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126227472"/>
+        <c:crossAx val="-1006576192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1538,7 +1541,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2126227472"/>
+        <c:axId val="-1006576192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
@@ -1557,7 +1560,7 @@
           </a:ln>
           <a:effectLst/>
         </c:spPr>
-        <c:crossAx val="2126227472"/>
+        <c:crossAx val="-1006576192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -1726,11 +1729,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2126221488"/>
-        <c:axId val="2126228016"/>
+        <c:axId val="-1006591424"/>
+        <c:axId val="-1006589792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2126221488"/>
+        <c:axId val="-1006591424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1759,7 +1762,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126228016"/>
+        <c:crossAx val="-1006589792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1767,7 +1770,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2126228016"/>
+        <c:axId val="-1006589792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
@@ -1786,7 +1789,7 @@
           </a:ln>
           <a:effectLst/>
         </c:spPr>
-        <c:crossAx val="2126228016"/>
+        <c:crossAx val="-1006589792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -1937,11 +1940,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2126234000"/>
-        <c:axId val="2126216592"/>
+        <c:axId val="-1006566944"/>
+        <c:axId val="-1006589248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2126234000"/>
+        <c:axId val="-1006566944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1970,7 +1973,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126216592"/>
+        <c:crossAx val="-1006589248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1978,7 +1981,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2126216592"/>
+        <c:axId val="-1006589248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
@@ -1997,7 +2000,7 @@
           </a:ln>
           <a:effectLst/>
         </c:spPr>
-        <c:crossAx val="2126216592"/>
+        <c:crossAx val="-1006589248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -2124,11 +2127,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2126235632"/>
-        <c:axId val="2126229104"/>
+        <c:axId val="-1006573472"/>
+        <c:axId val="-1006585440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2126235632"/>
+        <c:axId val="-1006573472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2157,7 +2160,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126229104"/>
+        <c:crossAx val="-1006585440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2165,7 +2168,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2126229104"/>
+        <c:axId val="-1006585440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
@@ -2184,7 +2187,7 @@
           </a:ln>
           <a:effectLst/>
         </c:spPr>
-        <c:crossAx val="2126229104"/>
+        <c:crossAx val="-1006585440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -2374,11 +2377,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2126214960"/>
-        <c:axId val="2126208976"/>
+        <c:axId val="-1005181840"/>
+        <c:axId val="-1005192720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2126214960"/>
+        <c:axId val="-1005181840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2407,7 +2410,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126208976"/>
+        <c:crossAx val="-1005192720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2415,7 +2418,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2126208976"/>
+        <c:axId val="-1005192720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
@@ -2434,7 +2437,7 @@
           </a:ln>
           <a:effectLst/>
         </c:spPr>
-        <c:crossAx val="2126208976"/>
+        <c:crossAx val="-1005192720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -2632,11 +2635,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2126219856"/>
-        <c:axId val="2126231280"/>
+        <c:axId val="-1005177488"/>
+        <c:axId val="-1470879696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2126219856"/>
+        <c:axId val="-1005177488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2665,7 +2668,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126231280"/>
+        <c:crossAx val="-1470879696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2673,7 +2676,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2126231280"/>
+        <c:axId val="-1470879696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
@@ -2692,7 +2695,7 @@
           </a:ln>
           <a:effectLst/>
         </c:spPr>
-        <c:crossAx val="2126231280"/>
+        <c:crossAx val="-1470879696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -2886,11 +2889,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2126207888"/>
-        <c:axId val="2126213872"/>
+        <c:axId val="-1470884048"/>
+        <c:axId val="-1470873712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2126207888"/>
+        <c:axId val="-1470884048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2919,7 +2922,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126213872"/>
+        <c:crossAx val="-1470873712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2927,7 +2930,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2126213872"/>
+        <c:axId val="-1470873712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
@@ -2946,7 +2949,7 @@
           </a:ln>
           <a:effectLst/>
         </c:spPr>
-        <c:crossAx val="2126213872"/>
+        <c:crossAx val="-1470873712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -3090,11 +3093,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2126223120"/>
-        <c:axId val="2126220400"/>
+        <c:axId val="-1470865008"/>
+        <c:axId val="-1470890032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2126223120"/>
+        <c:axId val="-1470865008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3123,7 +3126,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126220400"/>
+        <c:crossAx val="-1470890032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3131,7 +3134,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2126220400"/>
+        <c:axId val="-1470890032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
@@ -3150,7 +3153,7 @@
           </a:ln>
           <a:effectLst/>
         </c:spPr>
-        <c:crossAx val="2126220400"/>
+        <c:crossAx val="-1470890032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -3318,11 +3321,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2126230736"/>
-        <c:axId val="2126236176"/>
+        <c:axId val="-1470878608"/>
+        <c:axId val="-1470869904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2126230736"/>
+        <c:axId val="-1470878608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3351,7 +3354,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126236176"/>
+        <c:crossAx val="-1470869904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3359,7 +3362,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2126236176"/>
+        <c:axId val="-1470869904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
@@ -3378,7 +3381,7 @@
           </a:ln>
           <a:effectLst/>
         </c:spPr>
-        <c:crossAx val="2126236176"/>
+        <c:crossAx val="-1470869904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -3529,11 +3532,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2126235088"/>
-        <c:axId val="2126234544"/>
+        <c:axId val="-1470864464"/>
+        <c:axId val="-1470863920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2126235088"/>
+        <c:axId val="-1470864464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3562,7 +3565,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126234544"/>
+        <c:crossAx val="-1470863920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3570,7 +3573,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2126234544"/>
+        <c:axId val="-1470863920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
@@ -3589,7 +3592,7 @@
           </a:ln>
           <a:effectLst/>
         </c:spPr>
-        <c:crossAx val="2126234544"/>
+        <c:crossAx val="-1470863920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -3746,11 +3749,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2126210064"/>
-        <c:axId val="2126208432"/>
+        <c:axId val="-1470861200"/>
+        <c:axId val="-1521480576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2126210064"/>
+        <c:axId val="-1470861200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3779,7 +3782,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126208432"/>
+        <c:crossAx val="-1521480576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3787,7 +3790,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2126208432"/>
+        <c:axId val="-1521480576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
@@ -3806,7 +3809,7 @@
           </a:ln>
           <a:effectLst/>
         </c:spPr>
-        <c:crossAx val="2126208432"/>
+        <c:crossAx val="-1521480576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -3969,11 +3972,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2126211696"/>
-        <c:axId val="2126224208"/>
+        <c:axId val="-1472495776"/>
+        <c:axId val="-1472486528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2126211696"/>
+        <c:axId val="-1472495776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4002,7 +4005,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126224208"/>
+        <c:crossAx val="-1472486528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4010,7 +4013,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2126224208"/>
+        <c:axId val="-1472486528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
@@ -4029,7 +4032,7 @@
           </a:ln>
           <a:effectLst/>
         </c:spPr>
-        <c:crossAx val="2126224208"/>
+        <c:crossAx val="-1472486528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -6407,44 +6410,44 @@
       <c r="Q1" s="64"/>
     </row>
     <row r="2" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="140" t="s">
+      <c r="A2" s="142" t="s">
         <v>131</v>
       </c>
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="140"/>
-      <c r="N2" s="140"/>
-      <c r="O2" s="140"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="142"/>
+      <c r="L2" s="142"/>
+      <c r="M2" s="142"/>
+      <c r="N2" s="142"/>
+      <c r="O2" s="142"/>
+      <c r="P2" s="142"/>
+      <c r="Q2" s="142"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="140"/>
-      <c r="B3" s="140"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="140"/>
-      <c r="J3" s="140"/>
-      <c r="K3" s="140"/>
-      <c r="L3" s="140"/>
-      <c r="M3" s="140"/>
-      <c r="N3" s="140"/>
-      <c r="O3" s="140"/>
-      <c r="P3" s="140"/>
-      <c r="Q3" s="140"/>
+      <c r="A3" s="142"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="142"/>
+      <c r="O3" s="142"/>
+      <c r="P3" s="142"/>
+      <c r="Q3" s="142"/>
     </row>
     <row r="4" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6452,154 +6455,154 @@
       <c r="B42" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="142" t="s">
+      <c r="C42" s="145" t="s">
         <v>23</v>
       </c>
-      <c r="D42" s="142"/>
-      <c r="E42" s="142" t="s">
+      <c r="D42" s="145"/>
+      <c r="E42" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="F42" s="142"/>
-      <c r="G42" s="142" t="s">
+      <c r="F42" s="145"/>
+      <c r="G42" s="145" t="s">
         <v>49</v>
       </c>
-      <c r="H42" s="142"/>
-      <c r="I42" s="142" t="s">
+      <c r="H42" s="145"/>
+      <c r="I42" s="145" t="s">
         <v>50</v>
       </c>
-      <c r="J42" s="142"/>
-      <c r="K42" s="142" t="s">
+      <c r="J42" s="145"/>
+      <c r="K42" s="145" t="s">
         <v>51</v>
       </c>
-      <c r="L42" s="142"/>
-      <c r="M42" s="142" t="s">
+      <c r="L42" s="145"/>
+      <c r="M42" s="145" t="s">
         <v>52</v>
       </c>
-      <c r="N42" s="142"/>
-      <c r="O42" s="142" t="s">
+      <c r="N42" s="145"/>
+      <c r="O42" s="145" t="s">
         <v>28</v>
       </c>
-      <c r="P42" s="142"/>
+      <c r="P42" s="145"/>
     </row>
     <row r="43" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="144">
+      <c r="C43" s="146">
         <f>Dati!Q2</f>
         <v>59</v>
       </c>
-      <c r="D43" s="144"/>
-      <c r="E43" s="144">
+      <c r="D43" s="146"/>
+      <c r="E43" s="146">
         <f>Dati!R2</f>
         <v>48</v>
       </c>
-      <c r="F43" s="144"/>
-      <c r="G43" s="144">
+      <c r="F43" s="146"/>
+      <c r="G43" s="146">
         <f>Dati!S2</f>
         <v>51</v>
       </c>
-      <c r="H43" s="144"/>
-      <c r="I43" s="144">
+      <c r="H43" s="146"/>
+      <c r="I43" s="146">
         <f>Dati!T2</f>
         <v>54</v>
       </c>
-      <c r="J43" s="144"/>
-      <c r="K43" s="144">
+      <c r="J43" s="146"/>
+      <c r="K43" s="146">
         <f>Dati!U2</f>
         <v>57</v>
       </c>
-      <c r="L43" s="144"/>
-      <c r="M43" s="144">
+      <c r="L43" s="146"/>
+      <c r="M43" s="146">
         <f>Dati!V2</f>
         <v>60</v>
       </c>
-      <c r="N43" s="144"/>
-      <c r="O43" s="144">
+      <c r="N43" s="146"/>
+      <c r="O43" s="146">
         <f>Dati!W2</f>
         <v>71</v>
       </c>
-      <c r="P43" s="144"/>
+      <c r="P43" s="146"/>
     </row>
     <row r="44" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B44" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="144">
+      <c r="C44" s="146">
         <f>Dati!Q3</f>
         <v>100</v>
       </c>
-      <c r="D44" s="144"/>
-      <c r="E44" s="144">
+      <c r="D44" s="146"/>
+      <c r="E44" s="146">
         <f>Dati!R3</f>
         <v>45</v>
       </c>
-      <c r="F44" s="144"/>
-      <c r="G44" s="144">
+      <c r="F44" s="146"/>
+      <c r="G44" s="146">
         <f>Dati!S3</f>
         <v>67</v>
       </c>
-      <c r="H44" s="144"/>
-      <c r="I44" s="144">
+      <c r="H44" s="146"/>
+      <c r="I44" s="146">
         <f>Dati!T3</f>
         <v>77</v>
       </c>
-      <c r="J44" s="144"/>
-      <c r="K44" s="144">
+      <c r="J44" s="146"/>
+      <c r="K44" s="146">
         <f>Dati!U3</f>
         <v>64</v>
       </c>
-      <c r="L44" s="144"/>
-      <c r="M44" s="144">
+      <c r="L44" s="146"/>
+      <c r="M44" s="146">
         <f>Dati!V3</f>
         <v>77</v>
       </c>
-      <c r="N44" s="144"/>
-      <c r="O44" s="144">
+      <c r="N44" s="146"/>
+      <c r="O44" s="146">
         <f>Dati!W3</f>
         <v>65</v>
       </c>
-      <c r="P44" s="144"/>
+      <c r="P44" s="146"/>
     </row>
     <row r="45" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="144">
+      <c r="C45" s="146">
         <f>Dati!Q4</f>
         <v>100</v>
       </c>
-      <c r="D45" s="144"/>
-      <c r="E45" s="144">
+      <c r="D45" s="146"/>
+      <c r="E45" s="146">
         <f>Dati!R4</f>
         <v>100</v>
       </c>
-      <c r="F45" s="144"/>
-      <c r="G45" s="144">
+      <c r="F45" s="146"/>
+      <c r="G45" s="146">
         <f>Dati!S4</f>
         <v>100</v>
       </c>
-      <c r="H45" s="144"/>
-      <c r="I45" s="144">
+      <c r="H45" s="146"/>
+      <c r="I45" s="146">
         <f>Dati!T4</f>
         <v>100</v>
       </c>
-      <c r="J45" s="144"/>
-      <c r="K45" s="144">
+      <c r="J45" s="146"/>
+      <c r="K45" s="146">
         <f>Dati!U4</f>
         <v>100</v>
       </c>
-      <c r="L45" s="144"/>
-      <c r="M45" s="144">
+      <c r="L45" s="146"/>
+      <c r="M45" s="146">
         <f>Dati!V4</f>
         <v>100</v>
       </c>
-      <c r="N45" s="144"/>
-      <c r="O45" s="144">
+      <c r="N45" s="146"/>
+      <c r="O45" s="146">
         <f>Dati!W4</f>
         <v>100</v>
       </c>
-      <c r="P45" s="144"/>
+      <c r="P45" s="146"/>
     </row>
     <row r="46" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="5"/>
@@ -6773,19 +6776,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="29">
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="K42:L42"/>
     <mergeCell ref="A2:Q3"/>
     <mergeCell ref="O43:P43"/>
     <mergeCell ref="O44:P44"/>
@@ -6802,6 +6792,19 @@
     <mergeCell ref="I43:J43"/>
     <mergeCell ref="I44:J44"/>
     <mergeCell ref="I45:J45"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:L42"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.30000000000000004" right="0.54729166666666662" top="0.65249999999999997" bottom="0.53041666666666665" header="0" footer="0.30000000000000004"/>
@@ -6847,57 +6850,57 @@
       <c r="O1" s="64"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="140" t="s">
+      <c r="A2" s="142" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="140"/>
-      <c r="N2" s="140"/>
-      <c r="O2" s="140"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="142"/>
+      <c r="L2" s="142"/>
+      <c r="M2" s="142"/>
+      <c r="N2" s="142"/>
+      <c r="O2" s="142"/>
     </row>
     <row r="3" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="140"/>
-      <c r="B3" s="140"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="140"/>
-      <c r="J3" s="140"/>
-      <c r="K3" s="140"/>
-      <c r="L3" s="140"/>
-      <c r="M3" s="140"/>
-      <c r="N3" s="140"/>
-      <c r="O3" s="140"/>
+      <c r="A3" s="142"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="142"/>
+      <c r="O3" s="142"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="140"/>
-      <c r="B4" s="140"/>
-      <c r="C4" s="140"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
-      <c r="H4" s="140"/>
-      <c r="I4" s="140"/>
-      <c r="J4" s="140"/>
-      <c r="K4" s="140"/>
-      <c r="L4" s="140"/>
-      <c r="M4" s="140"/>
-      <c r="N4" s="140"/>
-      <c r="O4" s="140"/>
+      <c r="A4" s="142"/>
+      <c r="B4" s="142"/>
+      <c r="C4" s="142"/>
+      <c r="D4" s="142"/>
+      <c r="E4" s="142"/>
+      <c r="F4" s="142"/>
+      <c r="G4" s="142"/>
+      <c r="H4" s="142"/>
+      <c r="I4" s="142"/>
+      <c r="J4" s="142"/>
+      <c r="K4" s="142"/>
+      <c r="L4" s="142"/>
+      <c r="M4" s="142"/>
+      <c r="N4" s="142"/>
+      <c r="O4" s="142"/>
     </row>
     <row r="5" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7306,51 +7309,51 @@
       <c r="M1" s="64"/>
     </row>
     <row r="2" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="140" t="s">
+      <c r="A2" s="142" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="140"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="142"/>
+      <c r="L2" s="142"/>
+      <c r="M2" s="142"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="140"/>
-      <c r="B3" s="140"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="140"/>
-      <c r="J3" s="140"/>
-      <c r="K3" s="140"/>
-      <c r="L3" s="140"/>
-      <c r="M3" s="140"/>
+      <c r="A3" s="142"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="142"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="140"/>
-      <c r="B4" s="140"/>
-      <c r="C4" s="140"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
-      <c r="H4" s="140"/>
-      <c r="I4" s="140"/>
-      <c r="J4" s="140"/>
-      <c r="K4" s="140"/>
-      <c r="L4" s="140"/>
-      <c r="M4" s="140"/>
+      <c r="A4" s="142"/>
+      <c r="B4" s="142"/>
+      <c r="C4" s="142"/>
+      <c r="D4" s="142"/>
+      <c r="E4" s="142"/>
+      <c r="F4" s="142"/>
+      <c r="G4" s="142"/>
+      <c r="H4" s="142"/>
+      <c r="I4" s="142"/>
+      <c r="J4" s="142"/>
+      <c r="K4" s="142"/>
+      <c r="L4" s="142"/>
+      <c r="M4" s="142"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" s="27"/>
@@ -7375,26 +7378,26 @@
       <c r="A42" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="145" t="str">
+      <c r="C42" s="147" t="str">
         <f>Dati!AF1</f>
         <v>THD</v>
       </c>
-      <c r="D42" s="145"/>
-      <c r="E42" s="145" t="str">
+      <c r="D42" s="147"/>
+      <c r="E42" s="147" t="str">
         <f>Dati!AG1</f>
         <v>RC6</v>
       </c>
-      <c r="F42" s="145"/>
-      <c r="G42" s="145" t="str">
+      <c r="F42" s="147"/>
+      <c r="G42" s="147" t="str">
         <f>Dati!AH1</f>
         <v>RC8</v>
       </c>
-      <c r="H42" s="145"/>
-      <c r="I42" s="145" t="str">
+      <c r="H42" s="147"/>
+      <c r="I42" s="147" t="str">
         <f>Dati!AI1</f>
         <v>PSYC-r</v>
       </c>
-      <c r="J42" s="145"/>
+      <c r="J42" s="147"/>
       <c r="K42" s="67"/>
     </row>
     <row r="43" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -7537,9 +7540,9 @@
       <c r="A48" s="28"/>
       <c r="B48" s="8"/>
       <c r="C48" s="4"/>
-      <c r="D48" s="133"/>
-      <c r="E48" s="133"/>
-      <c r="F48" s="133"/>
+      <c r="D48" s="135"/>
+      <c r="E48" s="135"/>
+      <c r="F48" s="135"/>
       <c r="G48" s="8"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
@@ -7549,9 +7552,9 @@
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
-      <c r="D49" s="133"/>
-      <c r="E49" s="133"/>
-      <c r="F49" s="133"/>
+      <c r="D49" s="135"/>
+      <c r="E49" s="135"/>
+      <c r="F49" s="135"/>
       <c r="G49" s="8"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
@@ -7603,10 +7606,10 @@
     </row>
     <row r="52" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
-      <c r="B52" s="131"/>
-      <c r="C52" s="132"/>
-      <c r="D52" s="132"/>
-      <c r="E52" s="132"/>
+      <c r="B52" s="133"/>
+      <c r="C52" s="134"/>
+      <c r="D52" s="134"/>
+      <c r="E52" s="134"/>
     </row>
     <row r="55" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="56" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7695,13 +7698,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="20">
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="C42:D42"/>
     <mergeCell ref="A2:M4"/>
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="C45:D45"/>
@@ -7715,6 +7711,13 @@
     <mergeCell ref="G45:H45"/>
     <mergeCell ref="E45:F45"/>
     <mergeCell ref="C44:D44"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="C42:D42"/>
   </mergeCells>
   <pageMargins left="0.30000000000000004" right="0.5625" top="0.65" bottom="0.53125" header="0" footer="0.30000000000000004"/>
   <pageSetup paperSize="9" scale="71" orientation="portrait" r:id="rId1"/>
@@ -7756,48 +7759,48 @@
       <c r="L1" s="64"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="140" t="s">
+      <c r="A2" s="142" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-      <c r="L2" s="140"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="142"/>
+      <c r="L2" s="142"/>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="140"/>
-      <c r="B3" s="140"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="140"/>
-      <c r="J3" s="140"/>
-      <c r="K3" s="140"/>
-      <c r="L3" s="140"/>
+      <c r="A3" s="142"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="140"/>
-      <c r="B4" s="140"/>
-      <c r="C4" s="140"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
-      <c r="H4" s="140"/>
-      <c r="I4" s="140"/>
-      <c r="J4" s="140"/>
-      <c r="K4" s="140"/>
-      <c r="L4" s="140"/>
+      <c r="A4" s="142"/>
+      <c r="B4" s="142"/>
+      <c r="C4" s="142"/>
+      <c r="D4" s="142"/>
+      <c r="E4" s="142"/>
+      <c r="F4" s="142"/>
+      <c r="G4" s="142"/>
+      <c r="H4" s="142"/>
+      <c r="I4" s="142"/>
+      <c r="J4" s="142"/>
+      <c r="K4" s="142"/>
+      <c r="L4" s="142"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" s="27"/>
@@ -8048,9 +8051,9 @@
       <c r="A49" s="28"/>
       <c r="B49" s="8"/>
       <c r="C49" s="4"/>
-      <c r="D49" s="133"/>
-      <c r="E49" s="133"/>
-      <c r="F49" s="133"/>
+      <c r="D49" s="135"/>
+      <c r="E49" s="135"/>
+      <c r="F49" s="135"/>
       <c r="G49" s="8"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
@@ -8212,7 +8215,7 @@
   </sheetPr>
   <dimension ref="A1:Q60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
@@ -8243,98 +8246,98 @@
       <c r="Q1" s="64"/>
     </row>
     <row r="2" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="140" t="s">
+      <c r="A2" s="142" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="140"/>
-      <c r="N2" s="140"/>
-      <c r="O2" s="140"/>
-      <c r="P2" s="140"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="142"/>
+      <c r="L2" s="142"/>
+      <c r="M2" s="142"/>
+      <c r="N2" s="142"/>
+      <c r="O2" s="142"/>
+      <c r="P2" s="142"/>
       <c r="Q2" s="64"/>
     </row>
     <row r="3" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="140"/>
-      <c r="B3" s="140"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="140"/>
-      <c r="J3" s="140"/>
-      <c r="K3" s="140"/>
-      <c r="L3" s="140"/>
-      <c r="M3" s="140"/>
-      <c r="N3" s="140"/>
-      <c r="O3" s="140"/>
-      <c r="P3" s="140"/>
+      <c r="A3" s="142"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="142"/>
+      <c r="O3" s="142"/>
+      <c r="P3" s="142"/>
       <c r="Q3" s="64"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="140"/>
-      <c r="B4" s="140"/>
-      <c r="C4" s="140"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
-      <c r="H4" s="140"/>
-      <c r="I4" s="140"/>
-      <c r="J4" s="140"/>
-      <c r="K4" s="140"/>
-      <c r="L4" s="140"/>
-      <c r="M4" s="140"/>
-      <c r="N4" s="140"/>
-      <c r="O4" s="140"/>
-      <c r="P4" s="140"/>
+      <c r="A4" s="142"/>
+      <c r="B4" s="142"/>
+      <c r="C4" s="142"/>
+      <c r="D4" s="142"/>
+      <c r="E4" s="142"/>
+      <c r="F4" s="142"/>
+      <c r="G4" s="142"/>
+      <c r="H4" s="142"/>
+      <c r="I4" s="142"/>
+      <c r="J4" s="142"/>
+      <c r="K4" s="142"/>
+      <c r="L4" s="142"/>
+      <c r="M4" s="142"/>
+      <c r="N4" s="142"/>
+      <c r="O4" s="142"/>
+      <c r="P4" s="142"/>
       <c r="Q4" s="64"/>
     </row>
     <row r="43" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C43" s="145" t="str">
+      <c r="C43" s="147" t="str">
         <f>Dati!AS1</f>
         <v>FML</v>
       </c>
-      <c r="D43" s="145"/>
-      <c r="E43" s="145" t="str">
+      <c r="D43" s="147"/>
+      <c r="E43" s="147" t="str">
         <f>Dati!AT1</f>
         <v>RC3</v>
       </c>
-      <c r="F43" s="145"/>
-      <c r="G43" s="145" t="str">
+      <c r="F43" s="147"/>
+      <c r="G43" s="147" t="str">
         <f>Dati!AU1</f>
         <v>IPP</v>
       </c>
-      <c r="H43" s="145"/>
-      <c r="I43" s="145" t="str">
+      <c r="H43" s="147"/>
+      <c r="I43" s="147" t="str">
         <f>Dati!AV1</f>
         <v>SAV</v>
       </c>
-      <c r="J43" s="145"/>
-      <c r="K43" s="145" t="str">
+      <c r="J43" s="147"/>
+      <c r="K43" s="147" t="str">
         <f>Dati!AW1</f>
         <v>SHY</v>
       </c>
-      <c r="L43" s="145"/>
-      <c r="M43" s="145" t="str">
+      <c r="L43" s="147"/>
+      <c r="M43" s="147" t="str">
         <f>Dati!AX1</f>
         <v>DSF</v>
       </c>
-      <c r="N43" s="145"/>
+      <c r="N43" s="147"/>
     </row>
     <row r="44" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="61" t="s">
@@ -8508,23 +8511,23 @@
       <c r="A54" s="126" t="s">
         <v>72</v>
       </c>
-      <c r="B54" s="131" t="s">
+      <c r="B54" s="133" t="s">
         <v>86</v>
       </c>
-      <c r="C54" s="131"/>
-      <c r="D54" s="131"/>
-      <c r="E54" s="131"/>
-      <c r="F54" s="131"/>
+      <c r="C54" s="133"/>
+      <c r="D54" s="133"/>
+      <c r="E54" s="133"/>
+      <c r="F54" s="133"/>
       <c r="G54" s="126" t="s">
         <v>74</v>
       </c>
-      <c r="H54" s="131" t="s">
+      <c r="H54" s="133" t="s">
         <v>88</v>
       </c>
-      <c r="I54" s="131"/>
-      <c r="J54" s="131"/>
-      <c r="K54" s="131"/>
-      <c r="L54" s="131"/>
+      <c r="I54" s="133"/>
+      <c r="J54" s="133"/>
+      <c r="K54" s="133"/>
+      <c r="L54" s="133"/>
       <c r="M54" s="119"/>
       <c r="N54" s="119"/>
       <c r="O54" s="4"/>
@@ -8550,23 +8553,23 @@
       <c r="A56" s="126" t="s">
         <v>29</v>
       </c>
-      <c r="B56" s="131" t="s">
+      <c r="B56" s="133" t="s">
         <v>38</v>
       </c>
-      <c r="C56" s="131"/>
-      <c r="D56" s="131"/>
-      <c r="E56" s="131"/>
-      <c r="F56" s="131"/>
+      <c r="C56" s="133"/>
+      <c r="D56" s="133"/>
+      <c r="E56" s="133"/>
+      <c r="F56" s="133"/>
       <c r="G56" s="126" t="s">
         <v>75</v>
       </c>
-      <c r="H56" s="131" t="s">
+      <c r="H56" s="133" t="s">
         <v>89</v>
       </c>
-      <c r="I56" s="131"/>
-      <c r="J56" s="131"/>
-      <c r="K56" s="131"/>
-      <c r="L56" s="131"/>
+      <c r="I56" s="133"/>
+      <c r="J56" s="133"/>
+      <c r="K56" s="133"/>
+      <c r="L56" s="133"/>
       <c r="M56" s="119"/>
       <c r="N56" s="119"/>
       <c r="O56" s="4"/>
@@ -8592,23 +8595,23 @@
       <c r="A58" s="126" t="s">
         <v>73</v>
       </c>
-      <c r="B58" s="141" t="s">
+      <c r="B58" s="144" t="s">
         <v>87</v>
       </c>
-      <c r="C58" s="141"/>
-      <c r="D58" s="141"/>
-      <c r="E58" s="141"/>
-      <c r="F58" s="141"/>
+      <c r="C58" s="144"/>
+      <c r="D58" s="144"/>
+      <c r="E58" s="144"/>
+      <c r="F58" s="144"/>
       <c r="G58" s="126" t="s">
         <v>76</v>
       </c>
-      <c r="H58" s="131" t="s">
+      <c r="H58" s="133" t="s">
         <v>90</v>
       </c>
-      <c r="I58" s="131"/>
-      <c r="J58" s="131"/>
-      <c r="K58" s="131"/>
-      <c r="L58" s="131"/>
+      <c r="I58" s="133"/>
+      <c r="J58" s="133"/>
+      <c r="K58" s="133"/>
+      <c r="L58" s="133"/>
       <c r="M58" s="119"/>
       <c r="N58" s="119"/>
       <c r="O58" s="4"/>
@@ -8632,6 +8635,21 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="31">
+    <mergeCell ref="A2:P4"/>
+    <mergeCell ref="B56:F56"/>
+    <mergeCell ref="H54:L54"/>
+    <mergeCell ref="H56:L56"/>
+    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M45:N45"/>
     <mergeCell ref="H58:L58"/>
     <mergeCell ref="B58:F58"/>
     <mergeCell ref="M46:N46"/>
@@ -8648,21 +8666,6 @@
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="E44:F44"/>
     <mergeCell ref="C45:D45"/>
-    <mergeCell ref="A2:P4"/>
-    <mergeCell ref="B56:F56"/>
-    <mergeCell ref="H54:L54"/>
-    <mergeCell ref="H56:L56"/>
-    <mergeCell ref="B54:F54"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M45:N45"/>
   </mergeCells>
   <pageMargins left="0.30000000000000004" right="0.24437500000000001" top="0.65249999999999997" bottom="0.53187499999999999" header="0" footer="0.30000000000000004"/>
   <pageSetup paperSize="9" scale="71" orientation="portrait" r:id="rId1"/>
@@ -8720,34 +8723,34 @@
       <c r="M2" s="64"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="134" t="s">
+      <c r="A3" s="136" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="134"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="134"/>
-      <c r="K3" s="134"/>
-      <c r="L3" s="134"/>
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="134"/>
-      <c r="B4" s="134"/>
-      <c r="C4" s="134"/>
-      <c r="D4" s="134"/>
-      <c r="E4" s="134"/>
-      <c r="F4" s="134"/>
-      <c r="G4" s="134"/>
-      <c r="H4" s="134"/>
-      <c r="I4" s="134"/>
-      <c r="J4" s="134"/>
-      <c r="K4" s="134"/>
-      <c r="L4" s="134"/>
+      <c r="A4" s="136"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="136"/>
+      <c r="K4" s="136"/>
+      <c r="L4" s="136"/>
     </row>
     <row r="42" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8773,21 +8776,21 @@
       <c r="A44" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B44" s="145" t="str">
+      <c r="B44" s="147" t="str">
         <f>Dati!AY1</f>
         <v>AES</v>
       </c>
-      <c r="C44" s="145"/>
-      <c r="D44" s="145"/>
-      <c r="E44" s="145"/>
-      <c r="F44" s="145"/>
-      <c r="G44" s="145" t="str">
+      <c r="C44" s="147"/>
+      <c r="D44" s="147"/>
+      <c r="E44" s="147"/>
+      <c r="F44" s="147"/>
+      <c r="G44" s="147" t="str">
         <f>Dati!AZ1</f>
         <v>MEC</v>
       </c>
-      <c r="H44" s="145"/>
-      <c r="I44" s="145"/>
-      <c r="J44" s="145"/>
+      <c r="H44" s="147"/>
+      <c r="I44" s="147"/>
+      <c r="J44" s="147"/>
       <c r="K44" s="67"/>
     </row>
     <row r="45" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -9009,21 +9012,21 @@
       <c r="A58" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B58" s="131" t="s">
+      <c r="B58" s="133" t="s">
         <v>81</v>
       </c>
-      <c r="C58" s="131"/>
-      <c r="D58" s="131"/>
-      <c r="E58" s="131"/>
+      <c r="C58" s="133"/>
+      <c r="D58" s="133"/>
+      <c r="E58" s="133"/>
       <c r="F58" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G58" s="131" t="s">
+      <c r="G58" s="133" t="s">
         <v>82</v>
       </c>
-      <c r="H58" s="131"/>
-      <c r="I58" s="131"/>
-      <c r="J58" s="131"/>
+      <c r="H58" s="133"/>
+      <c r="I58" s="133"/>
+      <c r="J58" s="133"/>
       <c r="K58" s="63"/>
     </row>
     <row r="59" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -9052,15 +9055,15 @@
     </row>
     <row r="61" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3"/>
-      <c r="B61" s="131"/>
-      <c r="C61" s="132"/>
-      <c r="D61" s="132"/>
-      <c r="E61" s="132"/>
+      <c r="B61" s="133"/>
+      <c r="C61" s="134"/>
+      <c r="D61" s="134"/>
+      <c r="E61" s="134"/>
       <c r="F61" s="3"/>
-      <c r="G61" s="131"/>
-      <c r="H61" s="132"/>
-      <c r="I61" s="132"/>
-      <c r="J61" s="132"/>
+      <c r="G61" s="133"/>
+      <c r="H61" s="134"/>
+      <c r="I61" s="134"/>
+      <c r="J61" s="134"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -9126,87 +9129,87 @@
       <c r="Y1" s="34"/>
     </row>
     <row r="2" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="146" t="s">
+      <c r="A2" s="148" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
-      <c r="L2" s="146"/>
-      <c r="M2" s="146"/>
-      <c r="N2" s="146"/>
-      <c r="O2" s="146"/>
-      <c r="P2" s="146"/>
-      <c r="Q2" s="146"/>
-      <c r="R2" s="146"/>
-      <c r="S2" s="146"/>
-      <c r="T2" s="146"/>
-      <c r="U2" s="146"/>
-      <c r="V2" s="146"/>
-      <c r="W2" s="146"/>
-      <c r="X2" s="146"/>
-      <c r="Y2" s="146"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="148"/>
+      <c r="O2" s="148"/>
+      <c r="P2" s="148"/>
+      <c r="Q2" s="148"/>
+      <c r="R2" s="148"/>
+      <c r="S2" s="148"/>
+      <c r="T2" s="148"/>
+      <c r="U2" s="148"/>
+      <c r="V2" s="148"/>
+      <c r="W2" s="148"/>
+      <c r="X2" s="148"/>
+      <c r="Y2" s="148"/>
     </row>
     <row r="3" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="146"/>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
-      <c r="J3" s="146"/>
-      <c r="K3" s="146"/>
-      <c r="L3" s="146"/>
-      <c r="M3" s="146"/>
-      <c r="N3" s="146"/>
-      <c r="O3" s="146"/>
-      <c r="P3" s="146"/>
-      <c r="Q3" s="146"/>
-      <c r="R3" s="146"/>
-      <c r="S3" s="146"/>
-      <c r="T3" s="146"/>
-      <c r="U3" s="146"/>
-      <c r="V3" s="146"/>
-      <c r="W3" s="146"/>
-      <c r="X3" s="146"/>
-      <c r="Y3" s="146"/>
+      <c r="A3" s="148"/>
+      <c r="B3" s="148"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="148"/>
+      <c r="O3" s="148"/>
+      <c r="P3" s="148"/>
+      <c r="Q3" s="148"/>
+      <c r="R3" s="148"/>
+      <c r="S3" s="148"/>
+      <c r="T3" s="148"/>
+      <c r="U3" s="148"/>
+      <c r="V3" s="148"/>
+      <c r="W3" s="148"/>
+      <c r="X3" s="148"/>
+      <c r="Y3" s="148"/>
     </row>
     <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="146"/>
-      <c r="B4" s="146"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146"/>
-      <c r="L4" s="146"/>
-      <c r="M4" s="146"/>
-      <c r="N4" s="146"/>
-      <c r="O4" s="146"/>
-      <c r="P4" s="146"/>
-      <c r="Q4" s="146"/>
-      <c r="R4" s="146"/>
-      <c r="S4" s="146"/>
-      <c r="T4" s="146"/>
-      <c r="U4" s="146"/>
-      <c r="V4" s="146"/>
-      <c r="W4" s="146"/>
-      <c r="X4" s="146"/>
-      <c r="Y4" s="146"/>
+      <c r="A4" s="148"/>
+      <c r="B4" s="148"/>
+      <c r="C4" s="148"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
+      <c r="G4" s="148"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="148"/>
+      <c r="J4" s="148"/>
+      <c r="K4" s="148"/>
+      <c r="L4" s="148"/>
+      <c r="M4" s="148"/>
+      <c r="N4" s="148"/>
+      <c r="O4" s="148"/>
+      <c r="P4" s="148"/>
+      <c r="Q4" s="148"/>
+      <c r="R4" s="148"/>
+      <c r="S4" s="148"/>
+      <c r="T4" s="148"/>
+      <c r="U4" s="148"/>
+      <c r="V4" s="148"/>
+      <c r="W4" s="148"/>
+      <c r="X4" s="148"/>
+      <c r="Y4" s="148"/>
     </row>
     <row r="5" spans="1:25" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="73"/>
@@ -9791,59 +9794,59 @@
       <c r="L1" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="146" t="s">
+      <c r="A4" s="148" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="146"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146"/>
-      <c r="L4" s="146"/>
+      <c r="B4" s="148"/>
+      <c r="C4" s="148"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
+      <c r="G4" s="148"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="148"/>
+      <c r="J4" s="148"/>
+      <c r="K4" s="148"/>
+      <c r="L4" s="148"/>
     </row>
     <row r="5" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="146"/>
-      <c r="B5" s="146"/>
-      <c r="C5" s="146"/>
-      <c r="D5" s="146"/>
-      <c r="E5" s="146"/>
-      <c r="F5" s="146"/>
-      <c r="G5" s="146"/>
-      <c r="H5" s="146"/>
-      <c r="I5" s="146"/>
-      <c r="J5" s="146"/>
-      <c r="K5" s="146"/>
-      <c r="L5" s="146"/>
+      <c r="A5" s="148"/>
+      <c r="B5" s="148"/>
+      <c r="C5" s="148"/>
+      <c r="D5" s="148"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
+      <c r="H5" s="148"/>
+      <c r="I5" s="148"/>
+      <c r="J5" s="148"/>
+      <c r="K5" s="148"/>
+      <c r="L5" s="148"/>
     </row>
     <row r="6" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="146"/>
-      <c r="B6" s="146"/>
-      <c r="C6" s="146"/>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="146"/>
-      <c r="K6" s="146"/>
-      <c r="L6" s="146"/>
+      <c r="A6" s="148"/>
+      <c r="B6" s="148"/>
+      <c r="C6" s="148"/>
+      <c r="D6" s="148"/>
+      <c r="E6" s="148"/>
+      <c r="F6" s="148"/>
+      <c r="G6" s="148"/>
+      <c r="H6" s="148"/>
+      <c r="I6" s="148"/>
+      <c r="J6" s="148"/>
+      <c r="K6" s="148"/>
+      <c r="L6" s="148"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
-      <c r="B8" s="147"/>
-      <c r="C8" s="147"/>
-      <c r="D8" s="147"/>
-      <c r="E8" s="147"/>
-      <c r="F8" s="147"/>
-      <c r="G8" s="147"/>
-      <c r="H8" s="147"/>
-      <c r="I8" s="147"/>
+      <c r="B8" s="149"/>
+      <c r="C8" s="149"/>
+      <c r="D8" s="149"/>
+      <c r="E8" s="149"/>
+      <c r="F8" s="149"/>
+      <c r="G8" s="149"/>
+      <c r="H8" s="149"/>
+      <c r="I8" s="149"/>
       <c r="J8" s="72"/>
       <c r="K8" s="23"/>
     </row>
@@ -9853,726 +9856,769 @@
     </row>
     <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
-      <c r="B10" s="148" t="s">
+      <c r="B10" s="151" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="147"/>
-      <c r="D10" s="147"/>
-      <c r="E10" s="147"/>
-      <c r="F10" s="147"/>
-      <c r="G10" s="147"/>
-      <c r="H10" s="147"/>
-      <c r="I10" s="147"/>
-      <c r="J10" s="147"/>
+      <c r="C10" s="149"/>
+      <c r="D10" s="149"/>
+      <c r="E10" s="149"/>
+      <c r="F10" s="149"/>
+      <c r="G10" s="149"/>
+      <c r="H10" s="149"/>
+      <c r="I10" s="149"/>
+      <c r="J10" s="149"/>
       <c r="K10" s="23"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="25"/>
-      <c r="B11" s="147"/>
-      <c r="C11" s="147"/>
-      <c r="D11" s="147"/>
-      <c r="E11" s="147"/>
-      <c r="F11" s="147"/>
-      <c r="G11" s="147"/>
-      <c r="H11" s="147"/>
-      <c r="I11" s="147"/>
-      <c r="J11" s="147"/>
+      <c r="B11" s="149"/>
+      <c r="C11" s="149"/>
+      <c r="D11" s="149"/>
+      <c r="E11" s="149"/>
+      <c r="F11" s="149"/>
+      <c r="G11" s="149"/>
+      <c r="H11" s="149"/>
+      <c r="I11" s="149"/>
+      <c r="J11" s="149"/>
       <c r="K11" s="23"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="25"/>
-      <c r="B12" s="147"/>
-      <c r="C12" s="147"/>
-      <c r="D12" s="147"/>
-      <c r="E12" s="147"/>
-      <c r="F12" s="147"/>
-      <c r="G12" s="147"/>
-      <c r="H12" s="147"/>
-      <c r="I12" s="147"/>
-      <c r="J12" s="147"/>
+      <c r="B12" s="149"/>
+      <c r="C12" s="149"/>
+      <c r="D12" s="149"/>
+      <c r="E12" s="149"/>
+      <c r="F12" s="149"/>
+      <c r="G12" s="149"/>
+      <c r="H12" s="149"/>
+      <c r="I12" s="149"/>
+      <c r="J12" s="149"/>
       <c r="K12" s="23"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
-      <c r="B13" s="147"/>
-      <c r="C13" s="147"/>
-      <c r="D13" s="147"/>
-      <c r="E13" s="147"/>
-      <c r="F13" s="147"/>
-      <c r="G13" s="147"/>
-      <c r="H13" s="147"/>
-      <c r="I13" s="147"/>
-      <c r="J13" s="147"/>
+      <c r="B13" s="149"/>
+      <c r="C13" s="149"/>
+      <c r="D13" s="149"/>
+      <c r="E13" s="149"/>
+      <c r="F13" s="149"/>
+      <c r="G13" s="149"/>
+      <c r="H13" s="149"/>
+      <c r="I13" s="149"/>
+      <c r="J13" s="149"/>
       <c r="K13" s="23"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
-      <c r="B14" s="147"/>
-      <c r="C14" s="147"/>
-      <c r="D14" s="147"/>
-      <c r="E14" s="147"/>
-      <c r="F14" s="147"/>
-      <c r="G14" s="147"/>
-      <c r="H14" s="147"/>
-      <c r="I14" s="147"/>
-      <c r="J14" s="147"/>
+      <c r="B14" s="149"/>
+      <c r="C14" s="149"/>
+      <c r="D14" s="149"/>
+      <c r="E14" s="149"/>
+      <c r="F14" s="149"/>
+      <c r="G14" s="149"/>
+      <c r="H14" s="149"/>
+      <c r="I14" s="149"/>
+      <c r="J14" s="149"/>
       <c r="K14" s="23"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="25"/>
-      <c r="B15" s="147"/>
-      <c r="C15" s="147"/>
-      <c r="D15" s="147"/>
-      <c r="E15" s="147"/>
-      <c r="F15" s="147"/>
-      <c r="G15" s="147"/>
-      <c r="H15" s="147"/>
-      <c r="I15" s="147"/>
-      <c r="J15" s="147"/>
+      <c r="B15" s="149"/>
+      <c r="C15" s="149"/>
+      <c r="D15" s="149"/>
+      <c r="E15" s="149"/>
+      <c r="F15" s="149"/>
+      <c r="G15" s="149"/>
+      <c r="H15" s="149"/>
+      <c r="I15" s="149"/>
+      <c r="J15" s="149"/>
       <c r="K15" s="23"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="25"/>
-      <c r="B16" s="147"/>
-      <c r="C16" s="147"/>
-      <c r="D16" s="147"/>
-      <c r="E16" s="147"/>
-      <c r="F16" s="147"/>
-      <c r="G16" s="147"/>
-      <c r="H16" s="147"/>
-      <c r="I16" s="147"/>
-      <c r="J16" s="147"/>
+      <c r="B16" s="149"/>
+      <c r="C16" s="149"/>
+      <c r="D16" s="149"/>
+      <c r="E16" s="149"/>
+      <c r="F16" s="149"/>
+      <c r="G16" s="149"/>
+      <c r="H16" s="149"/>
+      <c r="I16" s="149"/>
+      <c r="J16" s="149"/>
       <c r="K16" s="23"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="25"/>
-      <c r="B17" s="147"/>
-      <c r="C17" s="147"/>
-      <c r="D17" s="147"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="147"/>
-      <c r="G17" s="147"/>
-      <c r="H17" s="147"/>
-      <c r="I17" s="147"/>
-      <c r="J17" s="147"/>
+      <c r="B17" s="149"/>
+      <c r="C17" s="149"/>
+      <c r="D17" s="149"/>
+      <c r="E17" s="149"/>
+      <c r="F17" s="149"/>
+      <c r="G17" s="149"/>
+      <c r="H17" s="149"/>
+      <c r="I17" s="149"/>
+      <c r="J17" s="149"/>
       <c r="K17" s="23"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="26"/>
-      <c r="B18" s="147"/>
-      <c r="C18" s="147"/>
-      <c r="D18" s="147"/>
-      <c r="E18" s="147"/>
-      <c r="F18" s="147"/>
-      <c r="G18" s="147"/>
-      <c r="H18" s="147"/>
-      <c r="I18" s="147"/>
-      <c r="J18" s="147"/>
+      <c r="B18" s="149"/>
+      <c r="C18" s="149"/>
+      <c r="D18" s="149"/>
+      <c r="E18" s="149"/>
+      <c r="F18" s="149"/>
+      <c r="G18" s="149"/>
+      <c r="H18" s="149"/>
+      <c r="I18" s="149"/>
+      <c r="J18" s="149"/>
       <c r="K18" s="24"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="26"/>
-      <c r="B19" s="147"/>
-      <c r="C19" s="147"/>
-      <c r="D19" s="147"/>
-      <c r="E19" s="147"/>
-      <c r="F19" s="147"/>
-      <c r="G19" s="147"/>
-      <c r="H19" s="147"/>
-      <c r="I19" s="147"/>
-      <c r="J19" s="147"/>
+      <c r="B19" s="149"/>
+      <c r="C19" s="149"/>
+      <c r="D19" s="149"/>
+      <c r="E19" s="149"/>
+      <c r="F19" s="149"/>
+      <c r="G19" s="149"/>
+      <c r="H19" s="149"/>
+      <c r="I19" s="149"/>
+      <c r="J19" s="149"/>
       <c r="K19" s="24"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="26"/>
-      <c r="B20" s="147"/>
-      <c r="C20" s="147"/>
-      <c r="D20" s="147"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="147"/>
+      <c r="B20" s="149"/>
+      <c r="C20" s="149"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="149"/>
+      <c r="F20" s="149"/>
+      <c r="G20" s="149"/>
+      <c r="H20" s="149"/>
+      <c r="I20" s="149"/>
+      <c r="J20" s="149"/>
       <c r="K20" s="24"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="25"/>
-      <c r="B21" s="147"/>
-      <c r="C21" s="147"/>
-      <c r="D21" s="147"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="147"/>
+      <c r="B21" s="149"/>
+      <c r="C21" s="149"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="149"/>
+      <c r="F21" s="149"/>
+      <c r="G21" s="149"/>
+      <c r="H21" s="149"/>
+      <c r="I21" s="149"/>
+      <c r="J21" s="149"/>
       <c r="K21" s="23"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="25"/>
-      <c r="B22" s="147"/>
-      <c r="C22" s="147"/>
-      <c r="D22" s="147"/>
-      <c r="E22" s="147"/>
-      <c r="F22" s="147"/>
-      <c r="G22" s="147"/>
-      <c r="H22" s="147"/>
-      <c r="I22" s="147"/>
-      <c r="J22" s="147"/>
+      <c r="B22" s="149"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="149"/>
+      <c r="E22" s="149"/>
+      <c r="F22" s="149"/>
+      <c r="G22" s="149"/>
+      <c r="H22" s="149"/>
+      <c r="I22" s="149"/>
+      <c r="J22" s="149"/>
       <c r="K22" s="23"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
-      <c r="B23" s="147"/>
-      <c r="C23" s="147"/>
-      <c r="D23" s="147"/>
-      <c r="E23" s="147"/>
-      <c r="F23" s="147"/>
-      <c r="G23" s="147"/>
-      <c r="H23" s="147"/>
-      <c r="I23" s="147"/>
-      <c r="J23" s="147"/>
+      <c r="B23" s="149"/>
+      <c r="C23" s="149"/>
+      <c r="D23" s="149"/>
+      <c r="E23" s="149"/>
+      <c r="F23" s="149"/>
+      <c r="G23" s="149"/>
+      <c r="H23" s="149"/>
+      <c r="I23" s="149"/>
+      <c r="J23" s="149"/>
       <c r="K23" s="23"/>
     </row>
     <row r="24" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25"/>
-      <c r="B24" s="147"/>
-      <c r="C24" s="147"/>
-      <c r="D24" s="147"/>
-      <c r="E24" s="147"/>
-      <c r="F24" s="147"/>
-      <c r="G24" s="147"/>
-      <c r="H24" s="147"/>
-      <c r="I24" s="147"/>
-      <c r="J24" s="147"/>
+      <c r="B24" s="149"/>
+      <c r="C24" s="149"/>
+      <c r="D24" s="149"/>
+      <c r="E24" s="149"/>
+      <c r="F24" s="149"/>
+      <c r="G24" s="149"/>
+      <c r="H24" s="149"/>
+      <c r="I24" s="149"/>
+      <c r="J24" s="149"/>
       <c r="K24" s="23"/>
     </row>
     <row r="25" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25"/>
-      <c r="B25" s="147"/>
-      <c r="C25" s="147"/>
-      <c r="D25" s="147"/>
-      <c r="E25" s="147"/>
-      <c r="F25" s="147"/>
-      <c r="G25" s="147"/>
-      <c r="H25" s="147"/>
-      <c r="I25" s="147"/>
-      <c r="J25" s="147"/>
+      <c r="B25" s="149"/>
+      <c r="C25" s="149"/>
+      <c r="D25" s="149"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="149"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="149"/>
+      <c r="J25" s="149"/>
       <c r="K25" s="23"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="25"/>
-      <c r="B26" s="147"/>
-      <c r="C26" s="147"/>
-      <c r="D26" s="147"/>
-      <c r="E26" s="147"/>
-      <c r="F26" s="147"/>
-      <c r="G26" s="147"/>
-      <c r="H26" s="147"/>
-      <c r="I26" s="147"/>
-      <c r="J26" s="147"/>
+      <c r="B26" s="149"/>
+      <c r="C26" s="149"/>
+      <c r="D26" s="149"/>
+      <c r="E26" s="149"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="149"/>
       <c r="K26" s="23"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="25"/>
-      <c r="B27" s="147"/>
-      <c r="C27" s="147"/>
-      <c r="D27" s="147"/>
-      <c r="E27" s="147"/>
-      <c r="F27" s="147"/>
-      <c r="G27" s="147"/>
-      <c r="H27" s="147"/>
-      <c r="I27" s="147"/>
-      <c r="J27" s="147"/>
+      <c r="B27" s="149"/>
+      <c r="C27" s="149"/>
+      <c r="D27" s="149"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="149"/>
       <c r="K27" s="23"/>
     </row>
     <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="25"/>
-      <c r="B28" s="147"/>
-      <c r="C28" s="147"/>
-      <c r="D28" s="147"/>
-      <c r="E28" s="147"/>
-      <c r="F28" s="147"/>
-      <c r="G28" s="147"/>
-      <c r="H28" s="147"/>
-      <c r="I28" s="147"/>
-      <c r="J28" s="147"/>
+      <c r="B28" s="149"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="149"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="149"/>
+      <c r="J28" s="149"/>
       <c r="K28" s="23"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="25"/>
-      <c r="B29" s="147"/>
-      <c r="C29" s="147"/>
-      <c r="D29" s="147"/>
-      <c r="E29" s="147"/>
-      <c r="F29" s="147"/>
-      <c r="G29" s="147"/>
-      <c r="H29" s="147"/>
-      <c r="I29" s="147"/>
-      <c r="J29" s="147"/>
+      <c r="B29" s="149"/>
+      <c r="C29" s="149"/>
+      <c r="D29" s="149"/>
+      <c r="E29" s="149"/>
+      <c r="F29" s="149"/>
+      <c r="G29" s="149"/>
+      <c r="H29" s="149"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="149"/>
       <c r="K29" s="23"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="25"/>
-      <c r="B30" s="147"/>
-      <c r="C30" s="147"/>
-      <c r="D30" s="147"/>
-      <c r="E30" s="147"/>
-      <c r="F30" s="147"/>
-      <c r="G30" s="147"/>
-      <c r="H30" s="147"/>
-      <c r="I30" s="147"/>
-      <c r="J30" s="147"/>
+      <c r="B30" s="149"/>
+      <c r="C30" s="149"/>
+      <c r="D30" s="149"/>
+      <c r="E30" s="149"/>
+      <c r="F30" s="149"/>
+      <c r="G30" s="149"/>
+      <c r="H30" s="149"/>
+      <c r="I30" s="149"/>
+      <c r="J30" s="149"/>
       <c r="K30" s="23"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="25"/>
-      <c r="B31" s="147"/>
-      <c r="C31" s="147"/>
-      <c r="D31" s="147"/>
-      <c r="E31" s="147"/>
-      <c r="F31" s="147"/>
-      <c r="G31" s="147"/>
-      <c r="H31" s="147"/>
-      <c r="I31" s="147"/>
-      <c r="J31" s="147"/>
+      <c r="B31" s="149"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="149"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="149"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="149"/>
+      <c r="J31" s="149"/>
       <c r="K31" s="23"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="25"/>
-      <c r="B32" s="147"/>
-      <c r="C32" s="147"/>
-      <c r="D32" s="147"/>
-      <c r="E32" s="147"/>
-      <c r="F32" s="147"/>
-      <c r="G32" s="147"/>
-      <c r="H32" s="147"/>
-      <c r="I32" s="147"/>
-      <c r="J32" s="147"/>
+      <c r="B32" s="149"/>
+      <c r="C32" s="149"/>
+      <c r="D32" s="149"/>
+      <c r="E32" s="149"/>
+      <c r="F32" s="149"/>
+      <c r="G32" s="149"/>
+      <c r="H32" s="149"/>
+      <c r="I32" s="149"/>
+      <c r="J32" s="149"/>
       <c r="K32" s="23"/>
     </row>
     <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="25"/>
-      <c r="B33" s="147"/>
-      <c r="C33" s="147"/>
-      <c r="D33" s="147"/>
-      <c r="E33" s="147"/>
-      <c r="F33" s="147"/>
-      <c r="G33" s="147"/>
-      <c r="H33" s="147"/>
-      <c r="I33" s="147"/>
-      <c r="J33" s="147"/>
+      <c r="B33" s="149"/>
+      <c r="C33" s="149"/>
+      <c r="D33" s="149"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="149"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="149"/>
       <c r="K33" s="23"/>
     </row>
     <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="25"/>
-      <c r="B34" s="147"/>
-      <c r="C34" s="147"/>
-      <c r="D34" s="147"/>
-      <c r="E34" s="147"/>
-      <c r="F34" s="147"/>
-      <c r="G34" s="147"/>
-      <c r="H34" s="147"/>
-      <c r="I34" s="147"/>
-      <c r="J34" s="147"/>
+      <c r="B34" s="149"/>
+      <c r="C34" s="149"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
       <c r="K34" s="23"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="25"/>
-      <c r="B35" s="147"/>
-      <c r="C35" s="147"/>
-      <c r="D35" s="147"/>
-      <c r="E35" s="147"/>
-      <c r="F35" s="147"/>
-      <c r="G35" s="147"/>
-      <c r="H35" s="147"/>
-      <c r="I35" s="147"/>
-      <c r="J35" s="147"/>
+      <c r="B35" s="149"/>
+      <c r="C35" s="149"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
       <c r="K35" s="23"/>
     </row>
     <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="25"/>
-      <c r="B36" s="147"/>
-      <c r="C36" s="147"/>
-      <c r="D36" s="147"/>
-      <c r="E36" s="147"/>
-      <c r="F36" s="147"/>
-      <c r="G36" s="147"/>
-      <c r="H36" s="147"/>
-      <c r="I36" s="147"/>
-      <c r="J36" s="147"/>
+      <c r="B36" s="149"/>
+      <c r="C36" s="149"/>
+      <c r="D36" s="149"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="149"/>
       <c r="K36" s="23"/>
     </row>
     <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="25"/>
-      <c r="B37" s="147"/>
-      <c r="C37" s="147"/>
-      <c r="D37" s="147"/>
-      <c r="E37" s="147"/>
-      <c r="F37" s="147"/>
-      <c r="G37" s="147"/>
-      <c r="H37" s="147"/>
-      <c r="I37" s="147"/>
-      <c r="J37" s="147"/>
+      <c r="B37" s="149"/>
+      <c r="C37" s="149"/>
+      <c r="D37" s="149"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="149"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="149"/>
       <c r="K37" s="23"/>
     </row>
     <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="25"/>
-      <c r="B38" s="147"/>
-      <c r="C38" s="147"/>
-      <c r="D38" s="147"/>
-      <c r="E38" s="147"/>
-      <c r="F38" s="147"/>
-      <c r="G38" s="147"/>
-      <c r="H38" s="147"/>
-      <c r="I38" s="147"/>
-      <c r="J38" s="147"/>
+      <c r="B38" s="149"/>
+      <c r="C38" s="149"/>
+      <c r="D38" s="149"/>
+      <c r="E38" s="149"/>
+      <c r="F38" s="149"/>
+      <c r="G38" s="149"/>
+      <c r="H38" s="149"/>
+      <c r="I38" s="149"/>
+      <c r="J38" s="149"/>
       <c r="K38" s="23"/>
     </row>
     <row r="39" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="25"/>
-      <c r="B39" s="147"/>
-      <c r="C39" s="147"/>
-      <c r="D39" s="147"/>
-      <c r="E39" s="147"/>
-      <c r="F39" s="147"/>
-      <c r="G39" s="147"/>
-      <c r="H39" s="147"/>
-      <c r="I39" s="147"/>
-      <c r="J39" s="147"/>
+      <c r="B39" s="149"/>
+      <c r="C39" s="149"/>
+      <c r="D39" s="149"/>
+      <c r="E39" s="149"/>
+      <c r="F39" s="149"/>
+      <c r="G39" s="149"/>
+      <c r="H39" s="149"/>
+      <c r="I39" s="149"/>
+      <c r="J39" s="149"/>
       <c r="K39" s="23"/>
     </row>
     <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="25"/>
-      <c r="B40" s="147"/>
-      <c r="C40" s="147"/>
-      <c r="D40" s="147"/>
-      <c r="E40" s="147"/>
-      <c r="F40" s="147"/>
-      <c r="G40" s="147"/>
-      <c r="H40" s="147"/>
-      <c r="I40" s="147"/>
-      <c r="J40" s="147"/>
+      <c r="B40" s="149"/>
+      <c r="C40" s="149"/>
+      <c r="D40" s="149"/>
+      <c r="E40" s="149"/>
+      <c r="F40" s="149"/>
+      <c r="G40" s="149"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="149"/>
+      <c r="J40" s="149"/>
       <c r="K40" s="23"/>
     </row>
     <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="25"/>
-      <c r="B41" s="147"/>
-      <c r="C41" s="147"/>
-      <c r="D41" s="147"/>
-      <c r="E41" s="147"/>
-      <c r="F41" s="147"/>
-      <c r="G41" s="147"/>
-      <c r="H41" s="147"/>
-      <c r="I41" s="147"/>
-      <c r="J41" s="147"/>
+      <c r="B41" s="149"/>
+      <c r="C41" s="149"/>
+      <c r="D41" s="149"/>
+      <c r="E41" s="149"/>
+      <c r="F41" s="149"/>
+      <c r="G41" s="149"/>
+      <c r="H41" s="149"/>
+      <c r="I41" s="149"/>
+      <c r="J41" s="149"/>
       <c r="K41" s="23"/>
     </row>
     <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="25"/>
-      <c r="B42" s="147"/>
-      <c r="C42" s="147"/>
-      <c r="D42" s="147"/>
-      <c r="E42" s="147"/>
-      <c r="F42" s="147"/>
-      <c r="G42" s="147"/>
-      <c r="H42" s="147"/>
-      <c r="I42" s="147"/>
-      <c r="J42" s="147"/>
+      <c r="B42" s="149"/>
+      <c r="C42" s="149"/>
+      <c r="D42" s="149"/>
+      <c r="E42" s="149"/>
+      <c r="F42" s="149"/>
+      <c r="G42" s="149"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="149"/>
+      <c r="J42" s="149"/>
       <c r="K42" s="23"/>
     </row>
     <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="25"/>
-      <c r="B43" s="147"/>
-      <c r="C43" s="147"/>
-      <c r="D43" s="147"/>
-      <c r="E43" s="147"/>
-      <c r="F43" s="147"/>
-      <c r="G43" s="147"/>
-      <c r="H43" s="147"/>
-      <c r="I43" s="147"/>
-      <c r="J43" s="147"/>
+      <c r="B43" s="149"/>
+      <c r="C43" s="149"/>
+      <c r="D43" s="149"/>
+      <c r="E43" s="149"/>
+      <c r="F43" s="149"/>
+      <c r="G43" s="149"/>
+      <c r="H43" s="149"/>
+      <c r="I43" s="149"/>
+      <c r="J43" s="149"/>
       <c r="K43" s="23"/>
     </row>
     <row r="44" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="25"/>
-      <c r="B44" s="147"/>
-      <c r="C44" s="147"/>
-      <c r="D44" s="147"/>
-      <c r="E44" s="147"/>
-      <c r="F44" s="147"/>
-      <c r="G44" s="147"/>
-      <c r="H44" s="147"/>
-      <c r="I44" s="147"/>
-      <c r="J44" s="147"/>
+      <c r="B44" s="149"/>
+      <c r="C44" s="149"/>
+      <c r="D44" s="149"/>
+      <c r="E44" s="149"/>
+      <c r="F44" s="149"/>
+      <c r="G44" s="149"/>
+      <c r="H44" s="149"/>
+      <c r="I44" s="149"/>
+      <c r="J44" s="149"/>
       <c r="K44" s="23"/>
     </row>
     <row r="45" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="25"/>
-      <c r="B45" s="147"/>
-      <c r="C45" s="147"/>
-      <c r="D45" s="147"/>
-      <c r="E45" s="147"/>
-      <c r="F45" s="147"/>
-      <c r="G45" s="147"/>
-      <c r="H45" s="147"/>
-      <c r="I45" s="147"/>
-      <c r="J45" s="147"/>
+      <c r="B45" s="149"/>
+      <c r="C45" s="149"/>
+      <c r="D45" s="149"/>
+      <c r="E45" s="149"/>
+      <c r="F45" s="149"/>
+      <c r="G45" s="149"/>
+      <c r="H45" s="149"/>
+      <c r="I45" s="149"/>
+      <c r="J45" s="149"/>
       <c r="K45" s="23"/>
     </row>
     <row r="46" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="25"/>
-      <c r="B46" s="147"/>
-      <c r="C46" s="147"/>
-      <c r="D46" s="147"/>
-      <c r="E46" s="147"/>
-      <c r="F46" s="147"/>
-      <c r="G46" s="147"/>
-      <c r="H46" s="147"/>
-      <c r="I46" s="147"/>
-      <c r="J46" s="147"/>
+      <c r="B46" s="149"/>
+      <c r="C46" s="149"/>
+      <c r="D46" s="149"/>
+      <c r="E46" s="149"/>
+      <c r="F46" s="149"/>
+      <c r="G46" s="149"/>
+      <c r="H46" s="149"/>
+      <c r="I46" s="149"/>
+      <c r="J46" s="149"/>
       <c r="K46" s="23"/>
     </row>
     <row r="47" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="25"/>
-      <c r="B47" s="147"/>
-      <c r="C47" s="147"/>
-      <c r="D47" s="147"/>
-      <c r="E47" s="147"/>
-      <c r="F47" s="147"/>
-      <c r="G47" s="147"/>
-      <c r="H47" s="147"/>
-      <c r="I47" s="147"/>
-      <c r="J47" s="147"/>
+      <c r="B47" s="149"/>
+      <c r="C47" s="149"/>
+      <c r="D47" s="149"/>
+      <c r="E47" s="149"/>
+      <c r="F47" s="149"/>
+      <c r="G47" s="149"/>
+      <c r="H47" s="149"/>
+      <c r="I47" s="149"/>
+      <c r="J47" s="149"/>
       <c r="K47" s="23"/>
     </row>
     <row r="48" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="25"/>
-      <c r="B48" s="147"/>
-      <c r="C48" s="147"/>
-      <c r="D48" s="147"/>
-      <c r="E48" s="147"/>
-      <c r="F48" s="147"/>
-      <c r="G48" s="147"/>
-      <c r="H48" s="147"/>
-      <c r="I48" s="147"/>
-      <c r="J48" s="147"/>
+      <c r="B48" s="149"/>
+      <c r="C48" s="149"/>
+      <c r="D48" s="149"/>
+      <c r="E48" s="149"/>
+      <c r="F48" s="149"/>
+      <c r="G48" s="149"/>
+      <c r="H48" s="149"/>
+      <c r="I48" s="149"/>
+      <c r="J48" s="149"/>
       <c r="K48" s="23"/>
     </row>
     <row r="49" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="25"/>
-      <c r="B49" s="147"/>
-      <c r="C49" s="147"/>
-      <c r="D49" s="147"/>
-      <c r="E49" s="147"/>
-      <c r="F49" s="147"/>
-      <c r="G49" s="147"/>
-      <c r="H49" s="147"/>
-      <c r="I49" s="147"/>
-      <c r="J49" s="147"/>
+      <c r="B49" s="149"/>
+      <c r="C49" s="149"/>
+      <c r="D49" s="149"/>
+      <c r="E49" s="149"/>
+      <c r="F49" s="149"/>
+      <c r="G49" s="149"/>
+      <c r="H49" s="149"/>
+      <c r="I49" s="149"/>
+      <c r="J49" s="149"/>
       <c r="K49" s="23"/>
     </row>
     <row r="50" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="25"/>
-      <c r="B50" s="147"/>
-      <c r="C50" s="147"/>
-      <c r="D50" s="147"/>
-      <c r="E50" s="147"/>
-      <c r="F50" s="147"/>
-      <c r="G50" s="147"/>
-      <c r="H50" s="147"/>
-      <c r="I50" s="147"/>
-      <c r="J50" s="147"/>
+      <c r="B50" s="149"/>
+      <c r="C50" s="149"/>
+      <c r="D50" s="149"/>
+      <c r="E50" s="149"/>
+      <c r="F50" s="149"/>
+      <c r="G50" s="149"/>
+      <c r="H50" s="149"/>
+      <c r="I50" s="149"/>
+      <c r="J50" s="149"/>
       <c r="K50" s="23"/>
     </row>
     <row r="51" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="25"/>
-      <c r="B51" s="147"/>
-      <c r="C51" s="147"/>
-      <c r="D51" s="147"/>
-      <c r="E51" s="147"/>
-      <c r="F51" s="147"/>
-      <c r="G51" s="147"/>
-      <c r="H51" s="147"/>
-      <c r="I51" s="147"/>
-      <c r="J51" s="147"/>
+      <c r="B51" s="149"/>
+      <c r="C51" s="149"/>
+      <c r="D51" s="149"/>
+      <c r="E51" s="149"/>
+      <c r="F51" s="149"/>
+      <c r="G51" s="149"/>
+      <c r="H51" s="149"/>
+      <c r="I51" s="149"/>
+      <c r="J51" s="149"/>
       <c r="K51" s="23"/>
     </row>
     <row r="52" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="25"/>
-      <c r="B52" s="147"/>
-      <c r="C52" s="147"/>
-      <c r="D52" s="147"/>
-      <c r="E52" s="147"/>
-      <c r="F52" s="147"/>
-      <c r="G52" s="147"/>
-      <c r="H52" s="147"/>
-      <c r="I52" s="147"/>
-      <c r="J52" s="147"/>
+      <c r="B52" s="149"/>
+      <c r="C52" s="149"/>
+      <c r="D52" s="149"/>
+      <c r="E52" s="149"/>
+      <c r="F52" s="149"/>
+      <c r="G52" s="149"/>
+      <c r="H52" s="149"/>
+      <c r="I52" s="149"/>
+      <c r="J52" s="149"/>
       <c r="K52" s="23"/>
     </row>
     <row r="53" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="25"/>
-      <c r="B53" s="147"/>
-      <c r="C53" s="147"/>
-      <c r="D53" s="147"/>
-      <c r="E53" s="147"/>
-      <c r="F53" s="147"/>
-      <c r="G53" s="147"/>
-      <c r="H53" s="147"/>
-      <c r="I53" s="147"/>
-      <c r="J53" s="147"/>
+      <c r="B53" s="149"/>
+      <c r="C53" s="149"/>
+      <c r="D53" s="149"/>
+      <c r="E53" s="149"/>
+      <c r="F53" s="149"/>
+      <c r="G53" s="149"/>
+      <c r="H53" s="149"/>
+      <c r="I53" s="149"/>
+      <c r="J53" s="149"/>
       <c r="K53" s="23"/>
     </row>
     <row r="54" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="25"/>
-      <c r="B54" s="147"/>
-      <c r="C54" s="147"/>
-      <c r="D54" s="147"/>
-      <c r="E54" s="147"/>
-      <c r="F54" s="147"/>
-      <c r="G54" s="147"/>
-      <c r="H54" s="147"/>
-      <c r="I54" s="147"/>
-      <c r="J54" s="147"/>
+      <c r="B54" s="149"/>
+      <c r="C54" s="149"/>
+      <c r="D54" s="149"/>
+      <c r="E54" s="149"/>
+      <c r="F54" s="149"/>
+      <c r="G54" s="149"/>
+      <c r="H54" s="149"/>
+      <c r="I54" s="149"/>
+      <c r="J54" s="149"/>
       <c r="K54" s="23"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B55" s="149"/>
-      <c r="C55" s="149"/>
-      <c r="D55" s="149"/>
-      <c r="E55" s="149"/>
-      <c r="F55" s="149"/>
-      <c r="G55" s="149"/>
-      <c r="H55" s="149"/>
-      <c r="I55" s="149"/>
-      <c r="J55" s="149"/>
+      <c r="B55" s="150"/>
+      <c r="C55" s="150"/>
+      <c r="D55" s="150"/>
+      <c r="E55" s="150"/>
+      <c r="F55" s="150"/>
+      <c r="G55" s="150"/>
+      <c r="H55" s="150"/>
+      <c r="I55" s="150"/>
+      <c r="J55" s="150"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B56" s="139"/>
-      <c r="C56" s="139"/>
-      <c r="D56" s="139"/>
-      <c r="E56" s="139"/>
-      <c r="F56" s="139"/>
-      <c r="G56" s="139"/>
-      <c r="H56" s="139"/>
-      <c r="I56" s="139"/>
-      <c r="J56" s="139"/>
+      <c r="B56" s="141"/>
+      <c r="C56" s="141"/>
+      <c r="D56" s="141"/>
+      <c r="E56" s="141"/>
+      <c r="F56" s="141"/>
+      <c r="G56" s="141"/>
+      <c r="H56" s="141"/>
+      <c r="I56" s="141"/>
+      <c r="J56" s="141"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B57" s="139"/>
-      <c r="C57" s="132"/>
-      <c r="D57" s="132"/>
-      <c r="E57" s="132"/>
-      <c r="F57" s="132"/>
-      <c r="G57" s="132"/>
-      <c r="H57" s="132"/>
-      <c r="I57" s="132"/>
-      <c r="J57" s="132"/>
+      <c r="B57" s="141"/>
+      <c r="C57" s="134"/>
+      <c r="D57" s="134"/>
+      <c r="E57" s="134"/>
+      <c r="F57" s="134"/>
+      <c r="G57" s="134"/>
+      <c r="H57" s="134"/>
+      <c r="I57" s="134"/>
+      <c r="J57" s="134"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B58" s="139"/>
-      <c r="C58" s="132"/>
-      <c r="D58" s="132"/>
-      <c r="E58" s="132"/>
-      <c r="F58" s="132"/>
-      <c r="G58" s="132"/>
-      <c r="H58" s="132"/>
-      <c r="I58" s="132"/>
-      <c r="J58" s="132"/>
+      <c r="B58" s="141"/>
+      <c r="C58" s="134"/>
+      <c r="D58" s="134"/>
+      <c r="E58" s="134"/>
+      <c r="F58" s="134"/>
+      <c r="G58" s="134"/>
+      <c r="H58" s="134"/>
+      <c r="I58" s="134"/>
+      <c r="J58" s="134"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B59" s="139"/>
-      <c r="C59" s="132"/>
-      <c r="D59" s="132"/>
-      <c r="E59" s="132"/>
-      <c r="F59" s="132"/>
-      <c r="G59" s="132"/>
-      <c r="H59" s="132"/>
-      <c r="I59" s="132"/>
-      <c r="J59" s="132"/>
+      <c r="B59" s="141"/>
+      <c r="C59" s="134"/>
+      <c r="D59" s="134"/>
+      <c r="E59" s="134"/>
+      <c r="F59" s="134"/>
+      <c r="G59" s="134"/>
+      <c r="H59" s="134"/>
+      <c r="I59" s="134"/>
+      <c r="J59" s="134"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B60" s="139"/>
-      <c r="C60" s="132"/>
-      <c r="D60" s="132"/>
-      <c r="E60" s="132"/>
-      <c r="F60" s="132"/>
-      <c r="G60" s="132"/>
-      <c r="H60" s="132"/>
-      <c r="I60" s="132"/>
-      <c r="J60" s="132"/>
+      <c r="B60" s="141"/>
+      <c r="C60" s="134"/>
+      <c r="D60" s="134"/>
+      <c r="E60" s="134"/>
+      <c r="F60" s="134"/>
+      <c r="G60" s="134"/>
+      <c r="H60" s="134"/>
+      <c r="I60" s="134"/>
+      <c r="J60" s="134"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B61" s="139"/>
-      <c r="C61" s="132"/>
-      <c r="D61" s="132"/>
-      <c r="E61" s="132"/>
-      <c r="F61" s="132"/>
-      <c r="G61" s="132"/>
-      <c r="H61" s="132"/>
-      <c r="I61" s="132"/>
-      <c r="J61" s="132"/>
+      <c r="B61" s="141"/>
+      <c r="C61" s="134"/>
+      <c r="D61" s="134"/>
+      <c r="E61" s="134"/>
+      <c r="F61" s="134"/>
+      <c r="G61" s="134"/>
+      <c r="H61" s="134"/>
+      <c r="I61" s="134"/>
+      <c r="J61" s="134"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B62" s="139"/>
-      <c r="C62" s="132"/>
-      <c r="D62" s="132"/>
-      <c r="E62" s="132"/>
-      <c r="F62" s="132"/>
-      <c r="G62" s="132"/>
-      <c r="H62" s="132"/>
-      <c r="I62" s="132"/>
-      <c r="J62" s="132"/>
+      <c r="B62" s="141"/>
+      <c r="C62" s="134"/>
+      <c r="D62" s="134"/>
+      <c r="E62" s="134"/>
+      <c r="F62" s="134"/>
+      <c r="G62" s="134"/>
+      <c r="H62" s="134"/>
+      <c r="I62" s="134"/>
+      <c r="J62" s="134"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B63" s="139"/>
-      <c r="C63" s="132"/>
-      <c r="D63" s="132"/>
-      <c r="E63" s="132"/>
-      <c r="F63" s="132"/>
-      <c r="G63" s="132"/>
-      <c r="H63" s="132"/>
-      <c r="I63" s="132"/>
-      <c r="J63" s="132"/>
+      <c r="B63" s="141"/>
+      <c r="C63" s="134"/>
+      <c r="D63" s="134"/>
+      <c r="E63" s="134"/>
+      <c r="F63" s="134"/>
+      <c r="G63" s="134"/>
+      <c r="H63" s="134"/>
+      <c r="I63" s="134"/>
+      <c r="J63" s="134"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B64" s="139"/>
-      <c r="C64" s="132"/>
-      <c r="D64" s="132"/>
-      <c r="E64" s="132"/>
-      <c r="F64" s="132"/>
-      <c r="G64" s="132"/>
-      <c r="H64" s="132"/>
-      <c r="I64" s="132"/>
-      <c r="J64" s="132"/>
+      <c r="B64" s="141"/>
+      <c r="C64" s="134"/>
+      <c r="D64" s="134"/>
+      <c r="E64" s="134"/>
+      <c r="F64" s="134"/>
+      <c r="G64" s="134"/>
+      <c r="H64" s="134"/>
+      <c r="I64" s="134"/>
+      <c r="J64" s="134"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B65" s="139"/>
-      <c r="C65" s="132"/>
-      <c r="D65" s="132"/>
-      <c r="E65" s="132"/>
-      <c r="F65" s="132"/>
-      <c r="G65" s="132"/>
-      <c r="H65" s="132"/>
-      <c r="I65" s="132"/>
-      <c r="J65" s="132"/>
+      <c r="B65" s="141"/>
+      <c r="C65" s="134"/>
+      <c r="D65" s="134"/>
+      <c r="E65" s="134"/>
+      <c r="F65" s="134"/>
+      <c r="G65" s="134"/>
+      <c r="H65" s="134"/>
+      <c r="I65" s="134"/>
+      <c r="J65" s="134"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B66" s="139"/>
-      <c r="C66" s="132"/>
-      <c r="D66" s="132"/>
-      <c r="E66" s="132"/>
-      <c r="F66" s="132"/>
-      <c r="G66" s="132"/>
-      <c r="H66" s="132"/>
-      <c r="I66" s="132"/>
-      <c r="J66" s="132"/>
+      <c r="B66" s="141"/>
+      <c r="C66" s="134"/>
+      <c r="D66" s="134"/>
+      <c r="E66" s="134"/>
+      <c r="F66" s="134"/>
+      <c r="G66" s="134"/>
+      <c r="H66" s="134"/>
+      <c r="I66" s="134"/>
+      <c r="J66" s="134"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="59">
+    <mergeCell ref="B52:J52"/>
+    <mergeCell ref="B45:J45"/>
+    <mergeCell ref="B38:J38"/>
+    <mergeCell ref="B39:J39"/>
+    <mergeCell ref="B65:J65"/>
+    <mergeCell ref="B63:J63"/>
+    <mergeCell ref="B64:J64"/>
+    <mergeCell ref="B50:J50"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="B59:J59"/>
+    <mergeCell ref="B60:J60"/>
+    <mergeCell ref="B61:J61"/>
+    <mergeCell ref="B62:J62"/>
+    <mergeCell ref="B53:J53"/>
+    <mergeCell ref="B54:J54"/>
+    <mergeCell ref="B56:J56"/>
+    <mergeCell ref="B57:J57"/>
+    <mergeCell ref="B58:J58"/>
+    <mergeCell ref="B51:J51"/>
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="B33:J33"/>
+    <mergeCell ref="B34:J34"/>
+    <mergeCell ref="B40:J40"/>
+    <mergeCell ref="B35:J35"/>
+    <mergeCell ref="B46:J46"/>
+    <mergeCell ref="B47:J47"/>
+    <mergeCell ref="B48:J48"/>
+    <mergeCell ref="B49:J49"/>
+    <mergeCell ref="B41:J41"/>
+    <mergeCell ref="B42:J42"/>
+    <mergeCell ref="B43:J43"/>
+    <mergeCell ref="B44:J44"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="B24:J24"/>
     <mergeCell ref="B25:J25"/>
     <mergeCell ref="B32:J32"/>
     <mergeCell ref="B55:J55"/>
@@ -10589,49 +10635,6 @@
     <mergeCell ref="B12:J12"/>
     <mergeCell ref="B13:J13"/>
     <mergeCell ref="B26:J26"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="B24:J24"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="B35:J35"/>
-    <mergeCell ref="B46:J46"/>
-    <mergeCell ref="B47:J47"/>
-    <mergeCell ref="B48:J48"/>
-    <mergeCell ref="B49:J49"/>
-    <mergeCell ref="B41:J41"/>
-    <mergeCell ref="B42:J42"/>
-    <mergeCell ref="B43:J43"/>
-    <mergeCell ref="B44:J44"/>
-    <mergeCell ref="B10:J10"/>
-    <mergeCell ref="B59:J59"/>
-    <mergeCell ref="B60:J60"/>
-    <mergeCell ref="B61:J61"/>
-    <mergeCell ref="B62:J62"/>
-    <mergeCell ref="B53:J53"/>
-    <mergeCell ref="B54:J54"/>
-    <mergeCell ref="B56:J56"/>
-    <mergeCell ref="B57:J57"/>
-    <mergeCell ref="B58:J58"/>
-    <mergeCell ref="B51:J51"/>
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="B33:J33"/>
-    <mergeCell ref="B34:J34"/>
-    <mergeCell ref="B40:J40"/>
-    <mergeCell ref="B52:J52"/>
-    <mergeCell ref="B45:J45"/>
-    <mergeCell ref="B38:J38"/>
-    <mergeCell ref="B39:J39"/>
-    <mergeCell ref="B65:J65"/>
-    <mergeCell ref="B63:J63"/>
-    <mergeCell ref="B64:J64"/>
-    <mergeCell ref="B50:J50"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.30000000000000004" right="0.2" top="0.6484375" bottom="0.53125" header="0" footer="0"/>
@@ -10661,18 +10664,18 @@
       <c r="D1" s="118"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="152" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
     </row>
     <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="150"/>
-      <c r="B3" s="150"/>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
+      <c r="A3" s="152"/>
+      <c r="B3" s="152"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
     </row>
     <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="76"/>
@@ -10705,11 +10708,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="153" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
     </row>
     <row r="2" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="64"/>
@@ -10758,9 +10761,9 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H17" s="152"/>
-      <c r="I17" s="152"/>
-      <c r="J17" s="152"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="131"/>
+      <c r="J17" s="131"/>
       <c r="K17" s="129"/>
     </row>
     <row r="24" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11130,20 +11133,20 @@
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="130" t="s">
+      <c r="A68" s="132" t="s">
         <v>104</v>
       </c>
-      <c r="B68" s="130"/>
-      <c r="C68" s="130"/>
-      <c r="D68" s="130"/>
-      <c r="E68" s="130"/>
-      <c r="F68" s="130"/>
-      <c r="G68" s="130"/>
-      <c r="H68" s="130"/>
-      <c r="I68" s="130"/>
-      <c r="J68" s="130"/>
-      <c r="K68" s="130"/>
-      <c r="L68" s="130"/>
+      <c r="B68" s="132"/>
+      <c r="C68" s="132"/>
+      <c r="D68" s="132"/>
+      <c r="E68" s="132"/>
+      <c r="F68" s="132"/>
+      <c r="G68" s="132"/>
+      <c r="H68" s="132"/>
+      <c r="I68" s="132"/>
+      <c r="J68" s="132"/>
+      <c r="K68" s="132"/>
+      <c r="L68" s="132"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -11166,8 +11169,8 @@
   </sheetPr>
   <dimension ref="A2:L60"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="K55" sqref="K55"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11177,30 +11180,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="134" t="s">
+      <c r="A2" s="136" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="134"/>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="134"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="134"/>
+      <c r="A3" s="136"/>
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B42" s="27"/>
@@ -11409,15 +11412,16 @@
       <c r="A48" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B48" s="8">
+      <c r="B48" s="130">
+        <f>Dati!$A2</f>
         <v>0</v>
       </c>
       <c r="C48" s="4"/>
-      <c r="D48" s="133" t="s">
+      <c r="D48" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="E48" s="133"/>
-      <c r="F48" s="133"/>
+      <c r="E48" s="135"/>
+      <c r="F48" s="135"/>
       <c r="G48" s="8">
         <v>0</v>
       </c>
@@ -11435,11 +11439,11 @@
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
-      <c r="D49" s="133" t="s">
+      <c r="D49" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="133"/>
-      <c r="F49" s="133"/>
+      <c r="E49" s="135"/>
+      <c r="F49" s="135"/>
       <c r="G49" s="8">
         <v>0</v>
       </c>
@@ -11451,9 +11455,9 @@
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
-      <c r="D50" s="133"/>
-      <c r="E50" s="133"/>
-      <c r="F50" s="133"/>
+      <c r="D50" s="135"/>
+      <c r="E50" s="135"/>
+      <c r="F50" s="135"/>
       <c r="G50" s="8"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
@@ -11598,15 +11602,15 @@
     </row>
     <row r="60" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3"/>
-      <c r="B60" s="131"/>
-      <c r="C60" s="132"/>
-      <c r="D60" s="132"/>
-      <c r="E60" s="132"/>
+      <c r="B60" s="133"/>
+      <c r="C60" s="134"/>
+      <c r="D60" s="134"/>
+      <c r="E60" s="134"/>
       <c r="F60" s="3"/>
-      <c r="G60" s="131"/>
-      <c r="H60" s="132"/>
-      <c r="I60" s="132"/>
-      <c r="J60" s="132"/>
+      <c r="G60" s="133"/>
+      <c r="H60" s="134"/>
+      <c r="I60" s="134"/>
+      <c r="J60" s="134"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -11642,38 +11646,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="137" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="135"/>
-      <c r="N1" s="135"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="137"/>
     </row>
     <row r="2" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="135"/>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="135"/>
+      <c r="A2" s="137"/>
+      <c r="B2" s="137"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="137"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="137"/>
+      <c r="M2" s="137"/>
+      <c r="N2" s="137"/>
     </row>
     <row r="42" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="101" t="s">
@@ -12180,44 +12184,44 @@
       <c r="R1" s="34"/>
     </row>
     <row r="2" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="137" t="s">
         <v>140</v>
       </c>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="135"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="135"/>
-      <c r="Q2" s="135"/>
+      <c r="B2" s="137"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="137"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="137"/>
+      <c r="M2" s="137"/>
+      <c r="N2" s="137"/>
+      <c r="O2" s="137"/>
+      <c r="P2" s="137"/>
+      <c r="Q2" s="137"/>
     </row>
     <row r="3" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="135"/>
-      <c r="B3" s="135"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135"/>
-      <c r="M3" s="135"/>
-      <c r="N3" s="135"/>
-      <c r="O3" s="135"/>
-      <c r="P3" s="135"/>
-      <c r="Q3" s="135"/>
+      <c r="A3" s="137"/>
+      <c r="B3" s="137"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="137"/>
+      <c r="N3" s="137"/>
+      <c r="O3" s="137"/>
+      <c r="P3" s="137"/>
+      <c r="Q3" s="137"/>
     </row>
     <row r="43" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="101" t="s">
@@ -12773,42 +12777,42 @@
       <c r="P1" s="34"/>
     </row>
     <row r="2" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="137" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="135"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="135"/>
+      <c r="B2" s="137"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="137"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="137"/>
+      <c r="M2" s="137"/>
+      <c r="N2" s="137"/>
+      <c r="O2" s="137"/>
+      <c r="P2" s="137"/>
     </row>
     <row r="3" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="135"/>
-      <c r="B3" s="135"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135"/>
-      <c r="M3" s="135"/>
-      <c r="N3" s="135"/>
-      <c r="O3" s="135"/>
-      <c r="P3" s="135"/>
+      <c r="A3" s="137"/>
+      <c r="B3" s="137"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="137"/>
+      <c r="N3" s="137"/>
+      <c r="O3" s="137"/>
+      <c r="P3" s="137"/>
     </row>
     <row r="43" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="101" t="s">
@@ -13285,32 +13289,32 @@
       <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="136" t="s">
+      <c r="A2" s="138" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="136"/>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
+      <c r="A3" s="138"/>
+      <c r="B3" s="138"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="138"/>
     </row>
     <row r="43" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="101" t="s">
@@ -13447,9 +13451,9 @@
       <c r="A49" s="108"/>
       <c r="B49" s="105"/>
       <c r="C49" s="106"/>
-      <c r="D49" s="137"/>
-      <c r="E49" s="137"/>
-      <c r="F49" s="137"/>
+      <c r="D49" s="139"/>
+      <c r="E49" s="139"/>
+      <c r="F49" s="139"/>
       <c r="G49" s="105"/>
       <c r="H49" s="106"/>
       <c r="I49" s="106"/>
@@ -13459,9 +13463,9 @@
       <c r="A50" s="106"/>
       <c r="B50" s="106"/>
       <c r="C50" s="106"/>
-      <c r="D50" s="137"/>
-      <c r="E50" s="137"/>
-      <c r="F50" s="137"/>
+      <c r="D50" s="139"/>
+      <c r="E50" s="139"/>
+      <c r="F50" s="139"/>
       <c r="G50" s="105"/>
       <c r="H50" s="106"/>
       <c r="I50" s="106"/>
@@ -13487,12 +13491,12 @@
       <c r="A56" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="B56" s="138" t="s">
+      <c r="B56" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="C56" s="139"/>
-      <c r="D56" s="139"/>
-      <c r="E56" s="139"/>
+      <c r="C56" s="141"/>
+      <c r="D56" s="141"/>
+      <c r="E56" s="141"/>
       <c r="F56" s="30" t="s">
         <v>93</v>
       </c>
@@ -13622,33 +13626,33 @@
       <c r="L1" s="64"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="140" t="s">
+      <c r="A2" s="142" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="142"/>
       <c r="L2" s="64"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="140"/>
-      <c r="B3" s="140"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="140"/>
-      <c r="J3" s="140"/>
-      <c r="K3" s="140"/>
+      <c r="A3" s="142"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
       <c r="L3" s="64"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -13862,11 +13866,11 @@
         <v>0</v>
       </c>
       <c r="C48" s="4"/>
-      <c r="D48" s="133" t="s">
+      <c r="D48" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="E48" s="133"/>
-      <c r="F48" s="133"/>
+      <c r="E48" s="135"/>
+      <c r="F48" s="135"/>
       <c r="G48" s="8">
         <v>0</v>
       </c>
@@ -13884,11 +13888,11 @@
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
-      <c r="D49" s="133" t="s">
+      <c r="D49" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="133"/>
-      <c r="F49" s="133"/>
+      <c r="E49" s="135"/>
+      <c r="F49" s="135"/>
       <c r="G49" s="8">
         <v>0</v>
       </c>
@@ -13900,9 +13904,9 @@
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
-      <c r="D50" s="133"/>
-      <c r="E50" s="133"/>
-      <c r="F50" s="133"/>
+      <c r="D50" s="135"/>
+      <c r="E50" s="135"/>
+      <c r="F50" s="135"/>
       <c r="G50" s="8"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
@@ -14047,15 +14051,15 @@
     </row>
     <row r="60" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3"/>
-      <c r="B60" s="131"/>
-      <c r="C60" s="132"/>
-      <c r="D60" s="132"/>
-      <c r="E60" s="132"/>
+      <c r="B60" s="133"/>
+      <c r="C60" s="134"/>
+      <c r="D60" s="134"/>
+      <c r="E60" s="134"/>
       <c r="F60" s="3"/>
-      <c r="G60" s="131"/>
-      <c r="H60" s="132"/>
-      <c r="I60" s="132"/>
-      <c r="J60" s="132"/>
+      <c r="G60" s="133"/>
+      <c r="H60" s="134"/>
+      <c r="I60" s="134"/>
+      <c r="J60" s="134"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -14109,42 +14113,42 @@
       <c r="P1" s="64"/>
     </row>
     <row r="2" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="140" t="s">
+      <c r="A2" s="142" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="140"/>
-      <c r="N2" s="140"/>
-      <c r="O2" s="140"/>
-      <c r="P2" s="140"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="142"/>
+      <c r="L2" s="142"/>
+      <c r="M2" s="142"/>
+      <c r="N2" s="142"/>
+      <c r="O2" s="142"/>
+      <c r="P2" s="142"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="140"/>
-      <c r="B3" s="140"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="140"/>
-      <c r="J3" s="140"/>
-      <c r="K3" s="140"/>
-      <c r="L3" s="140"/>
-      <c r="M3" s="140"/>
-      <c r="N3" s="140"/>
-      <c r="O3" s="140"/>
-      <c r="P3" s="140"/>
+      <c r="A3" s="142"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="142"/>
+      <c r="O3" s="142"/>
+      <c r="P3" s="142"/>
     </row>
     <row r="4" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14152,30 +14156,30 @@
       <c r="A43" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C43" s="142" t="s">
+      <c r="C43" s="145" t="s">
         <v>27</v>
       </c>
-      <c r="D43" s="142"/>
-      <c r="E43" s="142" t="s">
+      <c r="D43" s="145"/>
+      <c r="E43" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="F43" s="142"/>
-      <c r="G43" s="142" t="s">
+      <c r="F43" s="145"/>
+      <c r="G43" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="H43" s="142"/>
-      <c r="I43" s="142" t="s">
+      <c r="H43" s="145"/>
+      <c r="I43" s="145" t="s">
         <v>46</v>
       </c>
-      <c r="J43" s="142"/>
-      <c r="K43" s="142" t="s">
+      <c r="J43" s="145"/>
+      <c r="K43" s="145" t="s">
         <v>47</v>
       </c>
-      <c r="L43" s="142"/>
-      <c r="M43" s="142" t="s">
+      <c r="L43" s="145"/>
+      <c r="M43" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="N43" s="142"/>
+      <c r="N43" s="145"/>
     </row>
     <row r="44" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
@@ -14427,23 +14431,23 @@
       <c r="A57" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B57" s="141" t="s">
+      <c r="B57" s="144" t="s">
         <v>59</v>
       </c>
-      <c r="C57" s="141"/>
-      <c r="D57" s="141"/>
-      <c r="E57" s="141"/>
-      <c r="F57" s="141"/>
+      <c r="C57" s="144"/>
+      <c r="D57" s="144"/>
+      <c r="E57" s="144"/>
+      <c r="F57" s="144"/>
       <c r="G57" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="H57" s="141" t="s">
+      <c r="H57" s="144" t="s">
         <v>62</v>
       </c>
-      <c r="I57" s="141"/>
-      <c r="J57" s="141"/>
-      <c r="K57" s="141"/>
-      <c r="L57" s="141"/>
+      <c r="I57" s="144"/>
+      <c r="J57" s="144"/>
+      <c r="K57" s="144"/>
+      <c r="L57" s="144"/>
       <c r="M57" s="58"/>
       <c r="N57" s="58"/>
     </row>
@@ -14471,17 +14475,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="27">
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K46:L46"/>
     <mergeCell ref="A2:P3"/>
     <mergeCell ref="B57:F57"/>
     <mergeCell ref="H57:L57"/>
@@ -14498,6 +14491,17 @@
     <mergeCell ref="E45:F45"/>
     <mergeCell ref="E46:F46"/>
     <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K46:L46"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.19685039370078741" top="0.62992125984251968" bottom="0.55118110236220474" header="0" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
